--- a/log/clustering_log/AgglomerativeClustering/compare.xlsx
+++ b/log/clustering_log/AgglomerativeClustering/compare.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17325" windowHeight="9585" tabRatio="713" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17325" windowHeight="9585" tabRatio="849" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="tf-idf" sheetId="2" r:id="rId1"/>
@@ -12,17 +12,20 @@
     <sheet name="tittle" sheetId="1" r:id="rId3"/>
     <sheet name="lda" sheetId="3" r:id="rId4"/>
     <sheet name="tf-idf extraction" sheetId="4" r:id="rId5"/>
-    <sheet name="Ratio" sheetId="7" r:id="rId6"/>
-    <sheet name="Ratio (3)" sheetId="10" r:id="rId7"/>
-    <sheet name="similarity比較" sheetId="13" r:id="rId8"/>
-    <sheet name="各比較" sheetId="6" r:id="rId9"/>
-    <sheet name="data_set" sheetId="8" r:id="rId10"/>
+    <sheet name="tf-idf extraction (2)" sheetId="14" r:id="rId6"/>
+    <sheet name="Ratio" sheetId="7" r:id="rId7"/>
+    <sheet name="Ratio (3)" sheetId="10" r:id="rId8"/>
+    <sheet name="linkage 比較" sheetId="16" r:id="rId9"/>
+    <sheet name="similarity比較" sheetId="15" r:id="rId10"/>
+    <sheet name="各比較" sheetId="6" r:id="rId11"/>
+    <sheet name="data_set" sheetId="8" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">lda!$A$1:$K$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'tf-idf extraction'!$A$1:$S$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'tf-idf extraction (2)'!$A$1:$S$49</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="49">
   <si>
     <t>cos</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,26 +164,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cosine similarity with centroid linkage</t>
+    <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cosine similarity with average linkage</t>
+    <t>average linkage with cosine similarity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dot similarity with average linkage</t>
+    <t>average linkage with dot similarity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dot similarity with centroid linkage</t>
+    <t>centroid linkage with cosine similarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centroid linkage with dot similarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tfidf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cosine similarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dot similarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -283,7 +334,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -409,7 +460,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -515,7 +566,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D0AB-4DE1-9674-A4669E40796A}"/>
             </c:ext>
@@ -597,7 +648,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -703,7 +754,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D0AB-4DE1-9674-A4669E40796A}"/>
             </c:ext>
@@ -838,7 +889,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D0AB-4DE1-9674-A4669E40796A}"/>
             </c:ext>
@@ -854,9 +905,9 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537061695"/>
-        <c:axId val="537061279"/>
-        <c:extLst>
+        <c:axId val="-1818280976"/>
+        <c:axId val="-1818284240"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -864,7 +915,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$B$1</c15:sqref>
@@ -905,7 +956,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -953,7 +1004,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$B$2:$B$12</c15:sqref>
@@ -1000,7 +1051,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-D0AB-4DE1-9674-A4669E40796A}"/>
                   </c:ext>
@@ -1013,7 +1064,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$C$1</c15:sqref>
@@ -1054,7 +1105,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -1102,7 +1153,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$C$2:$C$12</c15:sqref>
@@ -1149,7 +1200,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-D0AB-4DE1-9674-A4669E40796A}"/>
                   </c:ext>
@@ -1162,7 +1213,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$D$1</c15:sqref>
@@ -1203,7 +1254,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -1251,7 +1302,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$D$2:$D$12</c15:sqref>
@@ -1298,7 +1349,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-D0AB-4DE1-9674-A4669E40796A}"/>
                   </c:ext>
@@ -1311,7 +1362,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$G$1</c15:sqref>
@@ -1352,7 +1403,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -1400,7 +1451,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$G$2:$G$12</c15:sqref>
@@ -1447,7 +1498,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-D0AB-4DE1-9674-A4669E40796A}"/>
                   </c:ext>
@@ -1460,7 +1511,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$H$1</c15:sqref>
@@ -1507,7 +1558,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -1555,7 +1606,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$H$2:$H$12</c15:sqref>
@@ -1602,7 +1653,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-D0AB-4DE1-9674-A4669E40796A}"/>
                   </c:ext>
@@ -1613,7 +1664,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="537061695"/>
+        <c:axId val="-1818280976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1712,7 +1763,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537061279"/>
+        <c:crossAx val="-1818284240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1720,7 +1771,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="537061279"/>
+        <c:axId val="-1818284240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1771,7 +1822,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537061695"/>
+        <c:crossAx val="-1818280976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1853,7 +1904,967 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tf-idf內文</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>各比較!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FE6-49D1-8801-B34BC99C93C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tf-idf標題</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>各比較!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2FE6-49D1-8801-B34BC99C93C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>our method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>各比較!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2FE6-49D1-8801-B34BC99C93C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1725082128"/>
+        <c:axId val="-1725081584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1725082128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1725081584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1725081584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1725082128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tf-idf內文</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>各比較!$B$14:$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$B$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D729-4318-89B2-41D7379BFF9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tf-idf標題</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>各比較!$B$14:$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$B$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D729-4318-89B2-41D7379BFF9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>our method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>各比較!$B$14:$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$B$17:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D729-4318-89B2-41D7379BFF9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1725085936"/>
+        <c:axId val="-1725084304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1725085936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1725084304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1725084304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1725085936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -5576,7 +6587,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DD4A-4AC8-937F-ED0CEE540662}"/>
             </c:ext>
@@ -5590,11 +6601,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="642651167"/>
-        <c:axId val="642651583"/>
+        <c:axId val="-1815818608"/>
+        <c:axId val="-1815811536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="642651167"/>
+        <c:axId val="-1815818608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5707,12 +6718,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642651583"/>
+        <c:crossAx val="-1815811536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="642651583"/>
+        <c:axId val="-1815811536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5837,7 +6848,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642651167"/>
+        <c:crossAx val="-1815818608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5886,8 +6897,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -8256,7 +9267,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9C20-462C-B949-C85C0BE0CF38}"/>
             </c:ext>
@@ -8270,11 +9281,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="642651167"/>
-        <c:axId val="642651583"/>
+        <c:axId val="-1815817520"/>
+        <c:axId val="-1815816976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="642651167"/>
+        <c:axId val="-1815817520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8387,12 +9398,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642651583"/>
+        <c:crossAx val="-1815816976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="642651583"/>
+        <c:axId val="-1815816976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8517,7 +9528,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642651167"/>
+        <c:crossAx val="-1815817520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8567,7 +9578,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -8740,7 +9751,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D7EE-4329-9CC9-54094D3B5BC7}"/>
             </c:ext>
@@ -8869,7 +9880,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-D7EE-4329-9CC9-54094D3B5BC7}"/>
             </c:ext>
@@ -8998,7 +10009,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-D7EE-4329-9CC9-54094D3B5BC7}"/>
             </c:ext>
@@ -9014,9 +10025,9 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537061695"/>
-        <c:axId val="537061279"/>
-        <c:extLst>
+        <c:axId val="-1818277712"/>
+        <c:axId val="-1818288592"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -9024,7 +10035,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$L$1</c15:sqref>
@@ -9065,7 +10076,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -9113,7 +10124,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$L$2:$L$12</c15:sqref>
@@ -9160,7 +10171,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-D7EE-4329-9CC9-54094D3B5BC7}"/>
                   </c:ext>
@@ -9173,7 +10184,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$O$1</c15:sqref>
@@ -9214,7 +10225,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -9262,7 +10273,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$O$2:$O$12</c15:sqref>
@@ -9309,7 +10320,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-D7EE-4329-9CC9-54094D3B5BC7}"/>
                   </c:ext>
@@ -9322,7 +10333,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$P$1</c15:sqref>
@@ -9363,7 +10374,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -9411,7 +10422,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$P$2:$P$12</c15:sqref>
@@ -9458,7 +10469,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-D7EE-4329-9CC9-54094D3B5BC7}"/>
                   </c:ext>
@@ -9471,7 +10482,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$R$1</c15:sqref>
@@ -9518,7 +10529,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -9566,7 +10577,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$R$2:$R$12</c15:sqref>
@@ -9613,7 +10624,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-D7EE-4329-9CC9-54094D3B5BC7}"/>
                   </c:ext>
@@ -9624,7 +10635,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="537061695"/>
+        <c:axId val="-1818277712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9723,7 +10734,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537061279"/>
+        <c:crossAx val="-1818288592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9731,7 +10742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="537061279"/>
+        <c:axId val="-1818288592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9782,7 +10793,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537061695"/>
+        <c:crossAx val="-1818277712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9864,7 +10875,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -10037,7 +11048,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F0A1-4BFB-B51C-C349DEEA00D5}"/>
             </c:ext>
@@ -10166,7 +11177,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-F0A1-4BFB-B51C-C349DEEA00D5}"/>
             </c:ext>
@@ -10295,7 +11306,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-F0A1-4BFB-B51C-C349DEEA00D5}"/>
             </c:ext>
@@ -10311,12 +11322,12 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537061695"/>
-        <c:axId val="537061279"/>
-        <c:extLst/>
+        <c:axId val="-1818276080"/>
+        <c:axId val="-1818279888"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="537061695"/>
+        <c:axId val="-1818276080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10415,7 +11426,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537061279"/>
+        <c:crossAx val="-1818279888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10423,7 +11434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="537061279"/>
+        <c:axId val="-1818279888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10474,7 +11485,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537061695"/>
+        <c:crossAx val="-1818276080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10556,7 +11567,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -10682,7 +11693,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -10788,7 +11799,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6FCE-46A6-809B-8FE955C2F1EE}"/>
             </c:ext>
@@ -10870,7 +11881,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -10976,7 +11987,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6FCE-46A6-809B-8FE955C2F1EE}"/>
             </c:ext>
@@ -11111,7 +12122,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6FCE-46A6-809B-8FE955C2F1EE}"/>
             </c:ext>
@@ -11127,9 +12138,9 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537061695"/>
-        <c:axId val="537061279"/>
-        <c:extLst>
+        <c:axId val="-1818277168"/>
+        <c:axId val="-1818276624"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -11137,7 +12148,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$B$1</c15:sqref>
@@ -11178,7 +12189,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -11226,7 +12237,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$B$2:$B$12</c15:sqref>
@@ -11273,7 +12284,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-6FCE-46A6-809B-8FE955C2F1EE}"/>
                   </c:ext>
@@ -11286,7 +12297,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$C$1</c15:sqref>
@@ -11327,7 +12338,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -11375,7 +12386,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$C$2:$C$12</c15:sqref>
@@ -11422,7 +12433,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-6FCE-46A6-809B-8FE955C2F1EE}"/>
                   </c:ext>
@@ -11435,7 +12446,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$D$1</c15:sqref>
@@ -11476,7 +12487,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -11524,7 +12535,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$D$2:$D$12</c15:sqref>
@@ -11571,7 +12582,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-6FCE-46A6-809B-8FE955C2F1EE}"/>
                   </c:ext>
@@ -11584,7 +12595,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$G$1</c15:sqref>
@@ -11625,7 +12636,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -11673,7 +12684,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$G$2:$G$12</c15:sqref>
@@ -11720,7 +12731,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-6FCE-46A6-809B-8FE955C2F1EE}"/>
                   </c:ext>
@@ -11733,7 +12744,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$H$1</c15:sqref>
@@ -11780,7 +12791,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -11828,7 +12839,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$H$2:$H$12</c15:sqref>
@@ -11875,7 +12886,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-6FCE-46A6-809B-8FE955C2F1EE}"/>
                   </c:ext>
@@ -11886,7 +12897,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="537061695"/>
+        <c:axId val="-1818277168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11929,7 +12940,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537061279"/>
+        <c:crossAx val="-1818276624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11937,7 +12948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="537061279"/>
+        <c:axId val="-1818276624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11988,7 +12999,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537061695"/>
+        <c:crossAx val="-1818277168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12070,7 +13081,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -12243,7 +13254,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3DDD-4E5C-86FF-EFFB63020A28}"/>
             </c:ext>
@@ -12372,7 +13383,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-3DDD-4E5C-86FF-EFFB63020A28}"/>
             </c:ext>
@@ -12501,7 +13512,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-3DDD-4E5C-86FF-EFFB63020A28}"/>
             </c:ext>
@@ -12517,9 +13528,9 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537061695"/>
-        <c:axId val="537061279"/>
-        <c:extLst>
+        <c:axId val="-1818288048"/>
+        <c:axId val="-1818290224"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -12527,7 +13538,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$P$1</c15:sqref>
@@ -12568,7 +13579,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -12616,7 +13627,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$P$2:$P$12</c15:sqref>
@@ -12663,7 +13674,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-3DDD-4E5C-86FF-EFFB63020A28}"/>
                   </c:ext>
@@ -12676,7 +13687,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$Q$1</c15:sqref>
@@ -12717,7 +13728,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -12765,7 +13776,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$Q$2:$Q$12</c15:sqref>
@@ -12812,7 +13823,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-3DDD-4E5C-86FF-EFFB63020A28}"/>
                   </c:ext>
@@ -12823,7 +13834,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="537061695"/>
+        <c:axId val="-1818288048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12866,7 +13877,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537061279"/>
+        <c:crossAx val="-1818290224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12874,7 +13885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="537061279"/>
+        <c:axId val="-1818290224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12925,7 +13936,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537061695"/>
+        <c:crossAx val="-1818288048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13007,7 +14018,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -13021,7 +14032,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13180,7 +14190,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A9FB-4730-84BE-75C24DFE53C0}"/>
             </c:ext>
@@ -13309,7 +14319,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A9FB-4730-84BE-75C24DFE53C0}"/>
             </c:ext>
@@ -13438,7 +14448,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A9FB-4730-84BE-75C24DFE53C0}"/>
             </c:ext>
@@ -13454,9 +14464,9 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537061695"/>
-        <c:axId val="537061279"/>
-        <c:extLst>
+        <c:axId val="-1986657840"/>
+        <c:axId val="-1725082672"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -13464,7 +14474,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$X$1</c15:sqref>
@@ -13505,7 +14515,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -13553,7 +14563,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$X$2:$X$12</c15:sqref>
@@ -13600,7 +14610,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-A9FB-4730-84BE-75C24DFE53C0}"/>
                   </c:ext>
@@ -13613,7 +14623,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$Y$1</c15:sqref>
@@ -13654,7 +14664,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -13702,7 +14712,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$Y$2:$Y$12</c15:sqref>
@@ -13749,7 +14759,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-A9FB-4730-84BE-75C24DFE53C0}"/>
                   </c:ext>
@@ -13762,7 +14772,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2</c15:sqref>
@@ -13803,7 +14813,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -13851,7 +14861,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$3:$A$12</c15:sqref>
@@ -13895,7 +14905,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-A9FB-4730-84BE-75C24DFE53C0}"/>
                   </c:ext>
@@ -13906,7 +14916,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="537061695"/>
+        <c:axId val="-1986657840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13949,7 +14959,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537061279"/>
+        <c:crossAx val="-1725082672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13957,7 +14967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="537061279"/>
+        <c:axId val="-1725082672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14008,7 +15018,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537061695"/>
+        <c:crossAx val="-1986657840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14022,7 +15032,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14090,7 +15099,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -14124,20 +15133,21 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>Dot</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>Similarity</a:t>
+              <a:t>linkage</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-TW" altLang="en-US"/>
               <a:t>比較</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>(cosine</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> similarity)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -14182,11 +15192,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>similarity比較!$B$1</c:f>
+              <c:f>'linkage 比較'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cosine similarity with average linkage</c:v>
+                  <c:v>average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14205,7 +15215,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>similarity比較!$B$2:$B$16</c:f>
+              <c:f>'linkage 比較'!$B$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -14251,26 +15261,24 @@
                 <c:pt idx="13">
                   <c:v>0.52</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.08</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AD84-4CE5-B152-F247ECE5B6B4}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>similarity比較!$C$1</c:f>
+              <c:f>'linkage 比較'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cosine similarity with centroid linkage</c:v>
+                  <c:v>centroid</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14289,7 +15297,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>similarity比較!$C$2:$C$16</c:f>
+              <c:f>'linkage 比較'!$B$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -14335,26 +15343,24 @@
                 <c:pt idx="13">
                   <c:v>0.14000000000000001</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AD84-4CE5-B152-F247ECE5B6B4}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>similarity比較!$D$1</c:f>
+              <c:f>'linkage 比較'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dot similarity with average linkage</c:v>
+                  <c:v>complete</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14373,72 +15379,70 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>similarity比較!$D$2:$D$16</c:f>
+              <c:f>'linkage 比較'!$B$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.54</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62000000000000011</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65999999999999992</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.49</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.53</c:v>
+                  <c:v>0.33999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.54</c:v>
+                  <c:v>0.43000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.54</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.53</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.59</c:v>
+                  <c:v>0.41000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.52</c:v>
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AD84-4CE5-B152-F247ECE5B6B4}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>similarity比較!$E$1</c:f>
+              <c:f>'linkage 比較'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dot similarity with centroid linkage</c:v>
+                  <c:v>single</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14457,61 +15461,59 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>similarity比較!$E$2:$E$16</c:f>
+              <c:f>'linkage 比較'!$B$6:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59000000000000008</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.6100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67999999999999994</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.42000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.54</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.6</c:v>
+                  <c:v>0.47000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AD84-4CE5-B152-F247ECE5B6B4}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -14522,12 +15524,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1038634496"/>
-        <c:axId val="1038634080"/>
-        <c:extLst/>
+        <c:axId val="-1683064256"/>
+        <c:axId val="-1683063168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1038634496"/>
+        <c:axId val="-1683064256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14570,7 +15571,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1038634080"/>
+        <c:crossAx val="-1683063168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14578,11 +15579,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1038634080"/>
+        <c:axId val="-1683063168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.75000000000000011"/>
-          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -14620,12 +15619,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>AMI+ARI</a:t>
+                  <a:t>ARI+AMI</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-TW" altLang="en-US"/>
               </a:p>
@@ -14692,7 +15687,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1038634496"/>
+        <c:crossAx val="-1683064256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14774,7 +15769,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -14788,6 +15783,44 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>linkage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>比較</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>(dot</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> similarity)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -14821,240 +15854,336 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$2</c:f>
+              <c:f>'linkage 比較'!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tf-idf內文</c:v>
+                  <c:v>average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>各比較!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>AMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARI</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Completeness</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Homogeneity</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>V-measure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>各比較!$B$2:$F$2</c:f>
+              <c:f>'linkage 比較'!$B$9:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51</c:v>
+                  <c:v>0.62000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94</c:v>
+                  <c:v>0.65999999999999992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95</c:v>
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2FE6-49D1-8801-B34BC99C93C9}"/>
-            </c:ext>
-          </c:extLst>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$3</c:f>
+              <c:f>'linkage 比較'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tf-idf標題</c:v>
+                  <c:v>centroid</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>各比較!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>AMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARI</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Completeness</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Homogeneity</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>V-measure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>各比較!$B$3:$F$3</c:f>
+              <c:f>'linkage 比較'!$B$10:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96</c:v>
+                  <c:v>0.6100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96</c:v>
+                  <c:v>0.67999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0900000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2FE6-49D1-8801-B34BC99C93C9}"/>
-            </c:ext>
-          </c:extLst>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$4</c:f>
+              <c:f>'linkage 比較'!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>our method</c:v>
+                  <c:v>complete</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>各比較!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>AMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARI</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Completeness</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Homogeneity</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>V-measure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>各比較!$B$4:$F$4</c:f>
+              <c:f>'linkage 比較'!$B$11:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.69</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96</c:v>
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85000000000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2FE6-49D1-8801-B34BC99C93C9}"/>
-            </c:ext>
-          </c:extLst>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'linkage 比較'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'linkage 比較'!$B$12:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -15064,13 +16193,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="541139071"/>
-        <c:axId val="541140319"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="-1683062624"/>
+        <c:axId val="-1683075136"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="541139071"/>
+        <c:axId val="-1683062624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15113,7 +16241,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541140319"/>
+        <c:crossAx val="-1683075136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15121,9 +16249,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="541140319"/>
+        <c:axId val="-1683075136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -15141,6 +16271,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>ARI+AMI</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -15172,7 +16359,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541139071"/>
+        <c:crossAx val="-1683062624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15254,7 +16441,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -15268,6 +16455,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Similarity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>比較</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -15302,7 +16518,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -15310,11 +16526,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$15</c:f>
+              <c:f>similarity比較!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tf-idf內文</c:v>
+                  <c:v>average linkage with cosine similarity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15329,56 +16545,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>各比較!$B$14:$F$14</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>AMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARI</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Completeness</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Homogeneity</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>V-measure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>各比較!$B$15:$F$15</c:f>
+              <c:f>similarity比較!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.48</c:v>
+                  <c:v>0.57000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77</c:v>
+                  <c:v>0.58000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1800000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D729-4318-89B2-41D7379BFF9B}"/>
+              <c16:uniqueId val="{00000004-AD84-4CE5-B152-F247ECE5B6B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15387,11 +16589,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$16</c:f>
+              <c:f>similarity比較!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tf-idf標題</c:v>
+                  <c:v>average linkage with dot similarity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15406,76 +16608,62 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>各比較!$B$14:$F$14</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>AMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARI</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Completeness</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Homogeneity</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>V-measure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>各比較!$B$16:$F$16</c:f>
+              <c:f>similarity比較!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26</c:v>
+                  <c:v>0.58000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71</c:v>
+                  <c:v>0.57000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7</c:v>
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2000000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D729-4318-89B2-41D7379BFF9B}"/>
+              <c16:uniqueId val="{00000000-AD84-4CE5-B152-F247ECE5B6B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$17</c:f>
+              <c:f>similarity比較!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>our method</c:v>
+                  <c:v>centroid linkage with dot similarity</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -15483,56 +16671,42 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>各比較!$B$14:$F$14</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>AMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARI</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Completeness</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Homogeneity</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>V-measure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>各比較!$B$17:$F$17</c:f>
+              <c:f>similarity比較!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.54</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47</c:v>
+                  <c:v>0.57000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76</c:v>
+                  <c:v>0.64999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77</c:v>
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D729-4318-89B2-41D7379BFF9B}"/>
+              <c16:uniqueId val="{00000002-AD84-4CE5-B152-F247ECE5B6B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15544,18 +16718,98 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="541139071"/>
-        <c:axId val="541140319"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="-1683074048"/>
+        <c:axId val="-1683073504"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>similarity比較!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>centroid linkage with cosine similarity</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>similarity比較!$E$2:$E$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0.36</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.45</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.28000000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.43000000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.26</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.36</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.24</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.71000000000000008</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-AD84-4CE5-B152-F247ECE5B6B4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="541139071"/>
+        <c:axId val="-1683074048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -15593,7 +16847,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541140319"/>
+        <c:crossAx val="-1683073504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15601,12 +16855,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="541140319"/>
+        <c:axId val="-1683073504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -15621,6 +16875,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>AMI+ARI</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -15652,7 +16967,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541139071"/>
+        <c:crossAx val="-1683074048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15814,6 +17129,86 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -16690,6 +18085,1012 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17205,7 +19606,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20818,7 +23219,7 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -20926,6 +23327,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -20936,6 +23342,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -20967,6 +23378,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -21321,7 +23735,7 @@
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -21429,6 +23843,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -21439,6 +23858,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -21470,6 +23894,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -22029,20 +24456,89 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="圖表 5"/>
+        <xdr:cNvPr id="2" name="圖表 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -22062,7 +24558,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -22131,7 +24627,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23033,6 +25529,438 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D3">
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="E3">
+        <v>0.45</v>
+      </c>
+      <c r="F3">
+        <v>0.57000000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D4">
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="E4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F4">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>0.63</v>
+      </c>
+      <c r="D5">
+        <v>0.63</v>
+      </c>
+      <c r="E5">
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="F5">
+        <v>0.64999999999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="F6">
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>0.7</v>
+      </c>
+      <c r="D7">
+        <v>0.69</v>
+      </c>
+      <c r="E7">
+        <v>0.36</v>
+      </c>
+      <c r="F7">
+        <v>0.66999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>0.53</v>
+      </c>
+      <c r="D8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E8">
+        <v>0.24</v>
+      </c>
+      <c r="F8">
+        <v>0.53</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <f>C4+C5</f>
+        <v>1.1800000000000002</v>
+      </c>
+      <c r="D9">
+        <f>D4+D5</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="E9">
+        <f>E4+E5</f>
+        <v>0.71000000000000008</v>
+      </c>
+      <c r="F9">
+        <f>F4+F5</f>
+        <v>1.2</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="21" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="29" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H30" s="3"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C2">
+        <v>0.51</v>
+      </c>
+      <c r="D2">
+        <v>0.94</v>
+      </c>
+      <c r="E2">
+        <v>0.95</v>
+      </c>
+      <c r="F2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>0.7</v>
+      </c>
+      <c r="C3">
+        <v>0.62</v>
+      </c>
+      <c r="D3">
+        <v>0.96</v>
+      </c>
+      <c r="E3">
+        <v>0.96</v>
+      </c>
+      <c r="F3">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0.69</v>
+      </c>
+      <c r="C4">
+        <v>0.6</v>
+      </c>
+      <c r="D4">
+        <v>0.96</v>
+      </c>
+      <c r="E4">
+        <v>0.97</v>
+      </c>
+      <c r="F4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>0.48</v>
+      </c>
+      <c r="C15">
+        <v>0.34</v>
+      </c>
+      <c r="D15">
+        <v>0.76</v>
+      </c>
+      <c r="E15">
+        <v>0.78</v>
+      </c>
+      <c r="F15">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>0.4</v>
+      </c>
+      <c r="C16">
+        <v>0.26</v>
+      </c>
+      <c r="D16">
+        <v>0.71</v>
+      </c>
+      <c r="E16">
+        <v>0.7</v>
+      </c>
+      <c r="F16">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>0.54</v>
+      </c>
+      <c r="C17">
+        <v>0.47</v>
+      </c>
+      <c r="D17">
+        <v>0.79</v>
+      </c>
+      <c r="E17">
+        <v>0.76</v>
+      </c>
+      <c r="F17">
+        <v>0.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30521,7 +33449,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K5"/>
+      <selection activeCell="I6" sqref="I6:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -30811,7 +33739,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K39"/>
+      <selection activeCell="K6" sqref="K6:K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -30852,7 +33780,7 @@
       </c>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>5</v>
       </c>
@@ -30888,7 +33816,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>5</v>
       </c>
@@ -31068,7 +33996,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -31104,7 +34032,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -31140,7 +34068,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>10</v>
       </c>
@@ -31176,7 +34104,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -31356,7 +34284,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -31392,7 +34320,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>10</v>
       </c>
@@ -31428,7 +34356,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -31464,7 +34392,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -31644,7 +34572,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -31680,7 +34608,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>15</v>
       </c>
@@ -31716,7 +34644,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>20</v>
       </c>
@@ -31752,7 +34680,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>20</v>
       </c>
@@ -31932,7 +34860,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>20</v>
       </c>
@@ -31968,7 +34896,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>20</v>
       </c>
@@ -32004,7 +34932,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>25</v>
       </c>
@@ -32040,7 +34968,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>25</v>
       </c>
@@ -32220,7 +35148,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>25</v>
       </c>
@@ -32256,7 +35184,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>25</v>
       </c>
@@ -32294,10 +35222,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K41">
-    <filterColumn colId="2">
+    <filterColumn colId="1">
       <filters>
-        <filter val="average"/>
-        <filter val="centroid"/>
+        <filter val="dot"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -32311,8 +35238,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42:K71"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -32349,7 +35276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -32388,7 +35315,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -32583,7 +35510,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -32622,7 +35549,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -32661,7 +35588,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -32700,7 +35627,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -32895,7 +35822,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -32934,7 +35861,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -32973,7 +35900,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -33012,7 +35939,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -33213,7 +36140,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>15</v>
       </c>
@@ -33252,7 +36179,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -33291,7 +36218,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
@@ -33330,7 +36257,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>20</v>
       </c>
@@ -33525,7 +36452,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20</v>
       </c>
@@ -33564,7 +36491,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20</v>
       </c>
@@ -33603,7 +36530,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>25</v>
       </c>
@@ -33642,7 +36569,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>25</v>
       </c>
@@ -33837,7 +36764,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>25</v>
       </c>
@@ -33876,7 +36803,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>25</v>
       </c>
@@ -33915,7 +36842,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -33951,7 +36878,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -34131,7 +37058,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -34167,7 +37094,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
@@ -34203,7 +37130,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10</v>
       </c>
@@ -34239,7 +37166,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10</v>
       </c>
@@ -34419,7 +37346,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10</v>
       </c>
@@ -34455,7 +37382,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10</v>
       </c>
@@ -34491,7 +37418,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>15</v>
       </c>
@@ -34527,7 +37454,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>15</v>
       </c>
@@ -34707,7 +37634,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>15</v>
       </c>
@@ -34743,7 +37670,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>15</v>
       </c>
@@ -34779,7 +37706,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>20</v>
       </c>
@@ -34815,7 +37742,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>20</v>
       </c>
@@ -34995,7 +37922,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>20</v>
       </c>
@@ -35031,7 +37958,7 @@
         <v>0.29000000000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>20</v>
       </c>
@@ -35069,10 +37996,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S73">
-    <filterColumn colId="2">
+    <filterColumn colId="1">
       <filters>
-        <filter val="average"/>
-        <filter val="centroid"/>
+        <filter val="dot"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -35082,6 +38008,1754 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44:K47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.65</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="K2">
+        <f>F2+G2</f>
+        <v>0.57000000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K41" si="0">F3+G3</f>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.75</v>
+      </c>
+      <c r="F4">
+        <v>0.22</v>
+      </c>
+      <c r="G4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.89</v>
+      </c>
+      <c r="I4">
+        <v>0.93</v>
+      </c>
+      <c r="J4">
+        <v>0.91</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>0.65</v>
+      </c>
+      <c r="F5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G5">
+        <v>0.23</v>
+      </c>
+      <c r="H5">
+        <v>0.9</v>
+      </c>
+      <c r="I5">
+        <v>0.91</v>
+      </c>
+      <c r="J5">
+        <v>0.9</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.65</v>
+      </c>
+      <c r="F8">
+        <v>0.32</v>
+      </c>
+      <c r="G8">
+        <v>0.24</v>
+      </c>
+      <c r="H8">
+        <v>0.9</v>
+      </c>
+      <c r="I8">
+        <v>0.9</v>
+      </c>
+      <c r="J8">
+        <v>0.9</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>0.65</v>
+      </c>
+      <c r="F9">
+        <v>0.33</v>
+      </c>
+      <c r="G9">
+        <v>0.25</v>
+      </c>
+      <c r="H9">
+        <v>0.9</v>
+      </c>
+      <c r="I9">
+        <v>0.9</v>
+      </c>
+      <c r="J9">
+        <v>0.9</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.58000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.75</v>
+      </c>
+      <c r="F10">
+        <v>0.27</v>
+      </c>
+      <c r="G10">
+        <v>0.18</v>
+      </c>
+      <c r="H10">
+        <v>0.9</v>
+      </c>
+      <c r="I10">
+        <v>0.92</v>
+      </c>
+      <c r="J10">
+        <v>0.91</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>0.65</v>
+      </c>
+      <c r="F11">
+        <v>0.32</v>
+      </c>
+      <c r="G11">
+        <v>0.25</v>
+      </c>
+      <c r="H11">
+        <v>0.9</v>
+      </c>
+      <c r="I11">
+        <v>0.9</v>
+      </c>
+      <c r="J11">
+        <v>0.9</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.57000000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.65</v>
+      </c>
+      <c r="F12">
+        <v>0.3</v>
+      </c>
+      <c r="G12">
+        <v>0.24</v>
+      </c>
+      <c r="H12">
+        <v>0.9</v>
+      </c>
+      <c r="I12">
+        <v>0.91</v>
+      </c>
+      <c r="J12">
+        <v>0.91</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>0.65</v>
+      </c>
+      <c r="F13">
+        <v>0.3</v>
+      </c>
+      <c r="G13">
+        <v>0.24</v>
+      </c>
+      <c r="H13">
+        <v>0.9</v>
+      </c>
+      <c r="I13">
+        <v>0.91</v>
+      </c>
+      <c r="J13">
+        <v>0.91</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.7</v>
+      </c>
+      <c r="F14">
+        <v>0.3</v>
+      </c>
+      <c r="G14">
+        <v>0.25</v>
+      </c>
+      <c r="H14">
+        <v>0.91</v>
+      </c>
+      <c r="I14">
+        <v>0.87</v>
+      </c>
+      <c r="J14">
+        <v>0.89</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>0.7</v>
+      </c>
+      <c r="F15">
+        <v>0.31</v>
+      </c>
+      <c r="G15">
+        <v>0.26</v>
+      </c>
+      <c r="H15">
+        <v>0.91</v>
+      </c>
+      <c r="I15">
+        <v>0.87</v>
+      </c>
+      <c r="J15">
+        <v>0.89</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0.57000000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0.8</v>
+      </c>
+      <c r="F16">
+        <v>0.22</v>
+      </c>
+      <c r="G16">
+        <v>0.06</v>
+      </c>
+      <c r="H16">
+        <v>0.89</v>
+      </c>
+      <c r="I16">
+        <v>0.89</v>
+      </c>
+      <c r="J16">
+        <v>0.89</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>0.7</v>
+      </c>
+      <c r="F17">
+        <v>0.3</v>
+      </c>
+      <c r="G17">
+        <v>0.25</v>
+      </c>
+      <c r="H17">
+        <v>0.91</v>
+      </c>
+      <c r="I17">
+        <v>0.87</v>
+      </c>
+      <c r="J17">
+        <v>0.89</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0.7</v>
+      </c>
+      <c r="F18">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G18">
+        <v>0.2</v>
+      </c>
+      <c r="H18">
+        <v>0.9</v>
+      </c>
+      <c r="I18">
+        <v>0.89</v>
+      </c>
+      <c r="J18">
+        <v>0.9</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>0.7</v>
+      </c>
+      <c r="F19">
+        <v>0.3</v>
+      </c>
+      <c r="G19">
+        <v>0.2</v>
+      </c>
+      <c r="H19">
+        <v>0.9</v>
+      </c>
+      <c r="I19">
+        <v>0.89</v>
+      </c>
+      <c r="J19">
+        <v>0.9</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0.7</v>
+      </c>
+      <c r="F20">
+        <v>0.35</v>
+      </c>
+      <c r="G20">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H20">
+        <v>0.91</v>
+      </c>
+      <c r="I20">
+        <v>0.89</v>
+      </c>
+      <c r="J20">
+        <v>0.9</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>0.7</v>
+      </c>
+      <c r="F21">
+        <v>0.35</v>
+      </c>
+      <c r="G21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H21">
+        <v>0.91</v>
+      </c>
+      <c r="I21">
+        <v>0.89</v>
+      </c>
+      <c r="J21">
+        <v>0.9</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0.8</v>
+      </c>
+      <c r="F22">
+        <v>0.26</v>
+      </c>
+      <c r="G22">
+        <v>0.17</v>
+      </c>
+      <c r="H22">
+        <v>0.9</v>
+      </c>
+      <c r="I22">
+        <v>0.93</v>
+      </c>
+      <c r="J22">
+        <v>0.92</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>0.43000000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>0.7</v>
+      </c>
+      <c r="F23">
+        <v>0.36</v>
+      </c>
+      <c r="G23">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H23">
+        <v>0.91</v>
+      </c>
+      <c r="I23">
+        <v>0.89</v>
+      </c>
+      <c r="J23">
+        <v>0.9</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0.7</v>
+      </c>
+      <c r="F24">
+        <v>0.34</v>
+      </c>
+      <c r="G24">
+        <v>0.23</v>
+      </c>
+      <c r="H24">
+        <v>0.91</v>
+      </c>
+      <c r="I24">
+        <v>0.9</v>
+      </c>
+      <c r="J24">
+        <v>0.9</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>0.57000000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>0.7</v>
+      </c>
+      <c r="F25">
+        <v>0.34</v>
+      </c>
+      <c r="G25">
+        <v>0.25</v>
+      </c>
+      <c r="H25">
+        <v>0.91</v>
+      </c>
+      <c r="I25">
+        <v>0.9</v>
+      </c>
+      <c r="J25">
+        <v>0.9</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>0.59000000000000008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0.75</v>
+      </c>
+      <c r="F26">
+        <v>0.32</v>
+      </c>
+      <c r="G26">
+        <v>0.26</v>
+      </c>
+      <c r="H26">
+        <v>0.91</v>
+      </c>
+      <c r="I26">
+        <v>0.88</v>
+      </c>
+      <c r="J26">
+        <v>0.89</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>0.58000000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>0.75</v>
+      </c>
+      <c r="F27">
+        <v>0.32</v>
+      </c>
+      <c r="G27">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H27">
+        <v>0.91</v>
+      </c>
+      <c r="I27">
+        <v>0.88</v>
+      </c>
+      <c r="J27">
+        <v>0.89</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0.85</v>
+      </c>
+      <c r="F28">
+        <v>0.11</v>
+      </c>
+      <c r="G28">
+        <v>0.15</v>
+      </c>
+      <c r="H28">
+        <v>0.89</v>
+      </c>
+      <c r="I28">
+        <v>0.98</v>
+      </c>
+      <c r="J28">
+        <v>0.93</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>0.75</v>
+      </c>
+      <c r="F29">
+        <v>0.32</v>
+      </c>
+      <c r="G29">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H29">
+        <v>0.91</v>
+      </c>
+      <c r="I29">
+        <v>0.88</v>
+      </c>
+      <c r="J29">
+        <v>0.89</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0.75</v>
+      </c>
+      <c r="F30">
+        <v>0.34</v>
+      </c>
+      <c r="G30">
+        <v>0.24</v>
+      </c>
+      <c r="H30">
+        <v>0.91</v>
+      </c>
+      <c r="I30">
+        <v>0.9</v>
+      </c>
+      <c r="J30">
+        <v>0.9</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>0.58000000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>0.75</v>
+      </c>
+      <c r="F31">
+        <v>0.32</v>
+      </c>
+      <c r="G31">
+        <v>0.22</v>
+      </c>
+      <c r="H31">
+        <v>0.9</v>
+      </c>
+      <c r="I31">
+        <v>0.9</v>
+      </c>
+      <c r="J31">
+        <v>0.9</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0.75</v>
+      </c>
+      <c r="F32">
+        <v>0.4</v>
+      </c>
+      <c r="G32">
+        <v>0.3</v>
+      </c>
+      <c r="H32">
+        <v>0.92</v>
+      </c>
+      <c r="I32">
+        <v>0.91</v>
+      </c>
+      <c r="J32">
+        <v>0.91</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>0.75</v>
+      </c>
+      <c r="F33">
+        <v>0.39</v>
+      </c>
+      <c r="G33">
+        <v>0.3</v>
+      </c>
+      <c r="H33">
+        <v>0.91</v>
+      </c>
+      <c r="I33">
+        <v>0.91</v>
+      </c>
+      <c r="J33">
+        <v>0.91</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0.85</v>
+      </c>
+      <c r="F34">
+        <v>0.17</v>
+      </c>
+      <c r="G34">
+        <v>0.19</v>
+      </c>
+      <c r="H34">
+        <v>0.89</v>
+      </c>
+      <c r="I34">
+        <v>0.97</v>
+      </c>
+      <c r="J34">
+        <v>0.93</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>0.75</v>
+      </c>
+      <c r="F35">
+        <v>0.38</v>
+      </c>
+      <c r="G35">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H35">
+        <v>0.91</v>
+      </c>
+      <c r="I35">
+        <v>0.9</v>
+      </c>
+      <c r="J35">
+        <v>0.91</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>0.66999999999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0.75</v>
+      </c>
+      <c r="F36">
+        <v>0.35</v>
+      </c>
+      <c r="G36">
+        <v>0.26</v>
+      </c>
+      <c r="H36">
+        <v>0.91</v>
+      </c>
+      <c r="I36">
+        <v>0.92</v>
+      </c>
+      <c r="J36">
+        <v>0.91</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37">
+        <v>0.75</v>
+      </c>
+      <c r="F37">
+        <v>0.37</v>
+      </c>
+      <c r="G37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H37">
+        <v>0.91</v>
+      </c>
+      <c r="I37">
+        <v>0.92</v>
+      </c>
+      <c r="J37">
+        <v>0.92</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0.8</v>
+      </c>
+      <c r="F38">
+        <v>0.3</v>
+      </c>
+      <c r="G38">
+        <v>0.23</v>
+      </c>
+      <c r="H38">
+        <v>0.9</v>
+      </c>
+      <c r="I38">
+        <v>0.92</v>
+      </c>
+      <c r="J38">
+        <v>0.91</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>0.8</v>
+      </c>
+      <c r="F39">
+        <v>0.3</v>
+      </c>
+      <c r="G39">
+        <v>0.25</v>
+      </c>
+      <c r="H39">
+        <v>0.9</v>
+      </c>
+      <c r="I39">
+        <v>0.92</v>
+      </c>
+      <c r="J39">
+        <v>0.91</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0.85</v>
+      </c>
+      <c r="F40">
+        <v>0.19</v>
+      </c>
+      <c r="G40">
+        <v>0.05</v>
+      </c>
+      <c r="H40">
+        <v>0.89</v>
+      </c>
+      <c r="I40">
+        <v>0.87</v>
+      </c>
+      <c r="J40">
+        <v>0.88</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41">
+        <v>0.8</v>
+      </c>
+      <c r="F41">
+        <v>0.3</v>
+      </c>
+      <c r="G41">
+        <v>0.23</v>
+      </c>
+      <c r="H41">
+        <v>0.9</v>
+      </c>
+      <c r="I41">
+        <v>0.92</v>
+      </c>
+      <c r="J41">
+        <v>0.91</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0.8</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="K42">
+        <f>F42+G42</f>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ref="K43:K49" si="1">F43+G43</f>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0.8</v>
+      </c>
+      <c r="F44">
+        <v>0.35</v>
+      </c>
+      <c r="G44">
+        <v>0.3</v>
+      </c>
+      <c r="H44">
+        <v>0.91</v>
+      </c>
+      <c r="I44">
+        <v>0.94</v>
+      </c>
+      <c r="J44">
+        <v>0.93</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>0.64999999999999991</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>0.8</v>
+      </c>
+      <c r="F45">
+        <v>0.36</v>
+      </c>
+      <c r="G45">
+        <v>0.31</v>
+      </c>
+      <c r="H45">
+        <v>0.91</v>
+      </c>
+      <c r="I45">
+        <v>0.94</v>
+      </c>
+      <c r="J45">
+        <v>0.93</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>0.66999999999999993</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0.85</v>
+      </c>
+      <c r="F46">
+        <v>0.24</v>
+      </c>
+      <c r="G46">
+        <v>0.15</v>
+      </c>
+      <c r="H46">
+        <v>0.9</v>
+      </c>
+      <c r="I46">
+        <v>0.93</v>
+      </c>
+      <c r="J46">
+        <v>0.92</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47">
+        <v>0.75</v>
+      </c>
+      <c r="F47">
+        <v>0.34</v>
+      </c>
+      <c r="G47">
+        <v>0.3</v>
+      </c>
+      <c r="H47">
+        <v>0.92</v>
+      </c>
+      <c r="I47">
+        <v>0.85</v>
+      </c>
+      <c r="J47">
+        <v>0.89</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0.75</v>
+      </c>
+      <c r="F48">
+        <v>0.34</v>
+      </c>
+      <c r="G48">
+        <v>0.26</v>
+      </c>
+      <c r="H48">
+        <v>0.91</v>
+      </c>
+      <c r="I48">
+        <v>0.88</v>
+      </c>
+      <c r="J48">
+        <v>0.89</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>0.75</v>
+      </c>
+      <c r="F49">
+        <v>0.33</v>
+      </c>
+      <c r="G49">
+        <v>0.26</v>
+      </c>
+      <c r="H49">
+        <v>0.91</v>
+      </c>
+      <c r="I49">
+        <v>0.88</v>
+      </c>
+      <c r="J49">
+        <v>0.89</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>0.59000000000000008</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:S49"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
@@ -36017,7 +40691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA12"/>
   <sheetViews>
@@ -36941,459 +41615,443 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>0.54</v>
       </c>
-      <c r="C2">
+      <c r="C3">
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="E3">
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.71</v>
+      </c>
+      <c r="G3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H3">
+        <v>0.47</v>
+      </c>
+      <c r="I3">
+        <v>0.53</v>
+      </c>
+      <c r="J3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="P3">
+        <f>K3+L3</f>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>0.4</v>
       </c>
-      <c r="D2">
+      <c r="C4">
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="D4">
+        <v>0.39</v>
+      </c>
+      <c r="E4">
+        <v>0.39</v>
+      </c>
+      <c r="F4">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G4">
+        <v>0.37</v>
+      </c>
+      <c r="H4">
+        <v>0.24</v>
+      </c>
+      <c r="I4">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J4">
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P6" si="0">K4+L4</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.48</v>
+      </c>
+      <c r="C5">
+        <v>0.48</v>
+      </c>
+      <c r="D5">
+        <v>0.37</v>
+      </c>
+      <c r="E5">
+        <v>0.53</v>
+      </c>
+      <c r="F5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G5">
+        <v>0.32</v>
+      </c>
+      <c r="H5">
+        <v>0.37</v>
+      </c>
+      <c r="I5">
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="J5">
+        <v>0.35</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C6">
+        <v>0.62</v>
+      </c>
+      <c r="D6">
+        <v>0.63</v>
+      </c>
+      <c r="E6">
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.63</v>
+      </c>
+      <c r="G6">
+        <v>0.49</v>
+      </c>
+      <c r="H6">
+        <v>0.49</v>
+      </c>
+      <c r="I6">
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="J6">
+        <v>0.46</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>0.54</v>
       </c>
-      <c r="E2">
+      <c r="C9">
+        <v>0.62000000000000011</v>
+      </c>
+      <c r="D9">
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="E9">
+        <v>0.63</v>
+      </c>
+      <c r="F9">
+        <v>0.71</v>
+      </c>
+      <c r="G9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H9">
+        <v>0.49</v>
+      </c>
+      <c r="I9">
+        <v>0.53</v>
+      </c>
+      <c r="J9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="P9:P12" si="1">K9+L9</f>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="C10">
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="D10">
+        <v>0.7</v>
+      </c>
+      <c r="E10">
         <v>0.6100000000000001</v>
       </c>
-      <c r="C3">
-        <v>0.43000000000000005</v>
-      </c>
-      <c r="D3">
-        <v>0.62000000000000011</v>
-      </c>
-      <c r="E3">
-        <v>0.59000000000000008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>0.64999999999999991</v>
-      </c>
-      <c r="C4">
-        <v>0.39</v>
-      </c>
-      <c r="D4">
-        <v>0.65999999999999992</v>
-      </c>
-      <c r="E4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5">
-        <v>0.6100000000000001</v>
-      </c>
-      <c r="C5">
-        <v>0.39</v>
-      </c>
-      <c r="D5">
+      <c r="F10">
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="G10">
+        <v>0.53</v>
+      </c>
+      <c r="H10">
+        <v>0.49</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="J10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.47</v>
+      </c>
+      <c r="C11">
+        <v>0.48</v>
+      </c>
+      <c r="D11">
+        <v>0.53</v>
+      </c>
+      <c r="E11">
+        <v>0.44</v>
+      </c>
+      <c r="F11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G11">
+        <v>0.32</v>
+      </c>
+      <c r="H11">
+        <v>0.37</v>
+      </c>
+      <c r="I11">
+        <v>0.23</v>
+      </c>
+      <c r="J11">
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>0.85000000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.52</v>
+      </c>
+      <c r="C12">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D12">
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="E12">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F12">
         <v>0.63</v>
       </c>
-      <c r="E5">
-        <v>0.6100000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>0.71</v>
-      </c>
-      <c r="C6">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="D6">
-        <v>0.71</v>
-      </c>
-      <c r="E6">
-        <v>0.67999999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="G12">
+        <v>0.47</v>
+      </c>
+      <c r="H12">
+        <v>0.52</v>
+      </c>
+      <c r="I12">
+        <v>0.51</v>
+      </c>
+      <c r="J12">
+        <v>0.46</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="O12" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C7">
-        <v>0.37</v>
-      </c>
-      <c r="D7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E7">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>0.47</v>
-      </c>
-      <c r="C8">
-        <v>0.24</v>
-      </c>
-      <c r="D8">
-        <v>0.49</v>
-      </c>
-      <c r="E8">
-        <v>0.49</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>0.53</v>
-      </c>
-      <c r="C9">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="D9">
-        <v>0.53</v>
-      </c>
-      <c r="E9">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C10">
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="D10">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E10">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.44000000000000006</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.54</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.36</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.54</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>0.54</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.39</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
-        <v>0.61</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.26</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>0.52</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.52</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="21" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="3"/>
-    </row>
-    <row r="22" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-    </row>
-    <row r="23" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-    </row>
-    <row r="24" spans="15:19" x14ac:dyDescent="0.25">
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C2">
-        <v>0.51</v>
-      </c>
-      <c r="D2">
-        <v>0.94</v>
-      </c>
-      <c r="E2">
-        <v>0.95</v>
-      </c>
-      <c r="F2">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3">
-        <v>0.7</v>
-      </c>
-      <c r="C3">
-        <v>0.62</v>
-      </c>
-      <c r="D3">
-        <v>0.96</v>
-      </c>
-      <c r="E3">
-        <v>0.96</v>
-      </c>
-      <c r="F3">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4">
-        <v>0.69</v>
-      </c>
-      <c r="C4">
-        <v>0.6</v>
-      </c>
-      <c r="D4">
-        <v>0.96</v>
-      </c>
-      <c r="E4">
-        <v>0.97</v>
-      </c>
-      <c r="F4">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>0.48</v>
-      </c>
-      <c r="C15">
-        <v>0.34</v>
-      </c>
-      <c r="D15">
-        <v>0.76</v>
-      </c>
-      <c r="E15">
-        <v>0.78</v>
-      </c>
-      <c r="F15">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>0.4</v>
-      </c>
-      <c r="C16">
-        <v>0.26</v>
-      </c>
-      <c r="D16">
-        <v>0.71</v>
-      </c>
-      <c r="E16">
-        <v>0.7</v>
-      </c>
-      <c r="F16">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>0.54</v>
-      </c>
-      <c r="C17">
-        <v>0.47</v>
-      </c>
-      <c r="D17">
-        <v>0.79</v>
-      </c>
-      <c r="E17">
-        <v>0.76</v>
-      </c>
-      <c r="F17">
-        <v>0.77</v>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>1.04</v>
       </c>
     </row>
   </sheetData>

--- a/log/clustering_log/AgglomerativeClustering/compare.xlsx
+++ b/log/clustering_log/AgglomerativeClustering/compare.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19500" windowHeight="12660" tabRatio="849" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="19500" windowHeight="12660" tabRatio="849" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="tf-idf" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'tf-idf extraction (2)'!$A$1:$T$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'tf-idf extraction (3)'!$A$1:$T$73</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="54">
   <si>
     <t>cos</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,14 +243,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time</t>
+    <t>TF-IDFuse_idf=True only_title=False</t>
+  </si>
+  <si>
+    <t>TF-IDFuse_idf=True only_title=True</t>
+  </si>
+  <si>
+    <t>Content Extraction Ratiomethod=1 k=15 with_weight=True t=0.5 c=0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf-idf內文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,7 +372,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -412,7 +422,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -529,7 +538,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B80B-4A30-BBAE-DE9D6227C158}"/>
             </c:ext>
@@ -616,7 +625,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B80B-4A30-BBAE-DE9D6227C158}"/>
             </c:ext>
@@ -703,7 +712,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B80B-4A30-BBAE-DE9D6227C158}"/>
             </c:ext>
@@ -790,7 +799,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B80B-4A30-BBAE-DE9D6227C158}"/>
             </c:ext>
@@ -857,7 +866,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -980,7 +988,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1055,7 +1062,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1123,7 +1129,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1175,7 +1181,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1292,7 +1297,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-20BE-4967-8286-2F4DC878E7CC}"/>
             </c:ext>
@@ -1379,7 +1384,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-20BE-4967-8286-2F4DC878E7CC}"/>
             </c:ext>
@@ -1466,7 +1471,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-20BE-4967-8286-2F4DC878E7CC}"/>
             </c:ext>
@@ -1553,7 +1558,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-20BE-4967-8286-2F4DC878E7CC}"/>
             </c:ext>
@@ -1672,7 +1677,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1747,7 +1751,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1815,7 +1818,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1958,6 +1961,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E486-4E0B-AD41-F1C693DFB8E5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2022,6 +2030,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E486-4E0B-AD41-F1C693DFB8E5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2086,6 +2099,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E486-4E0B-AD41-F1C693DFB8E5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2150,6 +2168,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E486-4E0B-AD41-F1C693DFB8E5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2405,7 +2428,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -2550,6 +2573,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A960-4041-9EB3-1C86B4E5B645}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2617,6 +2645,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A960-4041-9EB3-1C86B4E5B645}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2684,6 +2717,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A960-4041-9EB3-1C86B4E5B645}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2751,6 +2789,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A960-4041-9EB3-1C86B4E5B645}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3005,7 +3048,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -3148,7 +3191,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2FE6-49D1-8801-B34BC99C93C9}"/>
             </c:ext>
@@ -3221,7 +3264,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2FE6-49D1-8801-B34BC99C93C9}"/>
             </c:ext>
@@ -3294,7 +3337,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2FE6-49D1-8801-B34BC99C93C9}"/>
             </c:ext>
@@ -3498,7 +3541,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -3579,7 +3622,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$15</c:f>
+              <c:f>各比較!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3603,11 +3646,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>各比較!$B$14:$F$14</c15:sqref>
+                    <c15:sqref>各比較!$B$5:$F$5</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>各比較!$B$14:$C$14</c:f>
+              <c:f>各比較!$B$5:$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3624,11 +3667,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>各比較!$B$15:$F$15</c15:sqref>
+                    <c15:sqref>各比較!$B$6:$F$6</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>各比較!$B$15:$C$15</c:f>
+              <c:f>各比較!$B$6:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3641,9 +3684,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D729-4318-89B2-41D7379BFF9B}"/>
+              <c16:uniqueId val="{00000000-5396-4741-8FE5-B8F0BCD3FAD7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3652,7 +3695,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$16</c:f>
+              <c:f>各比較!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3676,11 +3719,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>各比較!$B$14:$F$14</c15:sqref>
+                    <c15:sqref>各比較!$B$5:$F$5</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>各比較!$B$14:$C$14</c:f>
+              <c:f>各比較!$B$5:$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3697,11 +3740,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>各比較!$B$16:$F$16</c15:sqref>
+                    <c15:sqref>各比較!$B$7:$F$7</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>各比較!$B$16:$C$16</c:f>
+              <c:f>各比較!$B$7:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3714,9 +3757,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D729-4318-89B2-41D7379BFF9B}"/>
+              <c16:uniqueId val="{00000001-5396-4741-8FE5-B8F0BCD3FAD7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3725,7 +3768,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$17</c:f>
+              <c:f>各比較!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3749,11 +3792,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>各比較!$B$14:$F$14</c15:sqref>
+                    <c15:sqref>各比較!$B$5:$F$5</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>各比較!$B$14:$C$14</c:f>
+              <c:f>各比較!$B$5:$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3770,11 +3813,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>各比較!$B$17:$F$17</c15:sqref>
+                    <c15:sqref>各比較!$B$8:$F$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>各比較!$B$17:$C$17</c:f>
+              <c:f>各比較!$B$8:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3787,9 +3830,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D729-4318-89B2-41D7379BFF9B}"/>
+              <c16:uniqueId val="{00000002-5396-4741-8FE5-B8F0BCD3FAD7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3991,7 +4034,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -4025,7 +4068,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-TW" altLang="en-US"/>
-              <a:t>分群效率</a:t>
+              <a:t>分群效率比較</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4068,22 +4111,25 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$2</c:f>
+              <c:f>各比較!$E$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tf-idf內文</c:v>
+                  <c:v>tf-idf標題</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4092,46 +4138,163 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
+            <c:numRef>
+              <c:f>各比較!$A$14:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$E$14:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.37</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-10D7-48C3-898A-80783BAE447F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
             <c:strRef>
-              <c:f>各比較!$G$1</c:f>
+              <c:f>各比較!$F$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>各比較!$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>551.69000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>各比較!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tf-idf標題</c:v>
+                  <c:v>our method</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4140,76 +4303,142 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>各比較!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+            <c:numRef>
+              <c:f>各比較!$A$14:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>各比較!$G$3</c:f>
+              <c:f>各比較!$F$14:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>49.3</c:v>
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.78</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.71</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>各比較!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>our method</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>各比較!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>各比較!$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>16.600000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-10D7-48C3-898A-80783BAE447F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4219,23 +4448,627 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-1059672240"/>
-        <c:axId val="-1059662992"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="2036363936"/>
+        <c:axId val="2036359360"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tf-idf內文</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>各比較!$A$14:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$B$14:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>290.79000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>254.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>307.74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>383.64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>606.59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>624.97</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>385.29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>522.88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>407.62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>528.19000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>559.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-10D7-48C3-898A-80783BAE447F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tf-idf標題</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>各比較!$A$14:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$C$14:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.37</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-10D7-48C3-898A-80783BAE447F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>our method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>各比較!$A$14:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$D$14:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.78</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.71</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-10D7-48C3-898A-80783BAE447F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1986082928"/>
+        <c:axId val="1986086256"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="-1059672240"/>
+        <c:axId val="1986082928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>文章數量</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1059662992"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1986086256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4243,7 +5076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1059662992"/>
+        <c:axId val="1986086256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4284,11 +5117,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>time(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
-                  <a:t>second)</a:t>
+                  <a:t>time(seconde)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4354,10 +5183,141 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1059672240"/>
+        <c:crossAx val="1986082928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="2036359360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>time(seconde)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2036363936"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2036363936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2036359360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4436,7 +5396,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -4483,7 +5443,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8159,7 +9118,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DD4A-4AC8-937F-ED0CEE540662}"/>
             </c:ext>
@@ -8223,7 +9182,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8353,7 +9311,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8470,7 +9427,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -8517,7 +9474,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10839,7 +11795,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9C20-462C-B949-C85C0BE0CF38}"/>
             </c:ext>
@@ -10903,7 +11859,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11033,7 +11988,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11150,7 +12104,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -11164,7 +12118,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11281,7 +12234,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-43F4-474E-BFAB-0F3C6AEF450B}"/>
             </c:ext>
@@ -11368,7 +12321,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-43F4-474E-BFAB-0F3C6AEF450B}"/>
             </c:ext>
@@ -11455,7 +12408,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-43F4-474E-BFAB-0F3C6AEF450B}"/>
             </c:ext>
@@ -11542,7 +12495,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-43F4-474E-BFAB-0F3C6AEF450B}"/>
             </c:ext>
@@ -11677,7 +12630,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11745,7 +12697,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -11789,7 +12741,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11901,9 +12852,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12007,7 +12957,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D0AB-4DE1-9674-A4669E40796A}"/>
             </c:ext>
@@ -12089,9 +13039,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12195,7 +13144,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D0AB-4DE1-9674-A4669E40796A}"/>
             </c:ext>
@@ -12213,7 +13162,7 @@
         <c:smooth val="0"/>
         <c:axId val="-1514192112"/>
         <c:axId val="-1514183952"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -12221,7 +13170,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$B$1</c15:sqref>
@@ -12262,7 +13211,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -12310,7 +13259,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$B$2:$B$12</c15:sqref>
@@ -12357,7 +13306,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-D0AB-4DE1-9674-A4669E40796A}"/>
                   </c:ext>
@@ -12370,7 +13319,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$C$1</c15:sqref>
@@ -12411,7 +13360,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -12459,7 +13408,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$C$2:$C$12</c15:sqref>
@@ -12506,7 +13455,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-D0AB-4DE1-9674-A4669E40796A}"/>
                   </c:ext>
@@ -12519,7 +13468,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$D$1</c15:sqref>
@@ -12560,7 +13509,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -12608,7 +13557,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$D$2:$D$12</c15:sqref>
@@ -12655,7 +13604,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-D0AB-4DE1-9674-A4669E40796A}"/>
                   </c:ext>
@@ -12668,7 +13617,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$G$1</c15:sqref>
@@ -12709,7 +13658,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -12757,7 +13706,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$G$2:$G$12</c15:sqref>
@@ -12804,7 +13753,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-D0AB-4DE1-9674-A4669E40796A}"/>
                   </c:ext>
@@ -12817,7 +13766,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$H$1</c15:sqref>
@@ -12864,7 +13813,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -12912,7 +13861,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$H$2:$H$12</c15:sqref>
@@ -12959,7 +13908,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-D0AB-4DE1-9674-A4669E40796A}"/>
                   </c:ext>
@@ -13002,7 +13951,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13142,7 +14090,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13210,7 +14157,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -13383,7 +14330,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D7EE-4329-9CC9-54094D3B5BC7}"/>
             </c:ext>
@@ -13512,7 +14459,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-D7EE-4329-9CC9-54094D3B5BC7}"/>
             </c:ext>
@@ -13641,7 +14588,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-D7EE-4329-9CC9-54094D3B5BC7}"/>
             </c:ext>
@@ -13659,7 +14606,7 @@
         <c:smooth val="0"/>
         <c:axId val="-1514186128"/>
         <c:axId val="-1514192656"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -13667,7 +14614,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$L$1</c15:sqref>
@@ -13708,7 +14655,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -13756,7 +14703,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$L$2:$L$12</c15:sqref>
@@ -13803,7 +14750,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-D7EE-4329-9CC9-54094D3B5BC7}"/>
                   </c:ext>
@@ -13816,7 +14763,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$O$1</c15:sqref>
@@ -13857,7 +14804,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -13905,7 +14852,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$O$2:$O$12</c15:sqref>
@@ -13952,7 +14899,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-D7EE-4329-9CC9-54094D3B5BC7}"/>
                   </c:ext>
@@ -13965,7 +14912,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$P$1</c15:sqref>
@@ -14006,7 +14953,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -14054,7 +15001,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$P$2:$P$12</c15:sqref>
@@ -14101,7 +15048,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-D7EE-4329-9CC9-54094D3B5BC7}"/>
                   </c:ext>
@@ -14114,7 +15061,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$R$1</c15:sqref>
@@ -14161,7 +15108,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -14209,7 +15156,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$R$2:$R$12</c15:sqref>
@@ -14256,7 +15203,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-D7EE-4329-9CC9-54094D3B5BC7}"/>
                   </c:ext>
@@ -14507,7 +15454,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -14680,7 +15627,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F0A1-4BFB-B51C-C349DEEA00D5}"/>
             </c:ext>
@@ -14809,7 +15756,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-F0A1-4BFB-B51C-C349DEEA00D5}"/>
             </c:ext>
@@ -14827,7 +15774,7 @@
         <c:smooth val="0"/>
         <c:axId val="-1514181232"/>
         <c:axId val="-1514184496"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -14971,6 +15918,11 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-5F46-4003-82E8-A77111F0E84A}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredLineSeries>
           </c:ext>
@@ -15217,7 +16169,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -15256,7 +16208,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15368,9 +16319,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15474,7 +16424,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6FCE-46A6-809B-8FE955C2F1EE}"/>
             </c:ext>
@@ -15556,9 +16506,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15662,7 +16611,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6FCE-46A6-809B-8FE955C2F1EE}"/>
             </c:ext>
@@ -15680,7 +16629,7 @@
         <c:smooth val="0"/>
         <c:axId val="-1514180688"/>
         <c:axId val="-1514177968"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -15688,7 +16637,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$B$1</c15:sqref>
@@ -15729,7 +16678,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -15777,7 +16726,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$B$2:$B$12</c15:sqref>
@@ -15824,7 +16773,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-6FCE-46A6-809B-8FE955C2F1EE}"/>
                   </c:ext>
@@ -15837,7 +16786,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$C$1</c15:sqref>
@@ -15878,7 +16827,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -15926,7 +16875,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$C$2:$C$12</c15:sqref>
@@ -15973,7 +16922,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-6FCE-46A6-809B-8FE955C2F1EE}"/>
                   </c:ext>
@@ -15986,7 +16935,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$D$1</c15:sqref>
@@ -16027,7 +16976,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -16075,7 +17024,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$D$2:$D$12</c15:sqref>
@@ -16122,7 +17071,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-6FCE-46A6-809B-8FE955C2F1EE}"/>
                   </c:ext>
@@ -16135,7 +17084,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$G$1</c15:sqref>
@@ -16176,7 +17125,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -16224,7 +17173,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$G$2:$G$12</c15:sqref>
@@ -16271,7 +17220,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-6FCE-46A6-809B-8FE955C2F1EE}"/>
                   </c:ext>
@@ -16284,7 +17233,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$H$1</c15:sqref>
@@ -16331,7 +17280,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -16379,7 +17328,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$H$2:$H$12</c15:sqref>
@@ -16426,7 +17375,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-6FCE-46A6-809B-8FE955C2F1EE}"/>
                   </c:ext>
@@ -16469,7 +17418,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16609,7 +17557,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16677,7 +17624,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -16691,7 +17638,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16850,7 +17796,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3DDD-4E5C-86FF-EFFB63020A28}"/>
             </c:ext>
@@ -16979,7 +17925,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-3DDD-4E5C-86FF-EFFB63020A28}"/>
             </c:ext>
@@ -17108,7 +18054,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-3DDD-4E5C-86FF-EFFB63020A28}"/>
             </c:ext>
@@ -17126,7 +18072,7 @@
         <c:smooth val="0"/>
         <c:axId val="-1514189392"/>
         <c:axId val="-1268518896"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -17134,7 +18080,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$P$1</c15:sqref>
@@ -17175,7 +18121,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -17223,7 +18169,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$P$2:$P$12</c15:sqref>
@@ -17270,7 +18216,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-3DDD-4E5C-86FF-EFFB63020A28}"/>
                   </c:ext>
@@ -17283,7 +18229,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$Q$1</c15:sqref>
@@ -17324,7 +18270,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -17372,7 +18318,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$Q$2:$Q$12</c15:sqref>
@@ -17419,7 +18365,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-3DDD-4E5C-86FF-EFFB63020A28}"/>
                   </c:ext>
@@ -17546,7 +18492,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17614,7 +18559,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -17628,7 +18573,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17787,7 +18731,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A9FB-4730-84BE-75C24DFE53C0}"/>
             </c:ext>
@@ -17916,7 +18860,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A9FB-4730-84BE-75C24DFE53C0}"/>
             </c:ext>
@@ -17934,7 +18878,7 @@
         <c:smooth val="0"/>
         <c:axId val="-1268522160"/>
         <c:axId val="-1268526512"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -17942,7 +18886,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$X$1</c15:sqref>
@@ -17983,7 +18927,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -18031,7 +18975,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$X$2:$X$12</c15:sqref>
@@ -18078,7 +19022,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-A9FB-4730-84BE-75C24DFE53C0}"/>
                   </c:ext>
@@ -18091,7 +19035,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$Y$1</c15:sqref>
@@ -18132,7 +19076,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -18180,7 +19124,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$Y$2:$Y$12</c15:sqref>
@@ -18227,7 +19171,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-A9FB-4730-84BE-75C24DFE53C0}"/>
                   </c:ext>
@@ -18240,7 +19184,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2</c15:sqref>
@@ -18281,7 +19225,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -18329,7 +19273,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$3:$A$12</c15:sqref>
@@ -18373,7 +19317,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-A9FB-4730-84BE-75C24DFE53C0}"/>
                   </c:ext>
@@ -18500,7 +19444,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18568,7 +19511,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -18620,7 +19563,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18737,7 +19679,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E4E8-4D26-A675-5116CCD3DDC1}"/>
             </c:ext>
@@ -18824,7 +19766,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E4E8-4D26-A675-5116CCD3DDC1}"/>
             </c:ext>
@@ -18911,7 +19853,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E4E8-4D26-A675-5116CCD3DDC1}"/>
             </c:ext>
@@ -18998,7 +19940,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E4E8-4D26-A675-5116CCD3DDC1}"/>
             </c:ext>
@@ -19115,7 +20057,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19190,7 +20131,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22982,7 +23922,7 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -23090,6 +24030,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -23100,6 +24045,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -23131,6 +24081,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -29091,18 +30044,18 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="圖表 5"/>
+        <xdr:cNvPr id="8" name="圖表 7"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -29121,20 +30074,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="圖表 6"/>
+        <xdr:cNvPr id="10" name="圖表 9"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -30363,8 +31316,8 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J6" sqref="J6:J8"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -32709,7 +33662,7 @@
     </row>
     <row r="2" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>(D2&lt;B2)+(C2&gt;B2)+(E2&gt;D2)</f>
+        <f t="shared" ref="A2:A25" si="0">(D2&lt;B2)+(C2&gt;B2)+(E2&gt;D2)</f>
         <v>0</v>
       </c>
       <c r="B2">
@@ -32739,7 +33692,7 @@
     </row>
     <row r="3" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>(D3&lt;B3)+(C3&gt;B3)+(E3&gt;D3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3">
@@ -32769,7 +33722,7 @@
     </row>
     <row r="4" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>(D4&lt;B4)+(C4&gt;B4)+(E4&gt;D4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B4">
@@ -32799,7 +33752,7 @@
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>(D5&lt;B5)+(C5&gt;B5)+(E5&gt;D5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5">
@@ -32829,7 +33782,7 @@
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>(D6&lt;B6)+(C6&gt;B6)+(E6&gt;D6)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6">
@@ -32859,7 +33812,7 @@
     </row>
     <row r="7" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>(D7&lt;B7)+(C7&gt;B7)+(E7&gt;D7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B7">
@@ -32889,7 +33842,7 @@
     </row>
     <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>(D8&lt;B8)+(C8&gt;B8)+(E8&gt;D8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B8">
@@ -32920,7 +33873,7 @@
     </row>
     <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>(D9&lt;B9)+(C9&gt;B9)+(E9&gt;D9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B9">
@@ -32951,7 +33904,7 @@
     </row>
     <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>(D10&lt;B10)+(C10&gt;B10)+(E10&gt;D10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B10">
@@ -32982,7 +33935,7 @@
     </row>
     <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>(D11&lt;B11)+(C11&gt;B11)+(E11&gt;D11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B11">
@@ -33011,9 +33964,9 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>(D12&lt;B12)+(C12&gt;B12)+(E12&gt;D12)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B12">
@@ -33043,7 +33996,7 @@
     </row>
     <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>(D13&lt;B13)+(C13&gt;B13)+(E13&gt;D13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B13">
@@ -33073,7 +34026,7 @@
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>(D14&lt;B14)+(C14&gt;B14)+(E14&gt;D14)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B14">
@@ -33103,7 +34056,7 @@
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>(D15&lt;B15)+(C15&gt;B15)+(E15&gt;D15)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B15">
@@ -33133,7 +34086,7 @@
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>(D16&lt;B16)+(C16&gt;B16)+(E16&gt;D16)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B16">
@@ -33163,7 +34116,7 @@
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>(D17&lt;B17)+(C17&gt;B17)+(E17&gt;D17)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B17">
@@ -33195,7 +34148,7 @@
     </row>
     <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>(D18&lt;B18)+(C18&gt;B18)+(E18&gt;D18)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B18">
@@ -33227,7 +34180,7 @@
     </row>
     <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>(D19&lt;B19)+(C19&gt;B19)+(E19&gt;D19)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B19">
@@ -33259,7 +34212,7 @@
     </row>
     <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f>(D20&lt;B20)+(C20&gt;B20)+(E20&gt;D20)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B20">
@@ -33291,7 +34244,7 @@
     </row>
     <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f>(D21&lt;B21)+(C21&gt;B21)+(E21&gt;D21)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B21">
@@ -33323,7 +34276,7 @@
     </row>
     <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>(D22&lt;B22)+(C22&gt;B22)+(E22&gt;D22)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B22">
@@ -33355,7 +34308,7 @@
     </row>
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>(D23&lt;B23)+(C23&gt;B23)+(E23&gt;D23)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B23">
@@ -33387,7 +34340,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f>(D24&lt;B24)+(C24&gt;B24)+(E24&gt;D24)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B24">
@@ -33417,7 +34370,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>(D25&lt;B25)+(C25&gt;B25)+(E25&gt;D25)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B25">
@@ -33489,10 +34442,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33513,13 +34466,11 @@
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>0.56999999999999995</v>
@@ -33535,9 +34486,6 @@
       </c>
       <c r="F2">
         <v>0.95</v>
-      </c>
-      <c r="G2">
-        <v>551.69000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -33559,9 +34507,6 @@
       <c r="F3">
         <v>0.96</v>
       </c>
-      <c r="G3">
-        <v>49.3</v>
-      </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -33582,88 +34527,497 @@
       <c r="F4">
         <v>0.96</v>
       </c>
-      <c r="G4" s="10">
-        <v>16.600000000000001</v>
-      </c>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>0.48</v>
+      </c>
+      <c r="C6">
+        <v>0.34</v>
+      </c>
+      <c r="D6">
+        <v>0.76</v>
+      </c>
+      <c r="E6">
+        <v>0.78</v>
+      </c>
+      <c r="F6">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>0.4</v>
+      </c>
+      <c r="C7">
+        <v>0.26</v>
+      </c>
+      <c r="D7">
+        <v>0.71</v>
+      </c>
+      <c r="E7">
+        <v>0.7</v>
+      </c>
+      <c r="F7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>0.54</v>
+      </c>
+      <c r="C8">
+        <v>0.47</v>
+      </c>
+      <c r="D8">
+        <v>0.79</v>
+      </c>
+      <c r="E8">
+        <v>0.76</v>
+      </c>
+      <c r="F8">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>8</v>
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>2.62</v>
+      </c>
+      <c r="C14">
+        <v>0.37</v>
+      </c>
+      <c r="D14">
+        <v>0.99</v>
+      </c>
+      <c r="E14">
+        <v>0.37</v>
+      </c>
+      <c r="F14">
+        <v>0.99</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>26</v>
+      <c r="A15">
+        <v>150</v>
       </c>
       <c r="B15">
-        <v>0.48</v>
+        <v>6.05</v>
       </c>
       <c r="C15">
-        <v>0.34</v>
+        <v>0.97</v>
       </c>
       <c r="D15">
-        <v>0.76</v>
+        <v>1.29</v>
       </c>
       <c r="E15">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="F15">
-        <v>0.77</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
+      <c r="A16">
+        <v>200</v>
       </c>
       <c r="B16">
-        <v>0.4</v>
+        <v>11.53</v>
       </c>
       <c r="C16">
-        <v>0.26</v>
+        <v>1.17</v>
       </c>
       <c r="D16">
-        <v>0.71</v>
+        <v>1.39</v>
       </c>
       <c r="E16">
-        <v>0.7</v>
+        <v>1.17</v>
       </c>
       <c r="F16">
-        <v>0.7</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>28</v>
+      <c r="A17">
+        <v>250</v>
       </c>
       <c r="B17">
-        <v>0.54</v>
+        <v>37.06</v>
       </c>
       <c r="C17">
-        <v>0.47</v>
+        <v>2.5</v>
       </c>
       <c r="D17">
-        <v>0.79</v>
+        <v>3.06</v>
       </c>
       <c r="E17">
-        <v>0.76</v>
+        <v>2.5</v>
       </c>
       <c r="F17">
-        <v>0.77</v>
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>300</v>
+      </c>
+      <c r="B18">
+        <v>50.21</v>
+      </c>
+      <c r="C18">
+        <v>5.23</v>
+      </c>
+      <c r="D18">
+        <v>4.67</v>
+      </c>
+      <c r="E18">
+        <v>5.23</v>
+      </c>
+      <c r="F18">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>350</v>
+      </c>
+      <c r="B19">
+        <v>60.36</v>
+      </c>
+      <c r="C19">
+        <v>4.28</v>
+      </c>
+      <c r="D19">
+        <v>3.97</v>
+      </c>
+      <c r="E19">
+        <v>4.28</v>
+      </c>
+      <c r="F19">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>400</v>
+      </c>
+      <c r="B20">
+        <v>192.44</v>
+      </c>
+      <c r="C20">
+        <v>6.65</v>
+      </c>
+      <c r="D20">
+        <v>6.68</v>
+      </c>
+      <c r="E20">
+        <v>6.65</v>
+      </c>
+      <c r="F20">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>450</v>
+      </c>
+      <c r="B21">
+        <v>73.25</v>
+      </c>
+      <c r="C21">
+        <v>8.36</v>
+      </c>
+      <c r="D21">
+        <v>8.5</v>
+      </c>
+      <c r="E21">
+        <v>8.36</v>
+      </c>
+      <c r="F21">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>500</v>
+      </c>
+      <c r="B22">
+        <v>290.79000000000002</v>
+      </c>
+      <c r="C22">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="D22">
+        <v>5.53</v>
+      </c>
+      <c r="E22">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="F22">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>550</v>
+      </c>
+      <c r="B23">
+        <v>254.27</v>
+      </c>
+      <c r="C23">
+        <v>16.04</v>
+      </c>
+      <c r="D23">
+        <v>12.34</v>
+      </c>
+      <c r="E23">
+        <v>16.04</v>
+      </c>
+      <c r="F23">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>600</v>
+      </c>
+      <c r="B24">
+        <v>307.74</v>
+      </c>
+      <c r="C24">
+        <v>10.19</v>
+      </c>
+      <c r="D24">
+        <v>6.58</v>
+      </c>
+      <c r="E24">
+        <v>10.19</v>
+      </c>
+      <c r="F24">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>650</v>
+      </c>
+      <c r="B25">
+        <v>383.64</v>
+      </c>
+      <c r="C25">
+        <v>21.39</v>
+      </c>
+      <c r="D25">
+        <v>16.53</v>
+      </c>
+      <c r="E25">
+        <v>21.39</v>
+      </c>
+      <c r="F25">
+        <v>16.53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>700</v>
+      </c>
+      <c r="B26">
+        <v>606.59</v>
+      </c>
+      <c r="C26">
+        <v>13.52</v>
+      </c>
+      <c r="D26">
+        <v>8.75</v>
+      </c>
+      <c r="E26">
+        <v>13.52</v>
+      </c>
+      <c r="F26">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>750</v>
+      </c>
+      <c r="B27">
+        <v>624.97</v>
+      </c>
+      <c r="C27">
+        <v>24.56</v>
+      </c>
+      <c r="D27">
+        <v>16.68</v>
+      </c>
+      <c r="E27">
+        <v>24.56</v>
+      </c>
+      <c r="F27">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>800</v>
+      </c>
+      <c r="B28">
+        <v>385.29</v>
+      </c>
+      <c r="C28">
+        <v>26.63</v>
+      </c>
+      <c r="D28">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E28">
+        <v>26.63</v>
+      </c>
+      <c r="F28">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>850</v>
+      </c>
+      <c r="B29">
+        <v>522.88</v>
+      </c>
+      <c r="C29">
+        <v>17.05</v>
+      </c>
+      <c r="D29">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="E29">
+        <v>17.05</v>
+      </c>
+      <c r="F29">
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>900</v>
+      </c>
+      <c r="B30">
+        <v>407.62</v>
+      </c>
+      <c r="C30">
+        <v>20.37</v>
+      </c>
+      <c r="D30">
+        <v>11.78</v>
+      </c>
+      <c r="E30">
+        <v>20.37</v>
+      </c>
+      <c r="F30">
+        <v>11.78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>950</v>
+      </c>
+      <c r="B31">
+        <v>528.19000000000005</v>
+      </c>
+      <c r="C31">
+        <v>22.64</v>
+      </c>
+      <c r="D31">
+        <v>13.71</v>
+      </c>
+      <c r="E31">
+        <v>22.64</v>
+      </c>
+      <c r="F31">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1000</v>
+      </c>
+      <c r="B32">
+        <v>559.4</v>
+      </c>
+      <c r="C32">
+        <v>22.8</v>
+      </c>
+      <c r="D32">
+        <v>13.96</v>
+      </c>
+      <c r="E32">
+        <v>22.8</v>
+      </c>
+      <c r="F32">
+        <v>13.96</v>
       </c>
     </row>
   </sheetData>

--- a/log/clustering_log/AgglomerativeClustering/compare.xlsx
+++ b/log/clustering_log/AgglomerativeClustering/compare.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="19500" windowHeight="12660" tabRatio="849" firstSheet="7" activeTab="14"/>
   </bookViews>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -372,7 +372,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -538,7 +538,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B80B-4A30-BBAE-DE9D6227C158}"/>
             </c:ext>
@@ -625,7 +625,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B80B-4A30-BBAE-DE9D6227C158}"/>
             </c:ext>
@@ -712,7 +712,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B80B-4A30-BBAE-DE9D6227C158}"/>
             </c:ext>
@@ -799,7 +799,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B80B-4A30-BBAE-DE9D6227C158}"/>
             </c:ext>
@@ -814,11 +814,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1514177424"/>
-        <c:axId val="-1514187760"/>
+        <c:axId val="1112709088"/>
+        <c:axId val="1112704736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1514177424"/>
+        <c:axId val="1112709088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -932,7 +932,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1514187760"/>
+        <c:crossAx val="1112704736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -940,7 +940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1514187760"/>
+        <c:axId val="1112704736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.35000000000000003"/>
@@ -1048,7 +1048,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1514177424"/>
+        <c:crossAx val="1112709088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1129,7 +1129,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1297,7 +1297,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-20BE-4967-8286-2F4DC878E7CC}"/>
             </c:ext>
@@ -1384,7 +1384,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-20BE-4967-8286-2F4DC878E7CC}"/>
             </c:ext>
@@ -1471,7 +1471,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-20BE-4967-8286-2F4DC878E7CC}"/>
             </c:ext>
@@ -1558,7 +1558,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-20BE-4967-8286-2F4DC878E7CC}"/>
             </c:ext>
@@ -1573,11 +1573,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1268529232"/>
-        <c:axId val="-1268521616"/>
+        <c:axId val="1205333744"/>
+        <c:axId val="1205341360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1268529232"/>
+        <c:axId val="1205333744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1620,7 +1620,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1268521616"/>
+        <c:crossAx val="1205341360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1628,7 +1628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1268521616"/>
+        <c:axId val="1205341360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -1737,7 +1737,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1268529232"/>
+        <c:crossAx val="1205333744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1818,7 +1818,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1861,7 +1861,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1961,7 +1960,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E486-4E0B-AD41-F1C693DFB8E5}"/>
             </c:ext>
@@ -2030,7 +2029,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E486-4E0B-AD41-F1C693DFB8E5}"/>
             </c:ext>
@@ -2099,7 +2098,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E486-4E0B-AD41-F1C693DFB8E5}"/>
             </c:ext>
@@ -2168,7 +2167,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E486-4E0B-AD41-F1C693DFB8E5}"/>
             </c:ext>
@@ -2183,11 +2182,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-1051967136"/>
-        <c:axId val="-1530246032"/>
+        <c:axId val="1205339184"/>
+        <c:axId val="1205334832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1051967136"/>
+        <c:axId val="1205339184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,7 +2229,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1530246032"/>
+        <c:crossAx val="1205334832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2238,7 +2237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1530246032"/>
+        <c:axId val="1205334832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2285,7 +2284,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2346,7 +2344,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1051967136"/>
+        <c:crossAx val="1205339184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2360,7 +2358,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2428,7 +2425,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -2471,7 +2468,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2573,7 +2569,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A960-4041-9EB3-1C86B4E5B645}"/>
             </c:ext>
@@ -2645,7 +2641,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A960-4041-9EB3-1C86B4E5B645}"/>
             </c:ext>
@@ -2717,7 +2713,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A960-4041-9EB3-1C86B4E5B645}"/>
             </c:ext>
@@ -2789,7 +2785,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A960-4041-9EB3-1C86B4E5B645}"/>
             </c:ext>
@@ -2804,11 +2800,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1051964960"/>
-        <c:axId val="-1051977472"/>
+        <c:axId val="1205338096"/>
+        <c:axId val="1205340816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1051964960"/>
+        <c:axId val="1205338096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2851,7 +2847,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1051977472"/>
+        <c:crossAx val="1205340816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2859,7 +2855,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1051977472"/>
+        <c:axId val="1205340816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2905,7 +2901,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2966,7 +2961,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1051964960"/>
+        <c:crossAx val="1205338096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2980,7 +2975,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3048,7 +3042,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -3191,7 +3185,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2FE6-49D1-8801-B34BC99C93C9}"/>
             </c:ext>
@@ -3264,7 +3258,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2FE6-49D1-8801-B34BC99C93C9}"/>
             </c:ext>
@@ -3337,7 +3331,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2FE6-49D1-8801-B34BC99C93C9}"/>
             </c:ext>
@@ -3353,11 +3347,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1046240192"/>
-        <c:axId val="-1046235840"/>
+        <c:axId val="1205342992"/>
+        <c:axId val="1205344080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1046240192"/>
+        <c:axId val="1205342992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3400,7 +3394,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1046235840"/>
+        <c:crossAx val="1205344080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3408,7 +3402,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1046235840"/>
+        <c:axId val="1205344080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3459,7 +3453,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1046240192"/>
+        <c:crossAx val="1205342992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3541,7 +3535,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -3684,7 +3678,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5396-4741-8FE5-B8F0BCD3FAD7}"/>
             </c:ext>
@@ -3757,7 +3751,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5396-4741-8FE5-B8F0BCD3FAD7}"/>
             </c:ext>
@@ -3830,7 +3824,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5396-4741-8FE5-B8F0BCD3FAD7}"/>
             </c:ext>
@@ -3846,11 +3840,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1046234752"/>
-        <c:axId val="-1046239648"/>
+        <c:axId val="1205330480"/>
+        <c:axId val="1205331024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1046234752"/>
+        <c:axId val="1205330480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3893,7 +3887,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1046239648"/>
+        <c:crossAx val="1205331024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3901,7 +3895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1046239648"/>
+        <c:axId val="1205331024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3952,7 +3946,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1046234752"/>
+        <c:crossAx val="1205330480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4034,7 +4028,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -4269,7 +4263,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-10D7-48C3-898A-80783BAE447F}"/>
             </c:ext>
@@ -4434,7 +4428,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-10D7-48C3-898A-80783BAE447F}"/>
             </c:ext>
@@ -4449,8 +4443,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2036363936"/>
-        <c:axId val="2036359360"/>
+        <c:axId val="1206032736"/>
+        <c:axId val="1206022944"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4614,7 +4608,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-10D7-48C3-898A-80783BAE447F}"/>
             </c:ext>
@@ -4781,7 +4775,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-10D7-48C3-898A-80783BAE447F}"/>
             </c:ext>
@@ -4948,7 +4942,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-10D7-48C3-898A-80783BAE447F}"/>
             </c:ext>
@@ -4964,11 +4958,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1986082928"/>
-        <c:axId val="1986086256"/>
+        <c:axId val="1206034368"/>
+        <c:axId val="1206028928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1986082928"/>
+        <c:axId val="1206034368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5068,7 +5062,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1986086256"/>
+        <c:crossAx val="1206028928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5076,7 +5070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1986086256"/>
+        <c:axId val="1206028928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5183,12 +5177,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1986082928"/>
+        <c:crossAx val="1206034368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2036359360"/>
+        <c:axId val="1206022944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5282,12 +5276,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2036363936"/>
+        <c:crossAx val="1206032736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2036363936"/>
+        <c:axId val="1206032736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5311,7 +5305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2036359360"/>
+        <c:crossAx val="1206022944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5396,7 +5390,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -9118,7 +9112,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DD4A-4AC8-937F-ED0CEE540662}"/>
             </c:ext>
@@ -9132,11 +9126,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1268523248"/>
-        <c:axId val="-1268522704"/>
+        <c:axId val="1206029472"/>
+        <c:axId val="1206027840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1268523248"/>
+        <c:axId val="1206029472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9248,12 +9242,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1268522704"/>
+        <c:crossAx val="1206027840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1268522704"/>
+        <c:axId val="1206027840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9377,7 +9371,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1268523248"/>
+        <c:crossAx val="1206029472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9427,7 +9421,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -11795,7 +11789,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9C20-462C-B949-C85C0BE0CF38}"/>
             </c:ext>
@@ -11809,11 +11803,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1266405360"/>
-        <c:axId val="-1266406448"/>
+        <c:axId val="1206030016"/>
+        <c:axId val="1206025120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1266405360"/>
+        <c:axId val="1206030016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11925,12 +11919,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1266406448"/>
+        <c:crossAx val="1206025120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1266406448"/>
+        <c:axId val="1206025120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12054,7 +12048,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1266405360"/>
+        <c:crossAx val="1206030016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12104,7 +12098,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -12234,7 +12228,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-43F4-474E-BFAB-0F3C6AEF450B}"/>
             </c:ext>
@@ -12321,7 +12315,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-43F4-474E-BFAB-0F3C6AEF450B}"/>
             </c:ext>
@@ -12408,7 +12402,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-43F4-474E-BFAB-0F3C6AEF450B}"/>
             </c:ext>
@@ -12495,7 +12489,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-43F4-474E-BFAB-0F3C6AEF450B}"/>
             </c:ext>
@@ -12510,11 +12504,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1514179056"/>
-        <c:axId val="-1514191568"/>
+        <c:axId val="1112705824"/>
+        <c:axId val="1112706912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1514179056"/>
+        <c:axId val="1112705824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12557,7 +12551,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1514191568"/>
+        <c:crossAx val="1112706912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12565,7 +12559,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1514191568"/>
+        <c:axId val="1112706912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12616,7 +12610,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1514179056"/>
+        <c:crossAx val="1112705824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12697,7 +12691,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -12852,7 +12846,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -12957,7 +12951,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D0AB-4DE1-9674-A4669E40796A}"/>
             </c:ext>
@@ -13039,7 +13033,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13144,7 +13138,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D0AB-4DE1-9674-A4669E40796A}"/>
             </c:ext>
@@ -13160,9 +13154,9 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1514192112"/>
-        <c:axId val="-1514183952"/>
-        <c:extLst>
+        <c:axId val="1112713440"/>
+        <c:axId val="1112710720"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -13170,7 +13164,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$B$1</c15:sqref>
@@ -13211,7 +13205,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -13259,7 +13253,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$B$2:$B$12</c15:sqref>
@@ -13306,7 +13300,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-D0AB-4DE1-9674-A4669E40796A}"/>
                   </c:ext>
@@ -13319,7 +13313,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$C$1</c15:sqref>
@@ -13360,7 +13354,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -13408,7 +13402,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$C$2:$C$12</c15:sqref>
@@ -13455,7 +13449,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-D0AB-4DE1-9674-A4669E40796A}"/>
                   </c:ext>
@@ -13468,7 +13462,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$D$1</c15:sqref>
@@ -13509,7 +13503,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -13557,7 +13551,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$D$2:$D$12</c15:sqref>
@@ -13604,7 +13598,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-D0AB-4DE1-9674-A4669E40796A}"/>
                   </c:ext>
@@ -13617,7 +13611,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$G$1</c15:sqref>
@@ -13658,7 +13652,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -13706,7 +13700,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$G$2:$G$12</c15:sqref>
@@ -13753,7 +13747,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-D0AB-4DE1-9674-A4669E40796A}"/>
                   </c:ext>
@@ -13766,7 +13760,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$H$1</c15:sqref>
@@ -13813,7 +13807,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -13861,7 +13855,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$H$2:$H$12</c15:sqref>
@@ -13908,7 +13902,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-D0AB-4DE1-9674-A4669E40796A}"/>
                   </c:ext>
@@ -13919,7 +13913,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1514192112"/>
+        <c:axId val="1112713440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14017,7 +14011,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1514183952"/>
+        <c:crossAx val="1112710720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14025,7 +14019,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1514183952"/>
+        <c:axId val="1112710720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14076,7 +14070,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1514192112"/>
+        <c:crossAx val="1112713440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14157,7 +14151,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -14171,7 +14165,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14330,7 +14323,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D7EE-4329-9CC9-54094D3B5BC7}"/>
             </c:ext>
@@ -14459,7 +14452,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-D7EE-4329-9CC9-54094D3B5BC7}"/>
             </c:ext>
@@ -14588,7 +14581,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-D7EE-4329-9CC9-54094D3B5BC7}"/>
             </c:ext>
@@ -14604,9 +14597,9 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1514186128"/>
-        <c:axId val="-1514192656"/>
-        <c:extLst>
+        <c:axId val="1112714528"/>
+        <c:axId val="1112703648"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -14614,7 +14607,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$L$1</c15:sqref>
@@ -14655,7 +14648,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -14703,7 +14696,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$L$2:$L$12</c15:sqref>
@@ -14750,7 +14743,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-D7EE-4329-9CC9-54094D3B5BC7}"/>
                   </c:ext>
@@ -14763,7 +14756,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$O$1</c15:sqref>
@@ -14804,7 +14797,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -14852,7 +14845,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$O$2:$O$12</c15:sqref>
@@ -14899,7 +14892,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-D7EE-4329-9CC9-54094D3B5BC7}"/>
                   </c:ext>
@@ -14912,7 +14905,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$P$1</c15:sqref>
@@ -14953,7 +14946,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -15001,7 +14994,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$P$2:$P$12</c15:sqref>
@@ -15048,7 +15041,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-D7EE-4329-9CC9-54094D3B5BC7}"/>
                   </c:ext>
@@ -15061,7 +15054,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$R$1</c15:sqref>
@@ -15108,7 +15101,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
@@ -15156,7 +15149,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Ratio!$R$2:$R$12</c15:sqref>
@@ -15203,7 +15196,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-D7EE-4329-9CC9-54094D3B5BC7}"/>
                   </c:ext>
@@ -15214,2179 +15207,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1514186128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>標題特徵比例</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1514192656"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1514192656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1514186128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ratio!$U$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AMI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Ratio!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Ratio!$U$2:$U$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.68</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F0A1-4BFB-B51C-C349DEEA00D5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ratio!$V$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ARI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Ratio!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Ratio!$V$2:$V$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.61</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F0A1-4BFB-B51C-C349DEEA00D5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-1514181232"/>
-        <c:axId val="-1514184496"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Ratio!$Z$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>AMI+ARI</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0%</c:formatCode>
-                      <c:ptCount val="11"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.7</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.8</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.9</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Ratio!$Z$2:$Z$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="11"/>
-                      <c:pt idx="0">
-                        <c:v>0.65</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.94</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1.1299999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1.27</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>1.27</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1.27</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>1.29</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>1.26</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>1.26</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>1.27</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1.29</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-5F46-4003-82E8-A77111F0E84A}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-1514181232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>標題特徵比例</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1514184496"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1514184496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1514181232"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>20160624(data set A)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ratio (3)'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AMI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Ratio (3)'!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ratio (3)'!$E$2:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.47</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6FCE-46A6-809B-8FE955C2F1EE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Ratio (3)'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ARI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="b"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Ratio (3)'!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ratio (3)'!$F$2:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6FCE-46A6-809B-8FE955C2F1EE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-1514180688"/>
-        <c:axId val="-1514177968"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Ratio (3)'!$B$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>t</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0%</c:formatCode>
-                      <c:ptCount val="11"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.7</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.8</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.9</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Ratio (3)'!$B$2:$B$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="11"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.7</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.8</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.9</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-6FCE-46A6-809B-8FE955C2F1EE}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Ratio (3)'!$C$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>c</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0%</c:formatCode>
-                      <c:ptCount val="11"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.7</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.8</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.9</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Ratio (3)'!$C$2:$C$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="11"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.9</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.8</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.7</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.6</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.3</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.2</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.1</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-6FCE-46A6-809B-8FE955C2F1EE}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Ratio (3)'!$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>threshold</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0%</c:formatCode>
-                      <c:ptCount val="11"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.7</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.8</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.9</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Ratio (3)'!$D$2:$D$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="11"/>
-                      <c:pt idx="0">
-                        <c:v>0.65</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.65</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.65</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.65</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.65</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.65</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.6</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.6</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.55000000000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.55000000000000004</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-6FCE-46A6-809B-8FE955C2F1EE}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Ratio (3)'!$G$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Completeness</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0%</c:formatCode>
-                      <c:ptCount val="11"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.7</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.8</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.9</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Ratio (3)'!$G$2:$G$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="11"/>
-                      <c:pt idx="0">
-                        <c:v>0.73</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.81</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.82</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.81</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.83</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.81</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.81</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.76</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.78</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.78</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.73</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-6FCE-46A6-809B-8FE955C2F1EE}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Ratio (3)'!$H$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Homogeneity</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0%</c:formatCode>
-                      <c:ptCount val="11"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.7</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.8</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.9</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Ratio (3)'!$H$2:$H$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="11"/>
-                      <c:pt idx="0">
-                        <c:v>0.65</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.61</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.65</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.68</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.7</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.77</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.68</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.74</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.8</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.73</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.79</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000007-6FCE-46A6-809B-8FE955C2F1EE}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-1514180688"/>
+        <c:axId val="1112714528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17484,7 +15305,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1514177968"/>
+        <c:crossAx val="1112703648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17492,7 +15313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1514177968"/>
+        <c:axId val="1112703648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17543,7 +15364,2174 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1514180688"/>
+        <c:crossAx val="1112714528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ratio!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Ratio!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ratio!$U$2:$U$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F0A1-4BFB-B51C-C349DEEA00D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ratio!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Ratio!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ratio!$V$2:$V$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F0A1-4BFB-B51C-C349DEEA00D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1112701472"/>
+        <c:axId val="1112702016"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Ratio!$Z$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>AMI+ARI</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Ratio!$A$2:$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Ratio!$Z$2:$Z$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.94</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.1299999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.27</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.27</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.27</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.29</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.26</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.26</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.27</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.29</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-5F46-4003-82E8-A77111F0E84A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1112701472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>標題特徵比例</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1112702016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1112702016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1112701472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>20160624(data set A)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ratio (3)'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ratio (3)'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ratio (3)'!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6FCE-46A6-809B-8FE955C2F1EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ratio (3)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ratio (3)'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ratio (3)'!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6FCE-46A6-809B-8FE955C2F1EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1112711264"/>
+        <c:axId val="1112704192"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ratio (3)'!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>t</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ratio (3)'!$B$2:$B$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-6FCE-46A6-809B-8FE955C2F1EE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ratio (3)'!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>c</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ratio (3)'!$C$2:$C$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-6FCE-46A6-809B-8FE955C2F1EE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ratio (3)'!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>threshold</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ratio (3)'!$D$2:$D$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-6FCE-46A6-809B-8FE955C2F1EE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ratio (3)'!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Completeness</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ratio (3)'!$G$2:$G$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.73</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.81</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.82</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.81</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.83</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.81</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.81</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.76</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.78</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.78</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.73</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-6FCE-46A6-809B-8FE955C2F1EE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ratio (3)'!$H$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Homogeneity</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Ratio (3)'!$H$2:$H$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.61</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.68</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.77</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.68</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.74</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.73</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.79</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-6FCE-46A6-809B-8FE955C2F1EE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1112711264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>標題特徵比例</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1112704192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1112704192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1112711264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17624,7 +17612,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -17796,7 +17784,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3DDD-4E5C-86FF-EFFB63020A28}"/>
             </c:ext>
@@ -17925,7 +17913,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-3DDD-4E5C-86FF-EFFB63020A28}"/>
             </c:ext>
@@ -18054,7 +18042,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-3DDD-4E5C-86FF-EFFB63020A28}"/>
             </c:ext>
@@ -18070,9 +18058,9 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1514189392"/>
-        <c:axId val="-1268518896"/>
-        <c:extLst>
+        <c:axId val="1112707456"/>
+        <c:axId val="1112708544"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -18080,7 +18068,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$P$1</c15:sqref>
@@ -18121,7 +18109,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -18169,7 +18157,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$P$2:$P$12</c15:sqref>
@@ -18216,7 +18204,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-3DDD-4E5C-86FF-EFFB63020A28}"/>
                   </c:ext>
@@ -18229,7 +18217,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$Q$1</c15:sqref>
@@ -18270,7 +18258,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -18318,7 +18306,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$Q$2:$Q$12</c15:sqref>
@@ -18365,7 +18353,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-3DDD-4E5C-86FF-EFFB63020A28}"/>
                   </c:ext>
@@ -18376,7 +18364,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1514189392"/>
+        <c:axId val="1112707456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18419,7 +18407,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1268518896"/>
+        <c:crossAx val="1112708544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18427,7 +18415,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1268518896"/>
+        <c:axId val="1112708544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18478,7 +18466,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1514189392"/>
+        <c:crossAx val="1112707456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18559,7 +18547,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -18731,7 +18719,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A9FB-4730-84BE-75C24DFE53C0}"/>
             </c:ext>
@@ -18860,7 +18848,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A9FB-4730-84BE-75C24DFE53C0}"/>
             </c:ext>
@@ -18876,9 +18864,9 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1268522160"/>
-        <c:axId val="-1268526512"/>
-        <c:extLst>
+        <c:axId val="1205335920"/>
+        <c:axId val="1205337008"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -18886,7 +18874,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$X$1</c15:sqref>
@@ -18927,7 +18915,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -18975,7 +18963,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$X$2:$X$12</c15:sqref>
@@ -19022,7 +19010,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-A9FB-4730-84BE-75C24DFE53C0}"/>
                   </c:ext>
@@ -19035,7 +19023,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$Y$1</c15:sqref>
@@ -19076,7 +19064,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -19124,7 +19112,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$Y$2:$Y$12</c15:sqref>
@@ -19171,7 +19159,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-A9FB-4730-84BE-75C24DFE53C0}"/>
                   </c:ext>
@@ -19184,7 +19172,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2</c15:sqref>
@@ -19225,7 +19213,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$2:$A$12</c15:sqref>
@@ -19273,7 +19261,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (3)'!$A$3:$A$12</c15:sqref>
@@ -19317,7 +19305,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-A9FB-4730-84BE-75C24DFE53C0}"/>
                   </c:ext>
@@ -19328,7 +19316,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1268522160"/>
+        <c:axId val="1205335920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19371,7 +19359,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1268526512"/>
+        <c:crossAx val="1205337008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19379,7 +19367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1268526512"/>
+        <c:axId val="1205337008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19430,7 +19418,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1268522160"/>
+        <c:crossAx val="1205335920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19511,7 +19499,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -19679,7 +19667,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E4E8-4D26-A675-5116CCD3DDC1}"/>
             </c:ext>
@@ -19766,7 +19754,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E4E8-4D26-A675-5116CCD3DDC1}"/>
             </c:ext>
@@ -19853,7 +19841,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E4E8-4D26-A675-5116CCD3DDC1}"/>
             </c:ext>
@@ -19940,7 +19928,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E4E8-4D26-A675-5116CCD3DDC1}"/>
             </c:ext>
@@ -19955,11 +19943,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1268524336"/>
-        <c:axId val="-1268518352"/>
+        <c:axId val="1205333200"/>
+        <c:axId val="1205336464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1268524336"/>
+        <c:axId val="1205333200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20002,7 +19990,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1268518352"/>
+        <c:crossAx val="1205336464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20010,7 +19998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1268518352"/>
+        <c:axId val="1205336464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20117,7 +20105,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1268524336"/>
+        <c:crossAx val="1205333200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/log/clustering_log/AgglomerativeClustering/compare.xlsx
+++ b/log/clustering_log/AgglomerativeClustering/compare.xlsx
@@ -3081,7 +3081,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3467,7 +3466,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3574,7 +3572,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3960,7 +3957,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4067,7 +4063,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4995,7 +4990,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5116,7 +5110,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5215,7 +5208,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5322,7 +5314,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13719,1050 +13710,6 @@
                 <c:pt idx="498">
                   <c:v>499</c:v>
                 </c:pt>
-                <c:pt idx="499">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>502</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>503</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>504</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>505</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>506</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>507</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>508</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>509</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>511</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>513</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>514</c:v>
-                </c:pt>
-                <c:pt idx="514">
-                  <c:v>515</c:v>
-                </c:pt>
-                <c:pt idx="515">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>517</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>518</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>519</c:v>
-                </c:pt>
-                <c:pt idx="519">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="520">
-                  <c:v>521</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>522</c:v>
-                </c:pt>
-                <c:pt idx="522">
-                  <c:v>523</c:v>
-                </c:pt>
-                <c:pt idx="523">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="524">
-                  <c:v>525</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>526</c:v>
-                </c:pt>
-                <c:pt idx="526">
-                  <c:v>527</c:v>
-                </c:pt>
-                <c:pt idx="527">
-                  <c:v>528</c:v>
-                </c:pt>
-                <c:pt idx="528">
-                  <c:v>529</c:v>
-                </c:pt>
-                <c:pt idx="529">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="530">
-                  <c:v>531</c:v>
-                </c:pt>
-                <c:pt idx="531">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="532">
-                  <c:v>533</c:v>
-                </c:pt>
-                <c:pt idx="533">
-                  <c:v>534</c:v>
-                </c:pt>
-                <c:pt idx="534">
-                  <c:v>535</c:v>
-                </c:pt>
-                <c:pt idx="535">
-                  <c:v>536</c:v>
-                </c:pt>
-                <c:pt idx="536">
-                  <c:v>537</c:v>
-                </c:pt>
-                <c:pt idx="537">
-                  <c:v>538</c:v>
-                </c:pt>
-                <c:pt idx="538">
-                  <c:v>539</c:v>
-                </c:pt>
-                <c:pt idx="539">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="540">
-                  <c:v>541</c:v>
-                </c:pt>
-                <c:pt idx="541">
-                  <c:v>542</c:v>
-                </c:pt>
-                <c:pt idx="542">
-                  <c:v>543</c:v>
-                </c:pt>
-                <c:pt idx="543">
-                  <c:v>544</c:v>
-                </c:pt>
-                <c:pt idx="544">
-                  <c:v>545</c:v>
-                </c:pt>
-                <c:pt idx="545">
-                  <c:v>546</c:v>
-                </c:pt>
-                <c:pt idx="546">
-                  <c:v>547</c:v>
-                </c:pt>
-                <c:pt idx="547">
-                  <c:v>548</c:v>
-                </c:pt>
-                <c:pt idx="548">
-                  <c:v>549</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>551</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>552</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>553</c:v>
-                </c:pt>
-                <c:pt idx="553">
-                  <c:v>554</c:v>
-                </c:pt>
-                <c:pt idx="554">
-                  <c:v>555</c:v>
-                </c:pt>
-                <c:pt idx="555">
-                  <c:v>556</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>557</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>558</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>559</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="560">
-                  <c:v>561</c:v>
-                </c:pt>
-                <c:pt idx="561">
-                  <c:v>562</c:v>
-                </c:pt>
-                <c:pt idx="562">
-                  <c:v>563</c:v>
-                </c:pt>
-                <c:pt idx="563">
-                  <c:v>564</c:v>
-                </c:pt>
-                <c:pt idx="564">
-                  <c:v>565</c:v>
-                </c:pt>
-                <c:pt idx="565">
-                  <c:v>566</c:v>
-                </c:pt>
-                <c:pt idx="566">
-                  <c:v>567</c:v>
-                </c:pt>
-                <c:pt idx="567">
-                  <c:v>568</c:v>
-                </c:pt>
-                <c:pt idx="568">
-                  <c:v>569</c:v>
-                </c:pt>
-                <c:pt idx="569">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="570">
-                  <c:v>571</c:v>
-                </c:pt>
-                <c:pt idx="571">
-                  <c:v>572</c:v>
-                </c:pt>
-                <c:pt idx="572">
-                  <c:v>573</c:v>
-                </c:pt>
-                <c:pt idx="573">
-                  <c:v>574</c:v>
-                </c:pt>
-                <c:pt idx="574">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="575">
-                  <c:v>576</c:v>
-                </c:pt>
-                <c:pt idx="576">
-                  <c:v>577</c:v>
-                </c:pt>
-                <c:pt idx="577">
-                  <c:v>578</c:v>
-                </c:pt>
-                <c:pt idx="578">
-                  <c:v>579</c:v>
-                </c:pt>
-                <c:pt idx="579">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="580">
-                  <c:v>581</c:v>
-                </c:pt>
-                <c:pt idx="581">
-                  <c:v>582</c:v>
-                </c:pt>
-                <c:pt idx="582">
-                  <c:v>583</c:v>
-                </c:pt>
-                <c:pt idx="583">
-                  <c:v>584</c:v>
-                </c:pt>
-                <c:pt idx="584">
-                  <c:v>585</c:v>
-                </c:pt>
-                <c:pt idx="585">
-                  <c:v>586</c:v>
-                </c:pt>
-                <c:pt idx="586">
-                  <c:v>587</c:v>
-                </c:pt>
-                <c:pt idx="587">
-                  <c:v>588</c:v>
-                </c:pt>
-                <c:pt idx="588">
-                  <c:v>589</c:v>
-                </c:pt>
-                <c:pt idx="589">
-                  <c:v>590</c:v>
-                </c:pt>
-                <c:pt idx="590">
-                  <c:v>591</c:v>
-                </c:pt>
-                <c:pt idx="591">
-                  <c:v>592</c:v>
-                </c:pt>
-                <c:pt idx="592">
-                  <c:v>593</c:v>
-                </c:pt>
-                <c:pt idx="593">
-                  <c:v>594</c:v>
-                </c:pt>
-                <c:pt idx="594">
-                  <c:v>595</c:v>
-                </c:pt>
-                <c:pt idx="595">
-                  <c:v>596</c:v>
-                </c:pt>
-                <c:pt idx="596">
-                  <c:v>597</c:v>
-                </c:pt>
-                <c:pt idx="597">
-                  <c:v>598</c:v>
-                </c:pt>
-                <c:pt idx="598">
-                  <c:v>599</c:v>
-                </c:pt>
-                <c:pt idx="599">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="600">
-                  <c:v>601</c:v>
-                </c:pt>
-                <c:pt idx="601">
-                  <c:v>602</c:v>
-                </c:pt>
-                <c:pt idx="602">
-                  <c:v>603</c:v>
-                </c:pt>
-                <c:pt idx="603">
-                  <c:v>604</c:v>
-                </c:pt>
-                <c:pt idx="604">
-                  <c:v>605</c:v>
-                </c:pt>
-                <c:pt idx="605">
-                  <c:v>606</c:v>
-                </c:pt>
-                <c:pt idx="606">
-                  <c:v>607</c:v>
-                </c:pt>
-                <c:pt idx="607">
-                  <c:v>608</c:v>
-                </c:pt>
-                <c:pt idx="608">
-                  <c:v>609</c:v>
-                </c:pt>
-                <c:pt idx="609">
-                  <c:v>610</c:v>
-                </c:pt>
-                <c:pt idx="610">
-                  <c:v>611</c:v>
-                </c:pt>
-                <c:pt idx="611">
-                  <c:v>612</c:v>
-                </c:pt>
-                <c:pt idx="612">
-                  <c:v>613</c:v>
-                </c:pt>
-                <c:pt idx="613">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="614">
-                  <c:v>615</c:v>
-                </c:pt>
-                <c:pt idx="615">
-                  <c:v>616</c:v>
-                </c:pt>
-                <c:pt idx="616">
-                  <c:v>617</c:v>
-                </c:pt>
-                <c:pt idx="617">
-                  <c:v>618</c:v>
-                </c:pt>
-                <c:pt idx="618">
-                  <c:v>619</c:v>
-                </c:pt>
-                <c:pt idx="619">
-                  <c:v>620</c:v>
-                </c:pt>
-                <c:pt idx="620">
-                  <c:v>621</c:v>
-                </c:pt>
-                <c:pt idx="621">
-                  <c:v>622</c:v>
-                </c:pt>
-                <c:pt idx="622">
-                  <c:v>623</c:v>
-                </c:pt>
-                <c:pt idx="623">
-                  <c:v>624</c:v>
-                </c:pt>
-                <c:pt idx="624">
-                  <c:v>625</c:v>
-                </c:pt>
-                <c:pt idx="625">
-                  <c:v>626</c:v>
-                </c:pt>
-                <c:pt idx="626">
-                  <c:v>627</c:v>
-                </c:pt>
-                <c:pt idx="627">
-                  <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="628">
-                  <c:v>629</c:v>
-                </c:pt>
-                <c:pt idx="629">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="630">
-                  <c:v>631</c:v>
-                </c:pt>
-                <c:pt idx="631">
-                  <c:v>632</c:v>
-                </c:pt>
-                <c:pt idx="632">
-                  <c:v>633</c:v>
-                </c:pt>
-                <c:pt idx="633">
-                  <c:v>634</c:v>
-                </c:pt>
-                <c:pt idx="634">
-                  <c:v>635</c:v>
-                </c:pt>
-                <c:pt idx="635">
-                  <c:v>636</c:v>
-                </c:pt>
-                <c:pt idx="636">
-                  <c:v>637</c:v>
-                </c:pt>
-                <c:pt idx="637">
-                  <c:v>638</c:v>
-                </c:pt>
-                <c:pt idx="638">
-                  <c:v>639</c:v>
-                </c:pt>
-                <c:pt idx="639">
-                  <c:v>640</c:v>
-                </c:pt>
-                <c:pt idx="640">
-                  <c:v>641</c:v>
-                </c:pt>
-                <c:pt idx="641">
-                  <c:v>642</c:v>
-                </c:pt>
-                <c:pt idx="642">
-                  <c:v>643</c:v>
-                </c:pt>
-                <c:pt idx="643">
-                  <c:v>644</c:v>
-                </c:pt>
-                <c:pt idx="644">
-                  <c:v>645</c:v>
-                </c:pt>
-                <c:pt idx="645">
-                  <c:v>646</c:v>
-                </c:pt>
-                <c:pt idx="646">
-                  <c:v>647</c:v>
-                </c:pt>
-                <c:pt idx="647">
-                  <c:v>648</c:v>
-                </c:pt>
-                <c:pt idx="648">
-                  <c:v>649</c:v>
-                </c:pt>
-                <c:pt idx="649">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="650">
-                  <c:v>651</c:v>
-                </c:pt>
-                <c:pt idx="651">
-                  <c:v>652</c:v>
-                </c:pt>
-                <c:pt idx="652">
-                  <c:v>653</c:v>
-                </c:pt>
-                <c:pt idx="653">
-                  <c:v>654</c:v>
-                </c:pt>
-                <c:pt idx="654">
-                  <c:v>655</c:v>
-                </c:pt>
-                <c:pt idx="655">
-                  <c:v>656</c:v>
-                </c:pt>
-                <c:pt idx="656">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="657">
-                  <c:v>658</c:v>
-                </c:pt>
-                <c:pt idx="658">
-                  <c:v>659</c:v>
-                </c:pt>
-                <c:pt idx="659">
-                  <c:v>660</c:v>
-                </c:pt>
-                <c:pt idx="660">
-                  <c:v>661</c:v>
-                </c:pt>
-                <c:pt idx="661">
-                  <c:v>662</c:v>
-                </c:pt>
-                <c:pt idx="662">
-                  <c:v>663</c:v>
-                </c:pt>
-                <c:pt idx="663">
-                  <c:v>664</c:v>
-                </c:pt>
-                <c:pt idx="664">
-                  <c:v>665</c:v>
-                </c:pt>
-                <c:pt idx="665">
-                  <c:v>666</c:v>
-                </c:pt>
-                <c:pt idx="666">
-                  <c:v>667</c:v>
-                </c:pt>
-                <c:pt idx="667">
-                  <c:v>668</c:v>
-                </c:pt>
-                <c:pt idx="668">
-                  <c:v>669</c:v>
-                </c:pt>
-                <c:pt idx="669">
-                  <c:v>670</c:v>
-                </c:pt>
-                <c:pt idx="670">
-                  <c:v>671</c:v>
-                </c:pt>
-                <c:pt idx="671">
-                  <c:v>672</c:v>
-                </c:pt>
-                <c:pt idx="672">
-                  <c:v>673</c:v>
-                </c:pt>
-                <c:pt idx="673">
-                  <c:v>674</c:v>
-                </c:pt>
-                <c:pt idx="674">
-                  <c:v>675</c:v>
-                </c:pt>
-                <c:pt idx="675">
-                  <c:v>676</c:v>
-                </c:pt>
-                <c:pt idx="676">
-                  <c:v>677</c:v>
-                </c:pt>
-                <c:pt idx="677">
-                  <c:v>678</c:v>
-                </c:pt>
-                <c:pt idx="678">
-                  <c:v>679</c:v>
-                </c:pt>
-                <c:pt idx="679">
-                  <c:v>680</c:v>
-                </c:pt>
-                <c:pt idx="680">
-                  <c:v>681</c:v>
-                </c:pt>
-                <c:pt idx="681">
-                  <c:v>682</c:v>
-                </c:pt>
-                <c:pt idx="682">
-                  <c:v>683</c:v>
-                </c:pt>
-                <c:pt idx="683">
-                  <c:v>684</c:v>
-                </c:pt>
-                <c:pt idx="684">
-                  <c:v>685</c:v>
-                </c:pt>
-                <c:pt idx="685">
-                  <c:v>686</c:v>
-                </c:pt>
-                <c:pt idx="686">
-                  <c:v>687</c:v>
-                </c:pt>
-                <c:pt idx="687">
-                  <c:v>688</c:v>
-                </c:pt>
-                <c:pt idx="688">
-                  <c:v>689</c:v>
-                </c:pt>
-                <c:pt idx="689">
-                  <c:v>690</c:v>
-                </c:pt>
-                <c:pt idx="690">
-                  <c:v>691</c:v>
-                </c:pt>
-                <c:pt idx="691">
-                  <c:v>692</c:v>
-                </c:pt>
-                <c:pt idx="692">
-                  <c:v>693</c:v>
-                </c:pt>
-                <c:pt idx="693">
-                  <c:v>694</c:v>
-                </c:pt>
-                <c:pt idx="694">
-                  <c:v>695</c:v>
-                </c:pt>
-                <c:pt idx="695">
-                  <c:v>696</c:v>
-                </c:pt>
-                <c:pt idx="696">
-                  <c:v>697</c:v>
-                </c:pt>
-                <c:pt idx="697">
-                  <c:v>698</c:v>
-                </c:pt>
-                <c:pt idx="698">
-                  <c:v>699</c:v>
-                </c:pt>
-                <c:pt idx="699">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="700">
-                  <c:v>701</c:v>
-                </c:pt>
-                <c:pt idx="701">
-                  <c:v>702</c:v>
-                </c:pt>
-                <c:pt idx="702">
-                  <c:v>703</c:v>
-                </c:pt>
-                <c:pt idx="703">
-                  <c:v>704</c:v>
-                </c:pt>
-                <c:pt idx="704">
-                  <c:v>705</c:v>
-                </c:pt>
-                <c:pt idx="705">
-                  <c:v>706</c:v>
-                </c:pt>
-                <c:pt idx="706">
-                  <c:v>707</c:v>
-                </c:pt>
-                <c:pt idx="707">
-                  <c:v>708</c:v>
-                </c:pt>
-                <c:pt idx="708">
-                  <c:v>709</c:v>
-                </c:pt>
-                <c:pt idx="709">
-                  <c:v>710</c:v>
-                </c:pt>
-                <c:pt idx="710">
-                  <c:v>711</c:v>
-                </c:pt>
-                <c:pt idx="711">
-                  <c:v>712</c:v>
-                </c:pt>
-                <c:pt idx="712">
-                  <c:v>713</c:v>
-                </c:pt>
-                <c:pt idx="713">
-                  <c:v>714</c:v>
-                </c:pt>
-                <c:pt idx="714">
-                  <c:v>715</c:v>
-                </c:pt>
-                <c:pt idx="715">
-                  <c:v>716</c:v>
-                </c:pt>
-                <c:pt idx="716">
-                  <c:v>717</c:v>
-                </c:pt>
-                <c:pt idx="717">
-                  <c:v>718</c:v>
-                </c:pt>
-                <c:pt idx="718">
-                  <c:v>719</c:v>
-                </c:pt>
-                <c:pt idx="719">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="720">
-                  <c:v>721</c:v>
-                </c:pt>
-                <c:pt idx="721">
-                  <c:v>722</c:v>
-                </c:pt>
-                <c:pt idx="722">
-                  <c:v>723</c:v>
-                </c:pt>
-                <c:pt idx="723">
-                  <c:v>724</c:v>
-                </c:pt>
-                <c:pt idx="724">
-                  <c:v>725</c:v>
-                </c:pt>
-                <c:pt idx="725">
-                  <c:v>726</c:v>
-                </c:pt>
-                <c:pt idx="726">
-                  <c:v>727</c:v>
-                </c:pt>
-                <c:pt idx="727">
-                  <c:v>728</c:v>
-                </c:pt>
-                <c:pt idx="728">
-                  <c:v>729</c:v>
-                </c:pt>
-                <c:pt idx="729">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="730">
-                  <c:v>731</c:v>
-                </c:pt>
-                <c:pt idx="731">
-                  <c:v>732</c:v>
-                </c:pt>
-                <c:pt idx="732">
-                  <c:v>733</c:v>
-                </c:pt>
-                <c:pt idx="733">
-                  <c:v>734</c:v>
-                </c:pt>
-                <c:pt idx="734">
-                  <c:v>735</c:v>
-                </c:pt>
-                <c:pt idx="735">
-                  <c:v>736</c:v>
-                </c:pt>
-                <c:pt idx="736">
-                  <c:v>737</c:v>
-                </c:pt>
-                <c:pt idx="737">
-                  <c:v>738</c:v>
-                </c:pt>
-                <c:pt idx="738">
-                  <c:v>739</c:v>
-                </c:pt>
-                <c:pt idx="739">
-                  <c:v>740</c:v>
-                </c:pt>
-                <c:pt idx="740">
-                  <c:v>741</c:v>
-                </c:pt>
-                <c:pt idx="741">
-                  <c:v>742</c:v>
-                </c:pt>
-                <c:pt idx="742">
-                  <c:v>743</c:v>
-                </c:pt>
-                <c:pt idx="743">
-                  <c:v>744</c:v>
-                </c:pt>
-                <c:pt idx="744">
-                  <c:v>745</c:v>
-                </c:pt>
-                <c:pt idx="745">
-                  <c:v>746</c:v>
-                </c:pt>
-                <c:pt idx="746">
-                  <c:v>747</c:v>
-                </c:pt>
-                <c:pt idx="747">
-                  <c:v>748</c:v>
-                </c:pt>
-                <c:pt idx="748">
-                  <c:v>749</c:v>
-                </c:pt>
-                <c:pt idx="749">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="750">
-                  <c:v>751</c:v>
-                </c:pt>
-                <c:pt idx="751">
-                  <c:v>752</c:v>
-                </c:pt>
-                <c:pt idx="752">
-                  <c:v>753</c:v>
-                </c:pt>
-                <c:pt idx="753">
-                  <c:v>754</c:v>
-                </c:pt>
-                <c:pt idx="754">
-                  <c:v>755</c:v>
-                </c:pt>
-                <c:pt idx="755">
-                  <c:v>756</c:v>
-                </c:pt>
-                <c:pt idx="756">
-                  <c:v>757</c:v>
-                </c:pt>
-                <c:pt idx="757">
-                  <c:v>758</c:v>
-                </c:pt>
-                <c:pt idx="758">
-                  <c:v>759</c:v>
-                </c:pt>
-                <c:pt idx="759">
-                  <c:v>760</c:v>
-                </c:pt>
-                <c:pt idx="760">
-                  <c:v>761</c:v>
-                </c:pt>
-                <c:pt idx="761">
-                  <c:v>762</c:v>
-                </c:pt>
-                <c:pt idx="762">
-                  <c:v>763</c:v>
-                </c:pt>
-                <c:pt idx="763">
-                  <c:v>764</c:v>
-                </c:pt>
-                <c:pt idx="764">
-                  <c:v>765</c:v>
-                </c:pt>
-                <c:pt idx="765">
-                  <c:v>766</c:v>
-                </c:pt>
-                <c:pt idx="766">
-                  <c:v>767</c:v>
-                </c:pt>
-                <c:pt idx="767">
-                  <c:v>768</c:v>
-                </c:pt>
-                <c:pt idx="768">
-                  <c:v>769</c:v>
-                </c:pt>
-                <c:pt idx="769">
-                  <c:v>770</c:v>
-                </c:pt>
-                <c:pt idx="770">
-                  <c:v>771</c:v>
-                </c:pt>
-                <c:pt idx="771">
-                  <c:v>772</c:v>
-                </c:pt>
-                <c:pt idx="772">
-                  <c:v>773</c:v>
-                </c:pt>
-                <c:pt idx="773">
-                  <c:v>774</c:v>
-                </c:pt>
-                <c:pt idx="774">
-                  <c:v>775</c:v>
-                </c:pt>
-                <c:pt idx="775">
-                  <c:v>776</c:v>
-                </c:pt>
-                <c:pt idx="776">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="777">
-                  <c:v>778</c:v>
-                </c:pt>
-                <c:pt idx="778">
-                  <c:v>779</c:v>
-                </c:pt>
-                <c:pt idx="779">
-                  <c:v>780</c:v>
-                </c:pt>
-                <c:pt idx="780">
-                  <c:v>781</c:v>
-                </c:pt>
-                <c:pt idx="781">
-                  <c:v>782</c:v>
-                </c:pt>
-                <c:pt idx="782">
-                  <c:v>783</c:v>
-                </c:pt>
-                <c:pt idx="783">
-                  <c:v>784</c:v>
-                </c:pt>
-                <c:pt idx="784">
-                  <c:v>785</c:v>
-                </c:pt>
-                <c:pt idx="785">
-                  <c:v>786</c:v>
-                </c:pt>
-                <c:pt idx="786">
-                  <c:v>787</c:v>
-                </c:pt>
-                <c:pt idx="787">
-                  <c:v>788</c:v>
-                </c:pt>
-                <c:pt idx="788">
-                  <c:v>789</c:v>
-                </c:pt>
-                <c:pt idx="789">
-                  <c:v>790</c:v>
-                </c:pt>
-                <c:pt idx="790">
-                  <c:v>791</c:v>
-                </c:pt>
-                <c:pt idx="791">
-                  <c:v>792</c:v>
-                </c:pt>
-                <c:pt idx="792">
-                  <c:v>793</c:v>
-                </c:pt>
-                <c:pt idx="793">
-                  <c:v>794</c:v>
-                </c:pt>
-                <c:pt idx="794">
-                  <c:v>795</c:v>
-                </c:pt>
-                <c:pt idx="795">
-                  <c:v>796</c:v>
-                </c:pt>
-                <c:pt idx="796">
-                  <c:v>797</c:v>
-                </c:pt>
-                <c:pt idx="797">
-                  <c:v>798</c:v>
-                </c:pt>
-                <c:pt idx="798">
-                  <c:v>799</c:v>
-                </c:pt>
-                <c:pt idx="799">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="800">
-                  <c:v>801</c:v>
-                </c:pt>
-                <c:pt idx="801">
-                  <c:v>802</c:v>
-                </c:pt>
-                <c:pt idx="802">
-                  <c:v>803</c:v>
-                </c:pt>
-                <c:pt idx="803">
-                  <c:v>804</c:v>
-                </c:pt>
-                <c:pt idx="804">
-                  <c:v>805</c:v>
-                </c:pt>
-                <c:pt idx="805">
-                  <c:v>806</c:v>
-                </c:pt>
-                <c:pt idx="806">
-                  <c:v>807</c:v>
-                </c:pt>
-                <c:pt idx="807">
-                  <c:v>808</c:v>
-                </c:pt>
-                <c:pt idx="808">
-                  <c:v>809</c:v>
-                </c:pt>
-                <c:pt idx="809">
-                  <c:v>810</c:v>
-                </c:pt>
-                <c:pt idx="810">
-                  <c:v>811</c:v>
-                </c:pt>
-                <c:pt idx="811">
-                  <c:v>812</c:v>
-                </c:pt>
-                <c:pt idx="812">
-                  <c:v>813</c:v>
-                </c:pt>
-                <c:pt idx="813">
-                  <c:v>814</c:v>
-                </c:pt>
-                <c:pt idx="814">
-                  <c:v>815</c:v>
-                </c:pt>
-                <c:pt idx="815">
-                  <c:v>816</c:v>
-                </c:pt>
-                <c:pt idx="816">
-                  <c:v>817</c:v>
-                </c:pt>
-                <c:pt idx="817">
-                  <c:v>818</c:v>
-                </c:pt>
-                <c:pt idx="818">
-                  <c:v>819</c:v>
-                </c:pt>
-                <c:pt idx="819">
-                  <c:v>820</c:v>
-                </c:pt>
-                <c:pt idx="820">
-                  <c:v>821</c:v>
-                </c:pt>
-                <c:pt idx="821">
-                  <c:v>822</c:v>
-                </c:pt>
-                <c:pt idx="822">
-                  <c:v>823</c:v>
-                </c:pt>
-                <c:pt idx="823">
-                  <c:v>824</c:v>
-                </c:pt>
-                <c:pt idx="824">
-                  <c:v>825</c:v>
-                </c:pt>
-                <c:pt idx="825">
-                  <c:v>826</c:v>
-                </c:pt>
-                <c:pt idx="826">
-                  <c:v>827</c:v>
-                </c:pt>
-                <c:pt idx="827">
-                  <c:v>828</c:v>
-                </c:pt>
-                <c:pt idx="828">
-                  <c:v>829</c:v>
-                </c:pt>
-                <c:pt idx="829">
-                  <c:v>830</c:v>
-                </c:pt>
-                <c:pt idx="830">
-                  <c:v>831</c:v>
-                </c:pt>
-                <c:pt idx="831">
-                  <c:v>832</c:v>
-                </c:pt>
-                <c:pt idx="832">
-                  <c:v>833</c:v>
-                </c:pt>
-                <c:pt idx="833">
-                  <c:v>834</c:v>
-                </c:pt>
-                <c:pt idx="834">
-                  <c:v>835</c:v>
-                </c:pt>
-                <c:pt idx="835">
-                  <c:v>836</c:v>
-                </c:pt>
-                <c:pt idx="836">
-                  <c:v>837</c:v>
-                </c:pt>
-                <c:pt idx="837">
-                  <c:v>838</c:v>
-                </c:pt>
-                <c:pt idx="838">
-                  <c:v>839</c:v>
-                </c:pt>
-                <c:pt idx="839">
-                  <c:v>840</c:v>
-                </c:pt>
-                <c:pt idx="840">
-                  <c:v>841</c:v>
-                </c:pt>
-                <c:pt idx="841">
-                  <c:v>842</c:v>
-                </c:pt>
-                <c:pt idx="842">
-                  <c:v>843</c:v>
-                </c:pt>
-                <c:pt idx="843">
-                  <c:v>844</c:v>
-                </c:pt>
-                <c:pt idx="844">
-                  <c:v>845</c:v>
-                </c:pt>
-                <c:pt idx="845">
-                  <c:v>846</c:v>
-                </c:pt>
-                <c:pt idx="846">
-                  <c:v>847</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -14773,349 +13720,349 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2543"/>
                 <c:pt idx="0">
-                  <c:v>368</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>133</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>2</c:v>
@@ -15139,289 +14086,289 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="217">
                   <c:v>1</c:v>
@@ -16267,1050 +15214,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="498">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="514">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="515">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="519">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="520">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="522">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="523">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="524">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="526">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="527">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="528">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="529">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="530">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="531">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="532">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="533">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="534">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="535">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="536">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="537">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="538">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="539">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="540">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="541">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="542">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="543">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="544">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="545">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="546">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="547">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="548">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="553">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="554">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="555">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="560">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="561">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="562">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="563">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="564">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="565">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="566">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="567">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="568">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="569">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="570">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="571">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="572">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="573">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="574">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="575">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="576">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="577">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="578">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="579">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="580">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="581">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="582">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="583">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="584">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="585">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="586">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="587">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="588">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="589">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="590">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="591">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="592">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="593">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="594">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="595">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="596">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="597">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="598">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="599">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="600">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="601">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="602">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="603">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="604">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="605">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="606">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="607">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="608">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="609">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="610">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="611">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="612">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="613">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="614">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="615">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="616">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="617">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="618">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="619">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="620">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="621">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="622">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="623">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="624">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="625">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="626">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="627">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="628">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="629">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="630">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="631">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="632">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="633">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="634">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="635">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="636">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="637">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="638">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="639">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="640">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="641">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="642">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="643">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="644">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="645">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="646">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="647">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="648">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="649">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="650">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="651">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="652">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="653">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="654">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="655">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="656">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="657">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="658">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="659">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="660">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="661">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="662">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="663">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="664">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="665">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="666">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="667">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="668">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="669">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="670">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="671">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="672">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="673">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="674">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="675">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="676">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="677">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="678">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="679">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="680">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="681">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="682">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="683">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="684">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="685">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="686">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="687">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="688">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="689">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="690">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="691">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="692">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="693">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="694">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="695">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="696">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="697">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="698">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="699">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="700">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="701">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="702">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="703">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="704">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="705">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="706">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="707">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="708">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="709">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="710">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="711">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="712">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="713">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="714">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="715">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="716">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="717">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="718">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="719">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="720">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="721">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="722">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="723">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="724">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="725">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="726">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="727">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="728">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="729">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="730">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="731">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="732">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="733">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="734">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="735">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="736">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="737">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="738">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="739">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="740">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="741">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="742">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="743">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="744">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="745">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="746">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="747">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="748">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="749">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="750">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="751">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="752">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="753">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="754">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="755">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="756">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="757">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="758">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="759">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="760">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="761">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="762">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="763">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="764">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="765">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="766">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="767">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="768">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="769">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="770">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="771">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="772">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="773">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="774">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="775">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="776">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="777">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="778">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="779">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="780">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="781">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="782">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="783">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="784">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="785">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="786">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="787">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="788">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="789">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="790">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="791">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="792">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="793">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="794">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="795">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="796">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="797">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="798">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="799">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="800">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="801">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="802">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="803">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="804">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="805">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="806">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="807">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="808">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="809">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="810">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="811">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="812">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="813">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="814">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="815">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="816">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="817">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="818">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="819">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="820">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="821">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="822">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="823">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="824">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="825">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="826">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="827">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="828">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="829">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="830">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="831">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="832">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="833">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="834">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="835">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="836">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="837">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="838">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="839">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="840">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="841">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="842">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="843">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="844">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="845">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="846">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -41138,7 +39041,7 @@
   <dimension ref="A1:F849"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -41197,7 +39100,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>368</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -41217,7 +39120,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="1">
-        <v>133</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -41237,7 +39140,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -41257,7 +39160,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -41277,7 +39180,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -41297,7 +39200,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -41317,7 +39220,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -41337,7 +39240,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -41357,7 +39260,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -41377,7 +39280,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -41397,7 +39300,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -41417,7 +39320,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -41437,7 +39340,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -41457,7 +39360,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -41477,7 +39380,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -41497,7 +39400,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -41517,7 +39420,7 @@
         <v>17</v>
       </c>
       <c r="F19" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -41537,7 +39440,7 @@
         <v>18</v>
       </c>
       <c r="F20" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -41557,7 +39460,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -41577,7 +39480,7 @@
         <v>20</v>
       </c>
       <c r="F22" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -41597,7 +39500,7 @@
         <v>21</v>
       </c>
       <c r="F23" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -41617,7 +39520,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -41637,7 +39540,7 @@
         <v>23</v>
       </c>
       <c r="F25" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -41657,7 +39560,7 @@
         <v>24</v>
       </c>
       <c r="F26" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -41677,7 +39580,7 @@
         <v>25</v>
       </c>
       <c r="F27" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -41697,7 +39600,7 @@
         <v>26</v>
       </c>
       <c r="F28" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -41717,7 +39620,7 @@
         <v>27</v>
       </c>
       <c r="F29" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -41737,7 +39640,7 @@
         <v>28</v>
       </c>
       <c r="F30" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -41757,7 +39660,7 @@
         <v>29</v>
       </c>
       <c r="F31" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -41777,7 +39680,7 @@
         <v>30</v>
       </c>
       <c r="F32" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -41797,7 +39700,7 @@
         <v>31</v>
       </c>
       <c r="F33" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -41817,7 +39720,7 @@
         <v>32</v>
       </c>
       <c r="F34" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -41837,7 +39740,7 @@
         <v>33</v>
       </c>
       <c r="F35" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -41857,7 +39760,7 @@
         <v>34</v>
       </c>
       <c r="F36" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -41877,7 +39780,7 @@
         <v>35</v>
       </c>
       <c r="F37" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -41897,7 +39800,7 @@
         <v>36</v>
       </c>
       <c r="F38" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -41917,7 +39820,7 @@
         <v>37</v>
       </c>
       <c r="F39" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -41937,7 +39840,7 @@
         <v>38</v>
       </c>
       <c r="F40" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -41957,7 +39860,7 @@
         <v>39</v>
       </c>
       <c r="F41" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -41977,7 +39880,7 @@
         <v>40</v>
       </c>
       <c r="F42" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -41997,7 +39900,7 @@
         <v>41</v>
       </c>
       <c r="F43" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -42017,7 +39920,7 @@
         <v>42</v>
       </c>
       <c r="F44" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -42037,7 +39940,7 @@
         <v>43</v>
       </c>
       <c r="F45" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -42057,7 +39960,7 @@
         <v>44</v>
       </c>
       <c r="F46" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -42077,7 +39980,7 @@
         <v>45</v>
       </c>
       <c r="F47" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -42097,7 +40000,7 @@
         <v>46</v>
       </c>
       <c r="F48" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -42117,7 +40020,7 @@
         <v>47</v>
       </c>
       <c r="F49" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -42137,7 +40040,7 @@
         <v>48</v>
       </c>
       <c r="F50" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -42157,7 +40060,7 @@
         <v>49</v>
       </c>
       <c r="F51" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -42177,7 +40080,7 @@
         <v>50</v>
       </c>
       <c r="F52" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -42197,7 +40100,7 @@
         <v>51</v>
       </c>
       <c r="F53" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -42217,7 +40120,7 @@
         <v>52</v>
       </c>
       <c r="F54" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -42237,7 +40140,7 @@
         <v>53</v>
       </c>
       <c r="F55" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -42257,7 +40160,7 @@
         <v>54</v>
       </c>
       <c r="F56" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -42277,7 +40180,7 @@
         <v>55</v>
       </c>
       <c r="F57" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -42297,7 +40200,7 @@
         <v>56</v>
       </c>
       <c r="F58" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -42317,7 +40220,7 @@
         <v>57</v>
       </c>
       <c r="F59" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -42337,7 +40240,7 @@
         <v>58</v>
       </c>
       <c r="F60" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -42357,7 +40260,7 @@
         <v>59</v>
       </c>
       <c r="F61" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -42377,7 +40280,7 @@
         <v>60</v>
       </c>
       <c r="F62" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -42397,7 +40300,7 @@
         <v>61</v>
       </c>
       <c r="F63" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -42417,7 +40320,7 @@
         <v>62</v>
       </c>
       <c r="F64" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -42437,7 +40340,7 @@
         <v>63</v>
       </c>
       <c r="F65" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -42457,7 +40360,7 @@
         <v>64</v>
       </c>
       <c r="F66" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -42477,7 +40380,7 @@
         <v>65</v>
       </c>
       <c r="F67" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -42497,7 +40400,7 @@
         <v>66</v>
       </c>
       <c r="F68" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -42517,7 +40420,7 @@
         <v>67</v>
       </c>
       <c r="F69" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -42537,7 +40440,7 @@
         <v>68</v>
       </c>
       <c r="F70" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -42557,7 +40460,7 @@
         <v>69</v>
       </c>
       <c r="F71" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -42577,7 +40480,7 @@
         <v>70</v>
       </c>
       <c r="F72" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -42597,7 +40500,7 @@
         <v>71</v>
       </c>
       <c r="F73" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -42617,7 +40520,7 @@
         <v>72</v>
       </c>
       <c r="F74" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -42637,7 +40540,7 @@
         <v>73</v>
       </c>
       <c r="F75" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -42657,7 +40560,7 @@
         <v>74</v>
       </c>
       <c r="F76" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -42677,7 +40580,7 @@
         <v>75</v>
       </c>
       <c r="F77" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -42697,7 +40600,7 @@
         <v>76</v>
       </c>
       <c r="F78" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -42717,7 +40620,7 @@
         <v>77</v>
       </c>
       <c r="F79" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -42737,7 +40640,7 @@
         <v>78</v>
       </c>
       <c r="F80" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -42757,7 +40660,7 @@
         <v>79</v>
       </c>
       <c r="F81" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -42777,7 +40680,7 @@
         <v>80</v>
       </c>
       <c r="F82" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -42797,7 +40700,7 @@
         <v>81</v>
       </c>
       <c r="F83" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -42817,7 +40720,7 @@
         <v>82</v>
       </c>
       <c r="F84" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -42837,7 +40740,7 @@
         <v>83</v>
       </c>
       <c r="F85" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -42857,7 +40760,7 @@
         <v>84</v>
       </c>
       <c r="F86" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -42877,7 +40780,7 @@
         <v>85</v>
       </c>
       <c r="F87" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -42897,7 +40800,7 @@
         <v>86</v>
       </c>
       <c r="F88" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -42917,7 +40820,7 @@
         <v>87</v>
       </c>
       <c r="F89" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -42937,7 +40840,7 @@
         <v>88</v>
       </c>
       <c r="F90" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -42957,7 +40860,7 @@
         <v>89</v>
       </c>
       <c r="F91" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -42977,7 +40880,7 @@
         <v>90</v>
       </c>
       <c r="F92" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -42997,7 +40900,7 @@
         <v>91</v>
       </c>
       <c r="F93" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -43017,7 +40920,7 @@
         <v>92</v>
       </c>
       <c r="F94" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -43037,7 +40940,7 @@
         <v>93</v>
       </c>
       <c r="F95" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -43057,7 +40960,7 @@
         <v>94</v>
       </c>
       <c r="F96" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -43077,7 +40980,7 @@
         <v>95</v>
       </c>
       <c r="F97" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -43097,7 +41000,7 @@
         <v>96</v>
       </c>
       <c r="F98" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -43117,7 +41020,7 @@
         <v>97</v>
       </c>
       <c r="F99" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -43137,7 +41040,7 @@
         <v>98</v>
       </c>
       <c r="F100" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -43157,7 +41060,7 @@
         <v>99</v>
       </c>
       <c r="F101" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -43177,7 +41080,7 @@
         <v>100</v>
       </c>
       <c r="F102" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -43197,7 +41100,7 @@
         <v>101</v>
       </c>
       <c r="F103" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -43217,7 +41120,7 @@
         <v>102</v>
       </c>
       <c r="F104" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -43237,7 +41140,7 @@
         <v>103</v>
       </c>
       <c r="F105" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -43257,7 +41160,7 @@
         <v>104</v>
       </c>
       <c r="F106" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -43277,7 +41180,7 @@
         <v>105</v>
       </c>
       <c r="F107" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -43297,7 +41200,7 @@
         <v>106</v>
       </c>
       <c r="F108" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -43317,7 +41220,7 @@
         <v>107</v>
       </c>
       <c r="F109" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -43337,7 +41240,7 @@
         <v>108</v>
       </c>
       <c r="F110" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -43357,7 +41260,7 @@
         <v>109</v>
       </c>
       <c r="F111" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -43377,7 +41280,7 @@
         <v>110</v>
       </c>
       <c r="F112" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -43397,7 +41300,7 @@
         <v>111</v>
       </c>
       <c r="F113" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -43417,7 +41320,7 @@
         <v>112</v>
       </c>
       <c r="F114" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -43437,7 +41340,7 @@
         <v>113</v>
       </c>
       <c r="F115" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -43457,7 +41360,7 @@
         <v>114</v>
       </c>
       <c r="F116" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -43477,7 +41380,7 @@
         <v>115</v>
       </c>
       <c r="F117" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -43637,7 +41540,7 @@
         <v>123</v>
       </c>
       <c r="F125" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -43657,7 +41560,7 @@
         <v>124</v>
       </c>
       <c r="F126" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -43677,7 +41580,7 @@
         <v>125</v>
       </c>
       <c r="F127" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -43697,7 +41600,7 @@
         <v>126</v>
       </c>
       <c r="F128" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -43717,7 +41620,7 @@
         <v>127</v>
       </c>
       <c r="F129" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -43737,7 +41640,7 @@
         <v>128</v>
       </c>
       <c r="F130" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -43757,7 +41660,7 @@
         <v>129</v>
       </c>
       <c r="F131" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -43777,7 +41680,7 @@
         <v>130</v>
       </c>
       <c r="F132" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -43797,7 +41700,7 @@
         <v>131</v>
       </c>
       <c r="F133" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -43817,7 +41720,7 @@
         <v>132</v>
       </c>
       <c r="F134" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -43837,7 +41740,7 @@
         <v>133</v>
       </c>
       <c r="F135" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -43857,7 +41760,7 @@
         <v>134</v>
       </c>
       <c r="F136" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -43877,7 +41780,7 @@
         <v>135</v>
       </c>
       <c r="F137" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -43897,7 +41800,7 @@
         <v>136</v>
       </c>
       <c r="F138" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -43917,7 +41820,7 @@
         <v>137</v>
       </c>
       <c r="F139" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -43937,7 +41840,7 @@
         <v>138</v>
       </c>
       <c r="F140" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -43957,7 +41860,7 @@
         <v>139</v>
       </c>
       <c r="F141" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -43977,7 +41880,7 @@
         <v>140</v>
       </c>
       <c r="F142" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -43997,7 +41900,7 @@
         <v>141</v>
       </c>
       <c r="F143" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -44017,7 +41920,7 @@
         <v>142</v>
       </c>
       <c r="F144" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -44037,7 +41940,7 @@
         <v>143</v>
       </c>
       <c r="F145" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -44057,7 +41960,7 @@
         <v>144</v>
       </c>
       <c r="F146" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -44077,7 +41980,7 @@
         <v>145</v>
       </c>
       <c r="F147" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -44097,7 +42000,7 @@
         <v>146</v>
       </c>
       <c r="F148" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -44117,7 +42020,7 @@
         <v>147</v>
       </c>
       <c r="F149" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -44137,7 +42040,7 @@
         <v>148</v>
       </c>
       <c r="F150" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -44157,7 +42060,7 @@
         <v>149</v>
       </c>
       <c r="F151" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -44177,7 +42080,7 @@
         <v>150</v>
       </c>
       <c r="F152" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -44197,7 +42100,7 @@
         <v>151</v>
       </c>
       <c r="F153" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -44217,7 +42120,7 @@
         <v>152</v>
       </c>
       <c r="F154" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -44237,7 +42140,7 @@
         <v>153</v>
       </c>
       <c r="F155" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -44257,7 +42160,7 @@
         <v>154</v>
       </c>
       <c r="F156" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -44277,7 +42180,7 @@
         <v>155</v>
       </c>
       <c r="F157" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -44297,7 +42200,7 @@
         <v>156</v>
       </c>
       <c r="F158" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -44317,7 +42220,7 @@
         <v>157</v>
       </c>
       <c r="F159" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -44337,7 +42240,7 @@
         <v>158</v>
       </c>
       <c r="F160" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -44357,7 +42260,7 @@
         <v>159</v>
       </c>
       <c r="F161" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -44377,7 +42280,7 @@
         <v>160</v>
       </c>
       <c r="F162" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -44397,7 +42300,7 @@
         <v>161</v>
       </c>
       <c r="F163" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -44417,7 +42320,7 @@
         <v>162</v>
       </c>
       <c r="F164" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -44437,7 +42340,7 @@
         <v>163</v>
       </c>
       <c r="F165" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -44457,7 +42360,7 @@
         <v>164</v>
       </c>
       <c r="F166" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -44477,7 +42380,7 @@
         <v>165</v>
       </c>
       <c r="F167" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -44497,7 +42400,7 @@
         <v>166</v>
       </c>
       <c r="F168" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -44517,7 +42420,7 @@
         <v>167</v>
       </c>
       <c r="F169" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -44537,7 +42440,7 @@
         <v>168</v>
       </c>
       <c r="F170" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -44557,7 +42460,7 @@
         <v>169</v>
       </c>
       <c r="F171" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -44577,7 +42480,7 @@
         <v>170</v>
       </c>
       <c r="F172" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -44597,7 +42500,7 @@
         <v>171</v>
       </c>
       <c r="F173" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -44617,7 +42520,7 @@
         <v>172</v>
       </c>
       <c r="F174" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -44637,7 +42540,7 @@
         <v>173</v>
       </c>
       <c r="F175" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -44657,7 +42560,7 @@
         <v>174</v>
       </c>
       <c r="F176" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -44677,7 +42580,7 @@
         <v>175</v>
       </c>
       <c r="F177" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -44697,7 +42600,7 @@
         <v>176</v>
       </c>
       <c r="F178" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -44717,7 +42620,7 @@
         <v>177</v>
       </c>
       <c r="F179" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -44737,7 +42640,7 @@
         <v>178</v>
       </c>
       <c r="F180" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -44757,7 +42660,7 @@
         <v>179</v>
       </c>
       <c r="F181" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -44777,7 +42680,7 @@
         <v>180</v>
       </c>
       <c r="F182" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -44797,7 +42700,7 @@
         <v>181</v>
       </c>
       <c r="F183" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -44817,7 +42720,7 @@
         <v>182</v>
       </c>
       <c r="F184" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -44837,7 +42740,7 @@
         <v>183</v>
       </c>
       <c r="F185" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -44857,7 +42760,7 @@
         <v>184</v>
       </c>
       <c r="F186" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -44877,7 +42780,7 @@
         <v>185</v>
       </c>
       <c r="F187" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -44897,7 +42800,7 @@
         <v>186</v>
       </c>
       <c r="F188" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -44917,7 +42820,7 @@
         <v>187</v>
       </c>
       <c r="F189" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -44937,7 +42840,7 @@
         <v>188</v>
       </c>
       <c r="F190" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -44957,7 +42860,7 @@
         <v>189</v>
       </c>
       <c r="F191" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -44977,7 +42880,7 @@
         <v>190</v>
       </c>
       <c r="F192" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -44997,7 +42900,7 @@
         <v>191</v>
       </c>
       <c r="F193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -45017,7 +42920,7 @@
         <v>192</v>
       </c>
       <c r="F194" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -45037,7 +42940,7 @@
         <v>193</v>
       </c>
       <c r="F195" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -45057,7 +42960,7 @@
         <v>194</v>
       </c>
       <c r="F196" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -45077,7 +42980,7 @@
         <v>195</v>
       </c>
       <c r="F197" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -45097,7 +43000,7 @@
         <v>196</v>
       </c>
       <c r="F198" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -45117,7 +43020,7 @@
         <v>197</v>
       </c>
       <c r="F199" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -45137,7 +43040,7 @@
         <v>198</v>
       </c>
       <c r="F200" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -45157,7 +43060,7 @@
         <v>199</v>
       </c>
       <c r="F201" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -45177,7 +43080,7 @@
         <v>200</v>
       </c>
       <c r="F202" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -45197,7 +43100,7 @@
         <v>201</v>
       </c>
       <c r="F203" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -45217,7 +43120,7 @@
         <v>202</v>
       </c>
       <c r="F204" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -45237,7 +43140,7 @@
         <v>203</v>
       </c>
       <c r="F205" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -45257,7 +43160,7 @@
         <v>204</v>
       </c>
       <c r="F206" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -45277,7 +43180,7 @@
         <v>205</v>
       </c>
       <c r="F207" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -45297,7 +43200,7 @@
         <v>206</v>
       </c>
       <c r="F208" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -45317,7 +43220,7 @@
         <v>207</v>
       </c>
       <c r="F209" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -45337,7 +43240,7 @@
         <v>208</v>
       </c>
       <c r="F210" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -45357,7 +43260,7 @@
         <v>209</v>
       </c>
       <c r="F211" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -45377,7 +43280,7 @@
         <v>210</v>
       </c>
       <c r="F212" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -45397,7 +43300,7 @@
         <v>211</v>
       </c>
       <c r="F213" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -45417,7 +43320,7 @@
         <v>212</v>
       </c>
       <c r="F214" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -45437,7 +43340,7 @@
         <v>213</v>
       </c>
       <c r="F215" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -45457,7 +43360,7 @@
         <v>214</v>
       </c>
       <c r="F216" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -45477,7 +43380,7 @@
         <v>215</v>
       </c>
       <c r="F217" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -45497,7 +43400,7 @@
         <v>216</v>
       </c>
       <c r="F218" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -45517,7 +43420,7 @@
         <v>217</v>
       </c>
       <c r="F219" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -50411,12 +48314,8 @@
       <c r="B502" s="1">
         <v>1</v>
       </c>
-      <c r="E502" s="1">
-        <v>500</v>
-      </c>
-      <c r="F502" s="1">
-        <v>1</v>
-      </c>
+      <c r="E502" s="1"/>
+      <c r="F502" s="1"/>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
@@ -50425,12 +48324,8 @@
       <c r="B503" s="1">
         <v>1</v>
       </c>
-      <c r="E503" s="1">
-        <v>501</v>
-      </c>
-      <c r="F503" s="1">
-        <v>1</v>
-      </c>
+      <c r="E503" s="1"/>
+      <c r="F503" s="1"/>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
@@ -50439,12 +48334,8 @@
       <c r="B504" s="1">
         <v>1</v>
       </c>
-      <c r="E504" s="1">
-        <v>502</v>
-      </c>
-      <c r="F504" s="1">
-        <v>1</v>
-      </c>
+      <c r="E504" s="1"/>
+      <c r="F504" s="1"/>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
@@ -50453,12 +48344,8 @@
       <c r="B505" s="1">
         <v>1</v>
       </c>
-      <c r="E505" s="1">
-        <v>503</v>
-      </c>
-      <c r="F505" s="1">
-        <v>1</v>
-      </c>
+      <c r="E505" s="1"/>
+      <c r="F505" s="1"/>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
@@ -50467,12 +48354,8 @@
       <c r="B506" s="1">
         <v>1</v>
       </c>
-      <c r="E506" s="1">
-        <v>504</v>
-      </c>
-      <c r="F506" s="1">
-        <v>1</v>
-      </c>
+      <c r="E506" s="1"/>
+      <c r="F506" s="1"/>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
@@ -50481,12 +48364,8 @@
       <c r="B507" s="1">
         <v>1</v>
       </c>
-      <c r="E507" s="1">
-        <v>505</v>
-      </c>
-      <c r="F507" s="1">
-        <v>1</v>
-      </c>
+      <c r="E507" s="1"/>
+      <c r="F507" s="1"/>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
@@ -50495,12 +48374,8 @@
       <c r="B508" s="1">
         <v>1</v>
       </c>
-      <c r="E508" s="1">
-        <v>506</v>
-      </c>
-      <c r="F508" s="1">
-        <v>1</v>
-      </c>
+      <c r="E508" s="1"/>
+      <c r="F508" s="1"/>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
@@ -50509,12 +48384,8 @@
       <c r="B509" s="1">
         <v>1</v>
       </c>
-      <c r="E509" s="1">
-        <v>507</v>
-      </c>
-      <c r="F509" s="1">
-        <v>1</v>
-      </c>
+      <c r="E509" s="1"/>
+      <c r="F509" s="1"/>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
@@ -50523,12 +48394,8 @@
       <c r="B510" s="1">
         <v>1</v>
       </c>
-      <c r="E510" s="1">
-        <v>508</v>
-      </c>
-      <c r="F510" s="1">
-        <v>1</v>
-      </c>
+      <c r="E510" s="1"/>
+      <c r="F510" s="1"/>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
@@ -50537,12 +48404,8 @@
       <c r="B511" s="1">
         <v>1</v>
       </c>
-      <c r="E511" s="1">
-        <v>509</v>
-      </c>
-      <c r="F511" s="1">
-        <v>1</v>
-      </c>
+      <c r="E511" s="1"/>
+      <c r="F511" s="1"/>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
@@ -50551,12 +48414,8 @@
       <c r="B512" s="1">
         <v>1</v>
       </c>
-      <c r="E512" s="1">
-        <v>510</v>
-      </c>
-      <c r="F512" s="1">
-        <v>1</v>
-      </c>
+      <c r="E512" s="1"/>
+      <c r="F512" s="1"/>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
@@ -50565,12 +48424,8 @@
       <c r="B513" s="1">
         <v>1</v>
       </c>
-      <c r="E513" s="1">
-        <v>511</v>
-      </c>
-      <c r="F513" s="1">
-        <v>1</v>
-      </c>
+      <c r="E513" s="1"/>
+      <c r="F513" s="1"/>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
@@ -50579,12 +48434,8 @@
       <c r="B514" s="1">
         <v>1</v>
       </c>
-      <c r="E514" s="1">
-        <v>512</v>
-      </c>
-      <c r="F514" s="1">
-        <v>1</v>
-      </c>
+      <c r="E514" s="1"/>
+      <c r="F514" s="1"/>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
@@ -50593,12 +48444,8 @@
       <c r="B515" s="1">
         <v>1</v>
       </c>
-      <c r="E515" s="1">
-        <v>513</v>
-      </c>
-      <c r="F515" s="1">
-        <v>1</v>
-      </c>
+      <c r="E515" s="1"/>
+      <c r="F515" s="1"/>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
@@ -50607,12 +48454,8 @@
       <c r="B516" s="1">
         <v>1</v>
       </c>
-      <c r="E516" s="1">
-        <v>514</v>
-      </c>
-      <c r="F516" s="1">
-        <v>1</v>
-      </c>
+      <c r="E516" s="1"/>
+      <c r="F516" s="1"/>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
@@ -50621,12 +48464,8 @@
       <c r="B517" s="1">
         <v>1</v>
       </c>
-      <c r="E517" s="1">
-        <v>515</v>
-      </c>
-      <c r="F517" s="1">
-        <v>1</v>
-      </c>
+      <c r="E517" s="1"/>
+      <c r="F517" s="1"/>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
@@ -50635,12 +48474,8 @@
       <c r="B518" s="1">
         <v>1</v>
       </c>
-      <c r="E518" s="1">
-        <v>516</v>
-      </c>
-      <c r="F518" s="1">
-        <v>1</v>
-      </c>
+      <c r="E518" s="1"/>
+      <c r="F518" s="1"/>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
@@ -50649,12 +48484,8 @@
       <c r="B519" s="1">
         <v>1</v>
       </c>
-      <c r="E519" s="1">
-        <v>517</v>
-      </c>
-      <c r="F519" s="1">
-        <v>1</v>
-      </c>
+      <c r="E519" s="1"/>
+      <c r="F519" s="1"/>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
@@ -50663,12 +48494,8 @@
       <c r="B520" s="1">
         <v>1</v>
       </c>
-      <c r="E520" s="1">
-        <v>518</v>
-      </c>
-      <c r="F520" s="1">
-        <v>1</v>
-      </c>
+      <c r="E520" s="1"/>
+      <c r="F520" s="1"/>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
@@ -50677,12 +48504,8 @@
       <c r="B521" s="1">
         <v>1</v>
       </c>
-      <c r="E521" s="1">
-        <v>519</v>
-      </c>
-      <c r="F521" s="1">
-        <v>1</v>
-      </c>
+      <c r="E521" s="1"/>
+      <c r="F521" s="1"/>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
@@ -50691,12 +48514,8 @@
       <c r="B522" s="1">
         <v>1</v>
       </c>
-      <c r="E522" s="1">
-        <v>520</v>
-      </c>
-      <c r="F522" s="1">
-        <v>1</v>
-      </c>
+      <c r="E522" s="1"/>
+      <c r="F522" s="1"/>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
@@ -50705,12 +48524,8 @@
       <c r="B523" s="1">
         <v>1</v>
       </c>
-      <c r="E523" s="1">
-        <v>521</v>
-      </c>
-      <c r="F523" s="1">
-        <v>1</v>
-      </c>
+      <c r="E523" s="1"/>
+      <c r="F523" s="1"/>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
@@ -50719,12 +48534,8 @@
       <c r="B524" s="1">
         <v>1</v>
       </c>
-      <c r="E524" s="1">
-        <v>522</v>
-      </c>
-      <c r="F524" s="1">
-        <v>1</v>
-      </c>
+      <c r="E524" s="1"/>
+      <c r="F524" s="1"/>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
@@ -50733,12 +48544,8 @@
       <c r="B525" s="1">
         <v>1</v>
       </c>
-      <c r="E525" s="1">
-        <v>523</v>
-      </c>
-      <c r="F525" s="1">
-        <v>1</v>
-      </c>
+      <c r="E525" s="1"/>
+      <c r="F525" s="1"/>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
@@ -50747,12 +48554,8 @@
       <c r="B526" s="1">
         <v>1</v>
       </c>
-      <c r="E526" s="1">
-        <v>524</v>
-      </c>
-      <c r="F526" s="1">
-        <v>1</v>
-      </c>
+      <c r="E526" s="1"/>
+      <c r="F526" s="1"/>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
@@ -50761,12 +48564,8 @@
       <c r="B527" s="1">
         <v>1</v>
       </c>
-      <c r="E527" s="1">
-        <v>525</v>
-      </c>
-      <c r="F527" s="1">
-        <v>1</v>
-      </c>
+      <c r="E527" s="1"/>
+      <c r="F527" s="1"/>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
@@ -50775,12 +48574,8 @@
       <c r="B528" s="1">
         <v>1</v>
       </c>
-      <c r="E528" s="1">
-        <v>526</v>
-      </c>
-      <c r="F528" s="1">
-        <v>1</v>
-      </c>
+      <c r="E528" s="1"/>
+      <c r="F528" s="1"/>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
@@ -50789,12 +48584,8 @@
       <c r="B529" s="1">
         <v>1</v>
       </c>
-      <c r="E529" s="1">
-        <v>527</v>
-      </c>
-      <c r="F529" s="1">
-        <v>1</v>
-      </c>
+      <c r="E529" s="1"/>
+      <c r="F529" s="1"/>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
@@ -50803,12 +48594,8 @@
       <c r="B530" s="1">
         <v>1</v>
       </c>
-      <c r="E530" s="1">
-        <v>528</v>
-      </c>
-      <c r="F530" s="1">
-        <v>1</v>
-      </c>
+      <c r="E530" s="1"/>
+      <c r="F530" s="1"/>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
@@ -50817,12 +48604,8 @@
       <c r="B531" s="1">
         <v>1</v>
       </c>
-      <c r="E531" s="1">
-        <v>529</v>
-      </c>
-      <c r="F531" s="1">
-        <v>1</v>
-      </c>
+      <c r="E531" s="1"/>
+      <c r="F531" s="1"/>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
@@ -50831,12 +48614,8 @@
       <c r="B532" s="1">
         <v>1</v>
       </c>
-      <c r="E532" s="1">
-        <v>530</v>
-      </c>
-      <c r="F532" s="1">
-        <v>1</v>
-      </c>
+      <c r="E532" s="1"/>
+      <c r="F532" s="1"/>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
@@ -50845,12 +48624,8 @@
       <c r="B533" s="1">
         <v>1</v>
       </c>
-      <c r="E533" s="1">
-        <v>531</v>
-      </c>
-      <c r="F533" s="1">
-        <v>1</v>
-      </c>
+      <c r="E533" s="1"/>
+      <c r="F533" s="1"/>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
@@ -50859,12 +48634,8 @@
       <c r="B534" s="1">
         <v>1</v>
       </c>
-      <c r="E534" s="1">
-        <v>532</v>
-      </c>
-      <c r="F534" s="1">
-        <v>1</v>
-      </c>
+      <c r="E534" s="1"/>
+      <c r="F534" s="1"/>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
@@ -50873,12 +48644,8 @@
       <c r="B535" s="1">
         <v>1</v>
       </c>
-      <c r="E535" s="1">
-        <v>533</v>
-      </c>
-      <c r="F535" s="1">
-        <v>1</v>
-      </c>
+      <c r="E535" s="1"/>
+      <c r="F535" s="1"/>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
@@ -50887,12 +48654,8 @@
       <c r="B536" s="1">
         <v>1</v>
       </c>
-      <c r="E536" s="1">
-        <v>534</v>
-      </c>
-      <c r="F536" s="1">
-        <v>1</v>
-      </c>
+      <c r="E536" s="1"/>
+      <c r="F536" s="1"/>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
@@ -50901,12 +48664,8 @@
       <c r="B537" s="1">
         <v>1</v>
       </c>
-      <c r="E537" s="1">
-        <v>535</v>
-      </c>
-      <c r="F537" s="1">
-        <v>1</v>
-      </c>
+      <c r="E537" s="1"/>
+      <c r="F537" s="1"/>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
@@ -50915,12 +48674,8 @@
       <c r="B538" s="1">
         <v>1</v>
       </c>
-      <c r="E538" s="1">
-        <v>536</v>
-      </c>
-      <c r="F538" s="1">
-        <v>1</v>
-      </c>
+      <c r="E538" s="1"/>
+      <c r="F538" s="1"/>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
@@ -50929,12 +48684,8 @@
       <c r="B539" s="1">
         <v>1</v>
       </c>
-      <c r="E539" s="1">
-        <v>537</v>
-      </c>
-      <c r="F539" s="1">
-        <v>1</v>
-      </c>
+      <c r="E539" s="1"/>
+      <c r="F539" s="1"/>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
@@ -50943,12 +48694,8 @@
       <c r="B540" s="1">
         <v>1</v>
       </c>
-      <c r="E540" s="1">
-        <v>538</v>
-      </c>
-      <c r="F540" s="1">
-        <v>1</v>
-      </c>
+      <c r="E540" s="1"/>
+      <c r="F540" s="1"/>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
@@ -50957,12 +48704,8 @@
       <c r="B541" s="1">
         <v>1</v>
       </c>
-      <c r="E541" s="1">
-        <v>539</v>
-      </c>
-      <c r="F541" s="1">
-        <v>1</v>
-      </c>
+      <c r="E541" s="1"/>
+      <c r="F541" s="1"/>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
@@ -50971,12 +48714,8 @@
       <c r="B542" s="1">
         <v>1</v>
       </c>
-      <c r="E542" s="1">
-        <v>540</v>
-      </c>
-      <c r="F542" s="1">
-        <v>1</v>
-      </c>
+      <c r="E542" s="1"/>
+      <c r="F542" s="1"/>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
@@ -50985,12 +48724,8 @@
       <c r="B543" s="1">
         <v>1</v>
       </c>
-      <c r="E543" s="1">
-        <v>541</v>
-      </c>
-      <c r="F543" s="1">
-        <v>1</v>
-      </c>
+      <c r="E543" s="1"/>
+      <c r="F543" s="1"/>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
@@ -50999,12 +48734,8 @@
       <c r="B544" s="1">
         <v>1</v>
       </c>
-      <c r="E544" s="1">
-        <v>542</v>
-      </c>
-      <c r="F544" s="1">
-        <v>1</v>
-      </c>
+      <c r="E544" s="1"/>
+      <c r="F544" s="1"/>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
@@ -51013,12 +48744,8 @@
       <c r="B545" s="1">
         <v>1</v>
       </c>
-      <c r="E545" s="1">
-        <v>543</v>
-      </c>
-      <c r="F545" s="1">
-        <v>1</v>
-      </c>
+      <c r="E545" s="1"/>
+      <c r="F545" s="1"/>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
@@ -51027,12 +48754,8 @@
       <c r="B546" s="1">
         <v>1</v>
       </c>
-      <c r="E546" s="1">
-        <v>544</v>
-      </c>
-      <c r="F546" s="1">
-        <v>1</v>
-      </c>
+      <c r="E546" s="1"/>
+      <c r="F546" s="1"/>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
@@ -51041,12 +48764,8 @@
       <c r="B547" s="1">
         <v>1</v>
       </c>
-      <c r="E547" s="1">
-        <v>545</v>
-      </c>
-      <c r="F547" s="1">
-        <v>1</v>
-      </c>
+      <c r="E547" s="1"/>
+      <c r="F547" s="1"/>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
@@ -51055,12 +48774,8 @@
       <c r="B548" s="1">
         <v>1</v>
       </c>
-      <c r="E548" s="1">
-        <v>546</v>
-      </c>
-      <c r="F548" s="1">
-        <v>1</v>
-      </c>
+      <c r="E548" s="1"/>
+      <c r="F548" s="1"/>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
@@ -51069,12 +48784,8 @@
       <c r="B549" s="1">
         <v>1</v>
       </c>
-      <c r="E549" s="1">
-        <v>547</v>
-      </c>
-      <c r="F549" s="1">
-        <v>1</v>
-      </c>
+      <c r="E549" s="1"/>
+      <c r="F549" s="1"/>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
@@ -51083,12 +48794,8 @@
       <c r="B550" s="1">
         <v>1</v>
       </c>
-      <c r="E550" s="1">
-        <v>548</v>
-      </c>
-      <c r="F550" s="1">
-        <v>1</v>
-      </c>
+      <c r="E550" s="1"/>
+      <c r="F550" s="1"/>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
@@ -51097,12 +48804,8 @@
       <c r="B551" s="1">
         <v>1</v>
       </c>
-      <c r="E551" s="1">
-        <v>549</v>
-      </c>
-      <c r="F551" s="1">
-        <v>1</v>
-      </c>
+      <c r="E551" s="1"/>
+      <c r="F551" s="1"/>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
@@ -51111,12 +48814,8 @@
       <c r="B552" s="1">
         <v>1</v>
       </c>
-      <c r="E552" s="1">
-        <v>550</v>
-      </c>
-      <c r="F552" s="1">
-        <v>1</v>
-      </c>
+      <c r="E552" s="1"/>
+      <c r="F552" s="1"/>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
@@ -51125,12 +48824,8 @@
       <c r="B553" s="1">
         <v>1</v>
       </c>
-      <c r="E553" s="1">
-        <v>551</v>
-      </c>
-      <c r="F553" s="1">
-        <v>1</v>
-      </c>
+      <c r="E553" s="1"/>
+      <c r="F553" s="1"/>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
@@ -51139,12 +48834,8 @@
       <c r="B554" s="1">
         <v>1</v>
       </c>
-      <c r="E554" s="1">
-        <v>552</v>
-      </c>
-      <c r="F554" s="1">
-        <v>1</v>
-      </c>
+      <c r="E554" s="1"/>
+      <c r="F554" s="1"/>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
@@ -51153,12 +48844,8 @@
       <c r="B555" s="1">
         <v>1</v>
       </c>
-      <c r="E555" s="1">
-        <v>553</v>
-      </c>
-      <c r="F555" s="1">
-        <v>1</v>
-      </c>
+      <c r="E555" s="1"/>
+      <c r="F555" s="1"/>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
@@ -51167,12 +48854,8 @@
       <c r="B556" s="1">
         <v>1</v>
       </c>
-      <c r="E556" s="1">
-        <v>554</v>
-      </c>
-      <c r="F556" s="1">
-        <v>1</v>
-      </c>
+      <c r="E556" s="1"/>
+      <c r="F556" s="1"/>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
@@ -51181,12 +48864,8 @@
       <c r="B557" s="1">
         <v>1</v>
       </c>
-      <c r="E557" s="1">
-        <v>555</v>
-      </c>
-      <c r="F557" s="1">
-        <v>1</v>
-      </c>
+      <c r="E557" s="1"/>
+      <c r="F557" s="1"/>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
@@ -51195,12 +48874,8 @@
       <c r="B558" s="1">
         <v>1</v>
       </c>
-      <c r="E558" s="1">
-        <v>556</v>
-      </c>
-      <c r="F558" s="1">
-        <v>1</v>
-      </c>
+      <c r="E558" s="1"/>
+      <c r="F558" s="1"/>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
@@ -51209,12 +48884,8 @@
       <c r="B559" s="1">
         <v>1</v>
       </c>
-      <c r="E559" s="1">
-        <v>557</v>
-      </c>
-      <c r="F559" s="1">
-        <v>1</v>
-      </c>
+      <c r="E559" s="1"/>
+      <c r="F559" s="1"/>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
@@ -51223,12 +48894,8 @@
       <c r="B560" s="1">
         <v>1</v>
       </c>
-      <c r="E560" s="1">
-        <v>558</v>
-      </c>
-      <c r="F560" s="1">
-        <v>1</v>
-      </c>
+      <c r="E560" s="1"/>
+      <c r="F560" s="1"/>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
@@ -51237,12 +48904,8 @@
       <c r="B561" s="1">
         <v>1</v>
       </c>
-      <c r="E561" s="1">
-        <v>559</v>
-      </c>
-      <c r="F561" s="1">
-        <v>1</v>
-      </c>
+      <c r="E561" s="1"/>
+      <c r="F561" s="1"/>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
@@ -51251,12 +48914,8 @@
       <c r="B562" s="1">
         <v>1</v>
       </c>
-      <c r="E562" s="1">
-        <v>560</v>
-      </c>
-      <c r="F562" s="1">
-        <v>1</v>
-      </c>
+      <c r="E562" s="1"/>
+      <c r="F562" s="1"/>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
@@ -51265,12 +48924,8 @@
       <c r="B563" s="1">
         <v>1</v>
       </c>
-      <c r="E563" s="1">
-        <v>561</v>
-      </c>
-      <c r="F563" s="1">
-        <v>1</v>
-      </c>
+      <c r="E563" s="1"/>
+      <c r="F563" s="1"/>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
@@ -51279,12 +48934,8 @@
       <c r="B564" s="1">
         <v>1</v>
       </c>
-      <c r="E564" s="1">
-        <v>562</v>
-      </c>
-      <c r="F564" s="1">
-        <v>1</v>
-      </c>
+      <c r="E564" s="1"/>
+      <c r="F564" s="1"/>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
@@ -51293,12 +48944,8 @@
       <c r="B565" s="1">
         <v>1</v>
       </c>
-      <c r="E565" s="1">
-        <v>563</v>
-      </c>
-      <c r="F565" s="1">
-        <v>1</v>
-      </c>
+      <c r="E565" s="1"/>
+      <c r="F565" s="1"/>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
@@ -51307,12 +48954,8 @@
       <c r="B566" s="1">
         <v>1</v>
       </c>
-      <c r="E566" s="1">
-        <v>564</v>
-      </c>
-      <c r="F566" s="1">
-        <v>1</v>
-      </c>
+      <c r="E566" s="1"/>
+      <c r="F566" s="1"/>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
@@ -51321,12 +48964,8 @@
       <c r="B567" s="1">
         <v>1</v>
       </c>
-      <c r="E567" s="1">
-        <v>565</v>
-      </c>
-      <c r="F567" s="1">
-        <v>1</v>
-      </c>
+      <c r="E567" s="1"/>
+      <c r="F567" s="1"/>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
@@ -51335,12 +48974,8 @@
       <c r="B568" s="1">
         <v>1</v>
       </c>
-      <c r="E568" s="1">
-        <v>566</v>
-      </c>
-      <c r="F568" s="1">
-        <v>1</v>
-      </c>
+      <c r="E568" s="1"/>
+      <c r="F568" s="1"/>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
@@ -51349,12 +48984,8 @@
       <c r="B569" s="1">
         <v>1</v>
       </c>
-      <c r="E569" s="1">
-        <v>567</v>
-      </c>
-      <c r="F569" s="1">
-        <v>1</v>
-      </c>
+      <c r="E569" s="1"/>
+      <c r="F569" s="1"/>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
@@ -51363,12 +48994,8 @@
       <c r="B570" s="1">
         <v>1</v>
       </c>
-      <c r="E570" s="1">
-        <v>568</v>
-      </c>
-      <c r="F570" s="1">
-        <v>1</v>
-      </c>
+      <c r="E570" s="1"/>
+      <c r="F570" s="1"/>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
@@ -51377,12 +49004,8 @@
       <c r="B571" s="1">
         <v>1</v>
       </c>
-      <c r="E571" s="1">
-        <v>569</v>
-      </c>
-      <c r="F571" s="1">
-        <v>1</v>
-      </c>
+      <c r="E571" s="1"/>
+      <c r="F571" s="1"/>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
@@ -51391,12 +49014,8 @@
       <c r="B572" s="1">
         <v>1</v>
       </c>
-      <c r="E572" s="1">
-        <v>570</v>
-      </c>
-      <c r="F572" s="1">
-        <v>1</v>
-      </c>
+      <c r="E572" s="1"/>
+      <c r="F572" s="1"/>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
@@ -51405,12 +49024,8 @@
       <c r="B573" s="1">
         <v>1</v>
       </c>
-      <c r="E573" s="1">
-        <v>571</v>
-      </c>
-      <c r="F573" s="1">
-        <v>1</v>
-      </c>
+      <c r="E573" s="1"/>
+      <c r="F573" s="1"/>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
@@ -51419,12 +49034,8 @@
       <c r="B574" s="1">
         <v>1</v>
       </c>
-      <c r="E574" s="1">
-        <v>572</v>
-      </c>
-      <c r="F574" s="1">
-        <v>1</v>
-      </c>
+      <c r="E574" s="1"/>
+      <c r="F574" s="1"/>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
@@ -51433,12 +49044,8 @@
       <c r="B575" s="1">
         <v>1</v>
       </c>
-      <c r="E575" s="1">
-        <v>573</v>
-      </c>
-      <c r="F575" s="1">
-        <v>1</v>
-      </c>
+      <c r="E575" s="1"/>
+      <c r="F575" s="1"/>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
@@ -51447,12 +49054,8 @@
       <c r="B576" s="1">
         <v>1</v>
       </c>
-      <c r="E576" s="1">
-        <v>574</v>
-      </c>
-      <c r="F576" s="1">
-        <v>1</v>
-      </c>
+      <c r="E576" s="1"/>
+      <c r="F576" s="1"/>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
@@ -51461,12 +49064,8 @@
       <c r="B577" s="1">
         <v>1</v>
       </c>
-      <c r="E577" s="1">
-        <v>575</v>
-      </c>
-      <c r="F577" s="1">
-        <v>1</v>
-      </c>
+      <c r="E577" s="1"/>
+      <c r="F577" s="1"/>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
@@ -51475,12 +49074,8 @@
       <c r="B578" s="1">
         <v>1</v>
       </c>
-      <c r="E578" s="1">
-        <v>576</v>
-      </c>
-      <c r="F578" s="1">
-        <v>1</v>
-      </c>
+      <c r="E578" s="1"/>
+      <c r="F578" s="1"/>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
@@ -51489,12 +49084,8 @@
       <c r="B579" s="1">
         <v>1</v>
       </c>
-      <c r="E579" s="1">
-        <v>577</v>
-      </c>
-      <c r="F579" s="1">
-        <v>1</v>
-      </c>
+      <c r="E579" s="1"/>
+      <c r="F579" s="1"/>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
@@ -51503,12 +49094,8 @@
       <c r="B580" s="1">
         <v>1</v>
       </c>
-      <c r="E580" s="1">
-        <v>578</v>
-      </c>
-      <c r="F580" s="1">
-        <v>1</v>
-      </c>
+      <c r="E580" s="1"/>
+      <c r="F580" s="1"/>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
@@ -51517,12 +49104,8 @@
       <c r="B581" s="1">
         <v>1</v>
       </c>
-      <c r="E581" s="1">
-        <v>579</v>
-      </c>
-      <c r="F581" s="1">
-        <v>1</v>
-      </c>
+      <c r="E581" s="1"/>
+      <c r="F581" s="1"/>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
@@ -51531,12 +49114,8 @@
       <c r="B582" s="1">
         <v>1</v>
       </c>
-      <c r="E582" s="1">
-        <v>580</v>
-      </c>
-      <c r="F582" s="1">
-        <v>1</v>
-      </c>
+      <c r="E582" s="1"/>
+      <c r="F582" s="1"/>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
@@ -51545,12 +49124,8 @@
       <c r="B583" s="1">
         <v>1</v>
       </c>
-      <c r="E583" s="1">
-        <v>581</v>
-      </c>
-      <c r="F583" s="1">
-        <v>1</v>
-      </c>
+      <c r="E583" s="1"/>
+      <c r="F583" s="1"/>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
@@ -51559,12 +49134,8 @@
       <c r="B584" s="1">
         <v>1</v>
       </c>
-      <c r="E584" s="1">
-        <v>582</v>
-      </c>
-      <c r="F584" s="1">
-        <v>1</v>
-      </c>
+      <c r="E584" s="1"/>
+      <c r="F584" s="1"/>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
@@ -51573,12 +49144,8 @@
       <c r="B585" s="1">
         <v>1</v>
       </c>
-      <c r="E585" s="1">
-        <v>583</v>
-      </c>
-      <c r="F585" s="1">
-        <v>1</v>
-      </c>
+      <c r="E585" s="1"/>
+      <c r="F585" s="1"/>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
@@ -51587,12 +49154,8 @@
       <c r="B586" s="1">
         <v>1</v>
       </c>
-      <c r="E586" s="1">
-        <v>584</v>
-      </c>
-      <c r="F586" s="1">
-        <v>1</v>
-      </c>
+      <c r="E586" s="1"/>
+      <c r="F586" s="1"/>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
@@ -51601,12 +49164,8 @@
       <c r="B587" s="1">
         <v>1</v>
       </c>
-      <c r="E587" s="1">
-        <v>585</v>
-      </c>
-      <c r="F587" s="1">
-        <v>1</v>
-      </c>
+      <c r="E587" s="1"/>
+      <c r="F587" s="1"/>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
@@ -51615,12 +49174,8 @@
       <c r="B588" s="1">
         <v>1</v>
       </c>
-      <c r="E588" s="1">
-        <v>586</v>
-      </c>
-      <c r="F588" s="1">
-        <v>1</v>
-      </c>
+      <c r="E588" s="1"/>
+      <c r="F588" s="1"/>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
@@ -51629,12 +49184,8 @@
       <c r="B589" s="1">
         <v>1</v>
       </c>
-      <c r="E589" s="1">
-        <v>587</v>
-      </c>
-      <c r="F589" s="1">
-        <v>1</v>
-      </c>
+      <c r="E589" s="1"/>
+      <c r="F589" s="1"/>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
@@ -51643,12 +49194,8 @@
       <c r="B590" s="1">
         <v>1</v>
       </c>
-      <c r="E590" s="1">
-        <v>588</v>
-      </c>
-      <c r="F590" s="1">
-        <v>1</v>
-      </c>
+      <c r="E590" s="1"/>
+      <c r="F590" s="1"/>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
@@ -51657,12 +49204,8 @@
       <c r="B591" s="1">
         <v>1</v>
       </c>
-      <c r="E591" s="1">
-        <v>589</v>
-      </c>
-      <c r="F591" s="1">
-        <v>1</v>
-      </c>
+      <c r="E591" s="1"/>
+      <c r="F591" s="1"/>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
@@ -51671,12 +49214,8 @@
       <c r="B592" s="1">
         <v>1</v>
       </c>
-      <c r="E592" s="1">
-        <v>590</v>
-      </c>
-      <c r="F592" s="1">
-        <v>1</v>
-      </c>
+      <c r="E592" s="1"/>
+      <c r="F592" s="1"/>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
@@ -51685,12 +49224,8 @@
       <c r="B593" s="1">
         <v>1</v>
       </c>
-      <c r="E593" s="1">
-        <v>591</v>
-      </c>
-      <c r="F593" s="1">
-        <v>1</v>
-      </c>
+      <c r="E593" s="1"/>
+      <c r="F593" s="1"/>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
@@ -51699,12 +49234,8 @@
       <c r="B594" s="1">
         <v>1</v>
       </c>
-      <c r="E594" s="1">
-        <v>592</v>
-      </c>
-      <c r="F594" s="1">
-        <v>1</v>
-      </c>
+      <c r="E594" s="1"/>
+      <c r="F594" s="1"/>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
@@ -51713,12 +49244,8 @@
       <c r="B595" s="1">
         <v>1</v>
       </c>
-      <c r="E595" s="1">
-        <v>593</v>
-      </c>
-      <c r="F595" s="1">
-        <v>1</v>
-      </c>
+      <c r="E595" s="1"/>
+      <c r="F595" s="1"/>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
@@ -51727,12 +49254,8 @@
       <c r="B596" s="1">
         <v>1</v>
       </c>
-      <c r="E596" s="1">
-        <v>594</v>
-      </c>
-      <c r="F596" s="1">
-        <v>1</v>
-      </c>
+      <c r="E596" s="1"/>
+      <c r="F596" s="1"/>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
@@ -51741,12 +49264,8 @@
       <c r="B597" s="1">
         <v>1</v>
       </c>
-      <c r="E597" s="1">
-        <v>595</v>
-      </c>
-      <c r="F597" s="1">
-        <v>1</v>
-      </c>
+      <c r="E597" s="1"/>
+      <c r="F597" s="1"/>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
@@ -51755,12 +49274,8 @@
       <c r="B598" s="1">
         <v>1</v>
       </c>
-      <c r="E598" s="1">
-        <v>596</v>
-      </c>
-      <c r="F598" s="1">
-        <v>1</v>
-      </c>
+      <c r="E598" s="1"/>
+      <c r="F598" s="1"/>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
@@ -51769,12 +49284,8 @@
       <c r="B599" s="1">
         <v>1</v>
       </c>
-      <c r="E599" s="1">
-        <v>597</v>
-      </c>
-      <c r="F599" s="1">
-        <v>1</v>
-      </c>
+      <c r="E599" s="1"/>
+      <c r="F599" s="1"/>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
@@ -51783,12 +49294,8 @@
       <c r="B600" s="1">
         <v>1</v>
       </c>
-      <c r="E600" s="1">
-        <v>598</v>
-      </c>
-      <c r="F600" s="1">
-        <v>1</v>
-      </c>
+      <c r="E600" s="1"/>
+      <c r="F600" s="1"/>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
@@ -51797,12 +49304,8 @@
       <c r="B601" s="1">
         <v>1</v>
       </c>
-      <c r="E601" s="1">
-        <v>599</v>
-      </c>
-      <c r="F601" s="1">
-        <v>1</v>
-      </c>
+      <c r="E601" s="1"/>
+      <c r="F601" s="1"/>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
@@ -51811,12 +49314,8 @@
       <c r="B602" s="1">
         <v>1</v>
       </c>
-      <c r="E602" s="1">
-        <v>600</v>
-      </c>
-      <c r="F602" s="1">
-        <v>1</v>
-      </c>
+      <c r="E602" s="1"/>
+      <c r="F602" s="1"/>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
@@ -51825,1980 +49324,992 @@
       <c r="B603" s="1">
         <v>1</v>
       </c>
-      <c r="E603" s="1">
-        <v>601</v>
-      </c>
-      <c r="F603" s="1">
-        <v>1</v>
-      </c>
+      <c r="E603" s="1"/>
+      <c r="F603" s="1"/>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E604" s="1">
-        <v>602</v>
-      </c>
-      <c r="F604" s="1">
-        <v>1</v>
-      </c>
+      <c r="E604" s="1"/>
+      <c r="F604" s="1"/>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E605" s="1">
-        <v>603</v>
-      </c>
-      <c r="F605" s="1">
-        <v>1</v>
-      </c>
+      <c r="E605" s="1"/>
+      <c r="F605" s="1"/>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E606" s="1">
-        <v>604</v>
-      </c>
-      <c r="F606" s="1">
-        <v>1</v>
-      </c>
+      <c r="E606" s="1"/>
+      <c r="F606" s="1"/>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E607" s="1">
-        <v>605</v>
-      </c>
-      <c r="F607" s="1">
-        <v>1</v>
-      </c>
+      <c r="E607" s="1"/>
+      <c r="F607" s="1"/>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E608" s="1">
-        <v>606</v>
-      </c>
-      <c r="F608" s="1">
-        <v>1</v>
-      </c>
+      <c r="E608" s="1"/>
+      <c r="F608" s="1"/>
     </row>
     <row r="609" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E609" s="1">
-        <v>607</v>
-      </c>
-      <c r="F609" s="1">
-        <v>1</v>
-      </c>
+      <c r="E609" s="1"/>
+      <c r="F609" s="1"/>
     </row>
     <row r="610" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E610" s="1">
-        <v>608</v>
-      </c>
-      <c r="F610" s="1">
-        <v>1</v>
-      </c>
+      <c r="E610" s="1"/>
+      <c r="F610" s="1"/>
     </row>
     <row r="611" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E611" s="1">
-        <v>609</v>
-      </c>
-      <c r="F611" s="1">
-        <v>1</v>
-      </c>
+      <c r="E611" s="1"/>
+      <c r="F611" s="1"/>
     </row>
     <row r="612" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E612" s="1">
-        <v>610</v>
-      </c>
-      <c r="F612" s="1">
-        <v>1</v>
-      </c>
+      <c r="E612" s="1"/>
+      <c r="F612" s="1"/>
     </row>
     <row r="613" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E613" s="1">
-        <v>611</v>
-      </c>
-      <c r="F613" s="1">
-        <v>1</v>
-      </c>
+      <c r="E613" s="1"/>
+      <c r="F613" s="1"/>
     </row>
     <row r="614" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E614" s="1">
-        <v>612</v>
-      </c>
-      <c r="F614" s="1">
-        <v>1</v>
-      </c>
+      <c r="E614" s="1"/>
+      <c r="F614" s="1"/>
     </row>
     <row r="615" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E615" s="1">
-        <v>613</v>
-      </c>
-      <c r="F615" s="1">
-        <v>1</v>
-      </c>
+      <c r="E615" s="1"/>
+      <c r="F615" s="1"/>
     </row>
     <row r="616" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E616" s="1">
-        <v>614</v>
-      </c>
-      <c r="F616" s="1">
-        <v>1</v>
-      </c>
+      <c r="E616" s="1"/>
+      <c r="F616" s="1"/>
     </row>
     <row r="617" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E617" s="1">
-        <v>615</v>
-      </c>
-      <c r="F617" s="1">
-        <v>1</v>
-      </c>
+      <c r="E617" s="1"/>
+      <c r="F617" s="1"/>
     </row>
     <row r="618" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E618" s="1">
-        <v>616</v>
-      </c>
-      <c r="F618" s="1">
-        <v>1</v>
-      </c>
+      <c r="E618" s="1"/>
+      <c r="F618" s="1"/>
     </row>
     <row r="619" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E619" s="1">
-        <v>617</v>
-      </c>
-      <c r="F619" s="1">
-        <v>1</v>
-      </c>
+      <c r="E619" s="1"/>
+      <c r="F619" s="1"/>
     </row>
     <row r="620" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E620" s="1">
-        <v>618</v>
-      </c>
-      <c r="F620" s="1">
-        <v>1</v>
-      </c>
+      <c r="E620" s="1"/>
+      <c r="F620" s="1"/>
     </row>
     <row r="621" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E621" s="1">
-        <v>619</v>
-      </c>
-      <c r="F621" s="1">
-        <v>1</v>
-      </c>
+      <c r="E621" s="1"/>
+      <c r="F621" s="1"/>
     </row>
     <row r="622" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E622" s="1">
-        <v>620</v>
-      </c>
-      <c r="F622" s="1">
-        <v>1</v>
-      </c>
+      <c r="E622" s="1"/>
+      <c r="F622" s="1"/>
     </row>
     <row r="623" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E623" s="1">
-        <v>621</v>
-      </c>
-      <c r="F623" s="1">
-        <v>1</v>
-      </c>
+      <c r="E623" s="1"/>
+      <c r="F623" s="1"/>
     </row>
     <row r="624" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E624" s="1">
-        <v>622</v>
-      </c>
-      <c r="F624" s="1">
-        <v>1</v>
-      </c>
+      <c r="E624" s="1"/>
+      <c r="F624" s="1"/>
     </row>
     <row r="625" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E625" s="1">
-        <v>623</v>
-      </c>
-      <c r="F625" s="1">
-        <v>1</v>
-      </c>
+      <c r="E625" s="1"/>
+      <c r="F625" s="1"/>
     </row>
     <row r="626" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E626" s="1">
-        <v>624</v>
-      </c>
-      <c r="F626" s="1">
-        <v>1</v>
-      </c>
+      <c r="E626" s="1"/>
+      <c r="F626" s="1"/>
     </row>
     <row r="627" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E627" s="1">
-        <v>625</v>
-      </c>
-      <c r="F627" s="1">
-        <v>1</v>
-      </c>
+      <c r="E627" s="1"/>
+      <c r="F627" s="1"/>
     </row>
     <row r="628" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E628" s="1">
-        <v>626</v>
-      </c>
-      <c r="F628" s="1">
-        <v>1</v>
-      </c>
+      <c r="E628" s="1"/>
+      <c r="F628" s="1"/>
     </row>
     <row r="629" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E629" s="1">
-        <v>627</v>
-      </c>
-      <c r="F629" s="1">
-        <v>1</v>
-      </c>
+      <c r="E629" s="1"/>
+      <c r="F629" s="1"/>
     </row>
     <row r="630" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E630" s="1">
-        <v>628</v>
-      </c>
-      <c r="F630" s="1">
-        <v>1</v>
-      </c>
+      <c r="E630" s="1"/>
+      <c r="F630" s="1"/>
     </row>
     <row r="631" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E631" s="1">
-        <v>629</v>
-      </c>
-      <c r="F631" s="1">
-        <v>1</v>
-      </c>
+      <c r="E631" s="1"/>
+      <c r="F631" s="1"/>
     </row>
     <row r="632" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E632" s="1">
-        <v>630</v>
-      </c>
-      <c r="F632" s="1">
-        <v>1</v>
-      </c>
+      <c r="E632" s="1"/>
+      <c r="F632" s="1"/>
     </row>
     <row r="633" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E633" s="1">
-        <v>631</v>
-      </c>
-      <c r="F633" s="1">
-        <v>1</v>
-      </c>
+      <c r="E633" s="1"/>
+      <c r="F633" s="1"/>
     </row>
     <row r="634" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E634" s="1">
-        <v>632</v>
-      </c>
-      <c r="F634" s="1">
-        <v>1</v>
-      </c>
+      <c r="E634" s="1"/>
+      <c r="F634" s="1"/>
     </row>
     <row r="635" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E635" s="1">
-        <v>633</v>
-      </c>
-      <c r="F635" s="1">
-        <v>1</v>
-      </c>
+      <c r="E635" s="1"/>
+      <c r="F635" s="1"/>
     </row>
     <row r="636" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E636" s="1">
-        <v>634</v>
-      </c>
-      <c r="F636" s="1">
-        <v>1</v>
-      </c>
+      <c r="E636" s="1"/>
+      <c r="F636" s="1"/>
     </row>
     <row r="637" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E637" s="1">
-        <v>635</v>
-      </c>
-      <c r="F637" s="1">
-        <v>1</v>
-      </c>
+      <c r="E637" s="1"/>
+      <c r="F637" s="1"/>
     </row>
     <row r="638" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E638" s="1">
-        <v>636</v>
-      </c>
-      <c r="F638" s="1">
-        <v>1</v>
-      </c>
+      <c r="E638" s="1"/>
+      <c r="F638" s="1"/>
     </row>
     <row r="639" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E639" s="1">
-        <v>637</v>
-      </c>
-      <c r="F639" s="1">
-        <v>1</v>
-      </c>
+      <c r="E639" s="1"/>
+      <c r="F639" s="1"/>
     </row>
     <row r="640" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E640" s="1">
-        <v>638</v>
-      </c>
-      <c r="F640" s="1">
-        <v>1</v>
-      </c>
+      <c r="E640" s="1"/>
+      <c r="F640" s="1"/>
     </row>
     <row r="641" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E641" s="1">
-        <v>639</v>
-      </c>
-      <c r="F641" s="1">
-        <v>1</v>
-      </c>
+      <c r="E641" s="1"/>
+      <c r="F641" s="1"/>
     </row>
     <row r="642" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E642" s="1">
-        <v>640</v>
-      </c>
-      <c r="F642" s="1">
-        <v>1</v>
-      </c>
+      <c r="E642" s="1"/>
+      <c r="F642" s="1"/>
     </row>
     <row r="643" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E643" s="1">
-        <v>641</v>
-      </c>
-      <c r="F643" s="1">
-        <v>1</v>
-      </c>
+      <c r="E643" s="1"/>
+      <c r="F643" s="1"/>
     </row>
     <row r="644" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E644" s="1">
-        <v>642</v>
-      </c>
-      <c r="F644" s="1">
-        <v>1</v>
-      </c>
+      <c r="E644" s="1"/>
+      <c r="F644" s="1"/>
     </row>
     <row r="645" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E645" s="1">
-        <v>643</v>
-      </c>
-      <c r="F645" s="1">
-        <v>1</v>
-      </c>
+      <c r="E645" s="1"/>
+      <c r="F645" s="1"/>
     </row>
     <row r="646" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E646" s="1">
-        <v>644</v>
-      </c>
-      <c r="F646" s="1">
-        <v>1</v>
-      </c>
+      <c r="E646" s="1"/>
+      <c r="F646" s="1"/>
     </row>
     <row r="647" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E647" s="1">
-        <v>645</v>
-      </c>
-      <c r="F647" s="1">
-        <v>1</v>
-      </c>
+      <c r="E647" s="1"/>
+      <c r="F647" s="1"/>
     </row>
     <row r="648" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E648" s="1">
-        <v>646</v>
-      </c>
-      <c r="F648" s="1">
-        <v>1</v>
-      </c>
+      <c r="E648" s="1"/>
+      <c r="F648" s="1"/>
     </row>
     <row r="649" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E649" s="1">
-        <v>647</v>
-      </c>
-      <c r="F649" s="1">
-        <v>1</v>
-      </c>
+      <c r="E649" s="1"/>
+      <c r="F649" s="1"/>
     </row>
     <row r="650" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E650" s="1">
-        <v>648</v>
-      </c>
-      <c r="F650" s="1">
-        <v>1</v>
-      </c>
+      <c r="E650" s="1"/>
+      <c r="F650" s="1"/>
     </row>
     <row r="651" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E651" s="1">
-        <v>649</v>
-      </c>
-      <c r="F651" s="1">
-        <v>1</v>
-      </c>
+      <c r="E651" s="1"/>
+      <c r="F651" s="1"/>
     </row>
     <row r="652" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E652" s="1">
-        <v>650</v>
-      </c>
-      <c r="F652" s="1">
-        <v>1</v>
-      </c>
+      <c r="E652" s="1"/>
+      <c r="F652" s="1"/>
     </row>
     <row r="653" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E653" s="1">
-        <v>651</v>
-      </c>
-      <c r="F653" s="1">
-        <v>1</v>
-      </c>
+      <c r="E653" s="1"/>
+      <c r="F653" s="1"/>
     </row>
     <row r="654" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E654" s="1">
-        <v>652</v>
-      </c>
-      <c r="F654" s="1">
-        <v>1</v>
-      </c>
+      <c r="E654" s="1"/>
+      <c r="F654" s="1"/>
     </row>
     <row r="655" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E655" s="1">
-        <v>653</v>
-      </c>
-      <c r="F655" s="1">
-        <v>1</v>
-      </c>
+      <c r="E655" s="1"/>
+      <c r="F655" s="1"/>
     </row>
     <row r="656" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E656" s="1">
-        <v>654</v>
-      </c>
-      <c r="F656" s="1">
-        <v>1</v>
-      </c>
+      <c r="E656" s="1"/>
+      <c r="F656" s="1"/>
     </row>
     <row r="657" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E657" s="1">
-        <v>655</v>
-      </c>
-      <c r="F657" s="1">
-        <v>1</v>
-      </c>
+      <c r="E657" s="1"/>
+      <c r="F657" s="1"/>
     </row>
     <row r="658" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E658" s="1">
-        <v>656</v>
-      </c>
-      <c r="F658" s="1">
-        <v>1</v>
-      </c>
+      <c r="E658" s="1"/>
+      <c r="F658" s="1"/>
     </row>
     <row r="659" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E659" s="1">
-        <v>657</v>
-      </c>
-      <c r="F659" s="1">
-        <v>1</v>
-      </c>
+      <c r="E659" s="1"/>
+      <c r="F659" s="1"/>
     </row>
     <row r="660" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E660" s="1">
-        <v>658</v>
-      </c>
-      <c r="F660" s="1">
-        <v>1</v>
-      </c>
+      <c r="E660" s="1"/>
+      <c r="F660" s="1"/>
     </row>
     <row r="661" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E661" s="1">
-        <v>659</v>
-      </c>
-      <c r="F661" s="1">
-        <v>1</v>
-      </c>
+      <c r="E661" s="1"/>
+      <c r="F661" s="1"/>
     </row>
     <row r="662" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E662" s="1">
-        <v>660</v>
-      </c>
-      <c r="F662" s="1">
-        <v>1</v>
-      </c>
+      <c r="E662" s="1"/>
+      <c r="F662" s="1"/>
     </row>
     <row r="663" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E663" s="1">
-        <v>661</v>
-      </c>
-      <c r="F663" s="1">
-        <v>1</v>
-      </c>
+      <c r="E663" s="1"/>
+      <c r="F663" s="1"/>
     </row>
     <row r="664" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E664" s="1">
-        <v>662</v>
-      </c>
-      <c r="F664" s="1">
-        <v>1</v>
-      </c>
+      <c r="E664" s="1"/>
+      <c r="F664" s="1"/>
     </row>
     <row r="665" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E665" s="1">
-        <v>663</v>
-      </c>
-      <c r="F665" s="1">
-        <v>1</v>
-      </c>
+      <c r="E665" s="1"/>
+      <c r="F665" s="1"/>
     </row>
     <row r="666" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E666" s="1">
-        <v>664</v>
-      </c>
-      <c r="F666" s="1">
-        <v>1</v>
-      </c>
+      <c r="E666" s="1"/>
+      <c r="F666" s="1"/>
     </row>
     <row r="667" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E667" s="1">
-        <v>665</v>
-      </c>
-      <c r="F667" s="1">
-        <v>1</v>
-      </c>
+      <c r="E667" s="1"/>
+      <c r="F667" s="1"/>
     </row>
     <row r="668" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E668" s="1">
-        <v>666</v>
-      </c>
-      <c r="F668" s="1">
-        <v>1</v>
-      </c>
+      <c r="E668" s="1"/>
+      <c r="F668" s="1"/>
     </row>
     <row r="669" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E669" s="1">
-        <v>667</v>
-      </c>
-      <c r="F669" s="1">
-        <v>1</v>
-      </c>
+      <c r="E669" s="1"/>
+      <c r="F669" s="1"/>
     </row>
     <row r="670" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E670" s="1">
-        <v>668</v>
-      </c>
-      <c r="F670" s="1">
-        <v>1</v>
-      </c>
+      <c r="E670" s="1"/>
+      <c r="F670" s="1"/>
     </row>
     <row r="671" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E671" s="1">
-        <v>669</v>
-      </c>
-      <c r="F671" s="1">
-        <v>1</v>
-      </c>
+      <c r="E671" s="1"/>
+      <c r="F671" s="1"/>
     </row>
     <row r="672" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E672" s="1">
-        <v>670</v>
-      </c>
-      <c r="F672" s="1">
-        <v>1</v>
-      </c>
+      <c r="E672" s="1"/>
+      <c r="F672" s="1"/>
     </row>
     <row r="673" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E673" s="1">
-        <v>671</v>
-      </c>
-      <c r="F673" s="1">
-        <v>1</v>
-      </c>
+      <c r="E673" s="1"/>
+      <c r="F673" s="1"/>
     </row>
     <row r="674" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E674" s="1">
-        <v>672</v>
-      </c>
-      <c r="F674" s="1">
-        <v>1</v>
-      </c>
+      <c r="E674" s="1"/>
+      <c r="F674" s="1"/>
     </row>
     <row r="675" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E675" s="1">
-        <v>673</v>
-      </c>
-      <c r="F675" s="1">
-        <v>1</v>
-      </c>
+      <c r="E675" s="1"/>
+      <c r="F675" s="1"/>
     </row>
     <row r="676" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E676" s="1">
-        <v>674</v>
-      </c>
-      <c r="F676" s="1">
-        <v>1</v>
-      </c>
+      <c r="E676" s="1"/>
+      <c r="F676" s="1"/>
     </row>
     <row r="677" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E677" s="1">
-        <v>675</v>
-      </c>
-      <c r="F677" s="1">
-        <v>1</v>
-      </c>
+      <c r="E677" s="1"/>
+      <c r="F677" s="1"/>
     </row>
     <row r="678" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E678" s="1">
-        <v>676</v>
-      </c>
-      <c r="F678" s="1">
-        <v>1</v>
-      </c>
+      <c r="E678" s="1"/>
+      <c r="F678" s="1"/>
     </row>
     <row r="679" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E679" s="1">
-        <v>677</v>
-      </c>
-      <c r="F679" s="1">
-        <v>1</v>
-      </c>
+      <c r="E679" s="1"/>
+      <c r="F679" s="1"/>
     </row>
     <row r="680" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E680" s="1">
-        <v>678</v>
-      </c>
-      <c r="F680" s="1">
-        <v>1</v>
-      </c>
+      <c r="E680" s="1"/>
+      <c r="F680" s="1"/>
     </row>
     <row r="681" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E681" s="1">
-        <v>679</v>
-      </c>
-      <c r="F681" s="1">
-        <v>1</v>
-      </c>
+      <c r="E681" s="1"/>
+      <c r="F681" s="1"/>
     </row>
     <row r="682" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E682" s="1">
-        <v>680</v>
-      </c>
-      <c r="F682" s="1">
-        <v>1</v>
-      </c>
+      <c r="E682" s="1"/>
+      <c r="F682" s="1"/>
     </row>
     <row r="683" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E683" s="1">
-        <v>681</v>
-      </c>
-      <c r="F683" s="1">
-        <v>1</v>
-      </c>
+      <c r="E683" s="1"/>
+      <c r="F683" s="1"/>
     </row>
     <row r="684" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E684" s="1">
-        <v>682</v>
-      </c>
-      <c r="F684" s="1">
-        <v>1</v>
-      </c>
+      <c r="E684" s="1"/>
+      <c r="F684" s="1"/>
     </row>
     <row r="685" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E685" s="1">
-        <v>683</v>
-      </c>
-      <c r="F685" s="1">
-        <v>1</v>
-      </c>
+      <c r="E685" s="1"/>
+      <c r="F685" s="1"/>
     </row>
     <row r="686" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E686" s="1">
-        <v>684</v>
-      </c>
-      <c r="F686" s="1">
-        <v>1</v>
-      </c>
+      <c r="E686" s="1"/>
+      <c r="F686" s="1"/>
     </row>
     <row r="687" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E687" s="1">
-        <v>685</v>
-      </c>
-      <c r="F687" s="1">
-        <v>1</v>
-      </c>
+      <c r="E687" s="1"/>
+      <c r="F687" s="1"/>
     </row>
     <row r="688" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E688" s="1">
-        <v>686</v>
-      </c>
-      <c r="F688" s="1">
-        <v>1</v>
-      </c>
+      <c r="E688" s="1"/>
+      <c r="F688" s="1"/>
     </row>
     <row r="689" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E689" s="1">
-        <v>687</v>
-      </c>
-      <c r="F689" s="1">
-        <v>1</v>
-      </c>
+      <c r="E689" s="1"/>
+      <c r="F689" s="1"/>
     </row>
     <row r="690" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E690" s="1">
-        <v>688</v>
-      </c>
-      <c r="F690" s="1">
-        <v>1</v>
-      </c>
+      <c r="E690" s="1"/>
+      <c r="F690" s="1"/>
     </row>
     <row r="691" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E691" s="1">
-        <v>689</v>
-      </c>
-      <c r="F691" s="1">
-        <v>1</v>
-      </c>
+      <c r="E691" s="1"/>
+      <c r="F691" s="1"/>
     </row>
     <row r="692" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E692" s="1">
-        <v>690</v>
-      </c>
-      <c r="F692" s="1">
-        <v>1</v>
-      </c>
+      <c r="E692" s="1"/>
+      <c r="F692" s="1"/>
     </row>
     <row r="693" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E693" s="1">
-        <v>691</v>
-      </c>
-      <c r="F693" s="1">
-        <v>1</v>
-      </c>
+      <c r="E693" s="1"/>
+      <c r="F693" s="1"/>
     </row>
     <row r="694" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E694" s="1">
-        <v>692</v>
-      </c>
-      <c r="F694" s="1">
-        <v>1</v>
-      </c>
+      <c r="E694" s="1"/>
+      <c r="F694" s="1"/>
     </row>
     <row r="695" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E695" s="1">
-        <v>693</v>
-      </c>
-      <c r="F695" s="1">
-        <v>1</v>
-      </c>
+      <c r="E695" s="1"/>
+      <c r="F695" s="1"/>
     </row>
     <row r="696" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E696" s="1">
-        <v>694</v>
-      </c>
-      <c r="F696" s="1">
-        <v>1</v>
-      </c>
+      <c r="E696" s="1"/>
+      <c r="F696" s="1"/>
     </row>
     <row r="697" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E697" s="1">
-        <v>695</v>
-      </c>
-      <c r="F697" s="1">
-        <v>1</v>
-      </c>
+      <c r="E697" s="1"/>
+      <c r="F697" s="1"/>
     </row>
     <row r="698" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E698" s="1">
-        <v>696</v>
-      </c>
-      <c r="F698" s="1">
-        <v>1</v>
-      </c>
+      <c r="E698" s="1"/>
+      <c r="F698" s="1"/>
     </row>
     <row r="699" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E699" s="1">
-        <v>697</v>
-      </c>
-      <c r="F699" s="1">
-        <v>1</v>
-      </c>
+      <c r="E699" s="1"/>
+      <c r="F699" s="1"/>
     </row>
     <row r="700" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E700" s="1">
-        <v>698</v>
-      </c>
-      <c r="F700" s="1">
-        <v>1</v>
-      </c>
+      <c r="E700" s="1"/>
+      <c r="F700" s="1"/>
     </row>
     <row r="701" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E701" s="1">
-        <v>699</v>
-      </c>
-      <c r="F701" s="1">
-        <v>1</v>
-      </c>
+      <c r="E701" s="1"/>
+      <c r="F701" s="1"/>
     </row>
     <row r="702" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E702" s="1">
-        <v>700</v>
-      </c>
-      <c r="F702" s="1">
-        <v>1</v>
-      </c>
+      <c r="E702" s="1"/>
+      <c r="F702" s="1"/>
     </row>
     <row r="703" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E703" s="1">
-        <v>701</v>
-      </c>
-      <c r="F703" s="1">
-        <v>1</v>
-      </c>
+      <c r="E703" s="1"/>
+      <c r="F703" s="1"/>
     </row>
     <row r="704" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E704" s="1">
-        <v>702</v>
-      </c>
-      <c r="F704" s="1">
-        <v>1</v>
-      </c>
+      <c r="E704" s="1"/>
+      <c r="F704" s="1"/>
     </row>
     <row r="705" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E705" s="1">
-        <v>703</v>
-      </c>
-      <c r="F705" s="1">
-        <v>1</v>
-      </c>
+      <c r="E705" s="1"/>
+      <c r="F705" s="1"/>
     </row>
     <row r="706" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E706" s="1">
-        <v>704</v>
-      </c>
-      <c r="F706" s="1">
-        <v>1</v>
-      </c>
+      <c r="E706" s="1"/>
+      <c r="F706" s="1"/>
     </row>
     <row r="707" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E707" s="1">
-        <v>705</v>
-      </c>
-      <c r="F707" s="1">
-        <v>1</v>
-      </c>
+      <c r="E707" s="1"/>
+      <c r="F707" s="1"/>
     </row>
     <row r="708" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E708" s="1">
-        <v>706</v>
-      </c>
-      <c r="F708" s="1">
-        <v>1</v>
-      </c>
+      <c r="E708" s="1"/>
+      <c r="F708" s="1"/>
     </row>
     <row r="709" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E709" s="1">
-        <v>707</v>
-      </c>
-      <c r="F709" s="1">
-        <v>1</v>
-      </c>
+      <c r="E709" s="1"/>
+      <c r="F709" s="1"/>
     </row>
     <row r="710" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E710" s="1">
-        <v>708</v>
-      </c>
-      <c r="F710" s="1">
-        <v>1</v>
-      </c>
+      <c r="E710" s="1"/>
+      <c r="F710" s="1"/>
     </row>
     <row r="711" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E711" s="1">
-        <v>709</v>
-      </c>
-      <c r="F711" s="1">
-        <v>1</v>
-      </c>
+      <c r="E711" s="1"/>
+      <c r="F711" s="1"/>
     </row>
     <row r="712" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E712" s="1">
-        <v>710</v>
-      </c>
-      <c r="F712" s="1">
-        <v>1</v>
-      </c>
+      <c r="E712" s="1"/>
+      <c r="F712" s="1"/>
     </row>
     <row r="713" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E713" s="1">
-        <v>711</v>
-      </c>
-      <c r="F713" s="1">
-        <v>1</v>
-      </c>
+      <c r="E713" s="1"/>
+      <c r="F713" s="1"/>
     </row>
     <row r="714" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E714" s="1">
-        <v>712</v>
-      </c>
-      <c r="F714" s="1">
-        <v>1</v>
-      </c>
+      <c r="E714" s="1"/>
+      <c r="F714" s="1"/>
     </row>
     <row r="715" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E715" s="1">
-        <v>713</v>
-      </c>
-      <c r="F715" s="1">
-        <v>1</v>
-      </c>
+      <c r="E715" s="1"/>
+      <c r="F715" s="1"/>
     </row>
     <row r="716" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E716" s="1">
-        <v>714</v>
-      </c>
-      <c r="F716" s="1">
-        <v>1</v>
-      </c>
+      <c r="E716" s="1"/>
+      <c r="F716" s="1"/>
     </row>
     <row r="717" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E717" s="1">
-        <v>715</v>
-      </c>
-      <c r="F717" s="1">
-        <v>1</v>
-      </c>
+      <c r="E717" s="1"/>
+      <c r="F717" s="1"/>
     </row>
     <row r="718" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E718" s="1">
-        <v>716</v>
-      </c>
-      <c r="F718" s="1">
-        <v>1</v>
-      </c>
+      <c r="E718" s="1"/>
+      <c r="F718" s="1"/>
     </row>
     <row r="719" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E719" s="1">
-        <v>717</v>
-      </c>
-      <c r="F719" s="1">
-        <v>1</v>
-      </c>
+      <c r="E719" s="1"/>
+      <c r="F719" s="1"/>
     </row>
     <row r="720" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E720" s="1">
-        <v>718</v>
-      </c>
-      <c r="F720" s="1">
-        <v>1</v>
-      </c>
+      <c r="E720" s="1"/>
+      <c r="F720" s="1"/>
     </row>
     <row r="721" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E721" s="1">
-        <v>719</v>
-      </c>
-      <c r="F721" s="1">
-        <v>1</v>
-      </c>
+      <c r="E721" s="1"/>
+      <c r="F721" s="1"/>
     </row>
     <row r="722" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E722" s="1">
-        <v>720</v>
-      </c>
-      <c r="F722" s="1">
-        <v>1</v>
-      </c>
+      <c r="E722" s="1"/>
+      <c r="F722" s="1"/>
     </row>
     <row r="723" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E723" s="1">
-        <v>721</v>
-      </c>
-      <c r="F723" s="1">
-        <v>1</v>
-      </c>
+      <c r="E723" s="1"/>
+      <c r="F723" s="1"/>
     </row>
     <row r="724" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E724" s="1">
-        <v>722</v>
-      </c>
-      <c r="F724" s="1">
-        <v>1</v>
-      </c>
+      <c r="E724" s="1"/>
+      <c r="F724" s="1"/>
     </row>
     <row r="725" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E725" s="1">
-        <v>723</v>
-      </c>
-      <c r="F725" s="1">
-        <v>1</v>
-      </c>
+      <c r="E725" s="1"/>
+      <c r="F725" s="1"/>
     </row>
     <row r="726" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E726" s="1">
-        <v>724</v>
-      </c>
-      <c r="F726" s="1">
-        <v>1</v>
-      </c>
+      <c r="E726" s="1"/>
+      <c r="F726" s="1"/>
     </row>
     <row r="727" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E727" s="1">
-        <v>725</v>
-      </c>
-      <c r="F727" s="1">
-        <v>1</v>
-      </c>
+      <c r="E727" s="1"/>
+      <c r="F727" s="1"/>
     </row>
     <row r="728" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E728" s="1">
-        <v>726</v>
-      </c>
-      <c r="F728" s="1">
-        <v>1</v>
-      </c>
+      <c r="E728" s="1"/>
+      <c r="F728" s="1"/>
     </row>
     <row r="729" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E729" s="1">
-        <v>727</v>
-      </c>
-      <c r="F729" s="1">
-        <v>1</v>
-      </c>
+      <c r="E729" s="1"/>
+      <c r="F729" s="1"/>
     </row>
     <row r="730" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E730" s="1">
-        <v>728</v>
-      </c>
-      <c r="F730" s="1">
-        <v>1</v>
-      </c>
+      <c r="E730" s="1"/>
+      <c r="F730" s="1"/>
     </row>
     <row r="731" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E731" s="1">
-        <v>729</v>
-      </c>
-      <c r="F731" s="1">
-        <v>1</v>
-      </c>
+      <c r="E731" s="1"/>
+      <c r="F731" s="1"/>
     </row>
     <row r="732" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E732" s="1">
-        <v>730</v>
-      </c>
-      <c r="F732" s="1">
-        <v>1</v>
-      </c>
+      <c r="E732" s="1"/>
+      <c r="F732" s="1"/>
     </row>
     <row r="733" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E733" s="1">
-        <v>731</v>
-      </c>
-      <c r="F733" s="1">
-        <v>1</v>
-      </c>
+      <c r="E733" s="1"/>
+      <c r="F733" s="1"/>
     </row>
     <row r="734" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E734" s="1">
-        <v>732</v>
-      </c>
-      <c r="F734" s="1">
-        <v>1</v>
-      </c>
+      <c r="E734" s="1"/>
+      <c r="F734" s="1"/>
     </row>
     <row r="735" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E735" s="1">
-        <v>733</v>
-      </c>
-      <c r="F735" s="1">
-        <v>1</v>
-      </c>
+      <c r="E735" s="1"/>
+      <c r="F735" s="1"/>
     </row>
     <row r="736" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E736" s="1">
-        <v>734</v>
-      </c>
-      <c r="F736" s="1">
-        <v>1</v>
-      </c>
+      <c r="E736" s="1"/>
+      <c r="F736" s="1"/>
     </row>
     <row r="737" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E737" s="1">
-        <v>735</v>
-      </c>
-      <c r="F737" s="1">
-        <v>1</v>
-      </c>
+      <c r="E737" s="1"/>
+      <c r="F737" s="1"/>
     </row>
     <row r="738" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E738" s="1">
-        <v>736</v>
-      </c>
-      <c r="F738" s="1">
-        <v>1</v>
-      </c>
+      <c r="E738" s="1"/>
+      <c r="F738" s="1"/>
     </row>
     <row r="739" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E739" s="1">
-        <v>737</v>
-      </c>
-      <c r="F739" s="1">
-        <v>1</v>
-      </c>
+      <c r="E739" s="1"/>
+      <c r="F739" s="1"/>
     </row>
     <row r="740" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E740" s="1">
-        <v>738</v>
-      </c>
-      <c r="F740" s="1">
-        <v>1</v>
-      </c>
+      <c r="E740" s="1"/>
+      <c r="F740" s="1"/>
     </row>
     <row r="741" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E741" s="1">
-        <v>739</v>
-      </c>
-      <c r="F741" s="1">
-        <v>1</v>
-      </c>
+      <c r="E741" s="1"/>
+      <c r="F741" s="1"/>
     </row>
     <row r="742" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E742" s="1">
-        <v>740</v>
-      </c>
-      <c r="F742" s="1">
-        <v>1</v>
-      </c>
+      <c r="E742" s="1"/>
+      <c r="F742" s="1"/>
     </row>
     <row r="743" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E743" s="1">
-        <v>741</v>
-      </c>
-      <c r="F743" s="1">
-        <v>1</v>
-      </c>
+      <c r="E743" s="1"/>
+      <c r="F743" s="1"/>
     </row>
     <row r="744" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E744" s="1">
-        <v>742</v>
-      </c>
-      <c r="F744" s="1">
-        <v>1</v>
-      </c>
+      <c r="E744" s="1"/>
+      <c r="F744" s="1"/>
     </row>
     <row r="745" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E745" s="1">
-        <v>743</v>
-      </c>
-      <c r="F745" s="1">
-        <v>1</v>
-      </c>
+      <c r="E745" s="1"/>
+      <c r="F745" s="1"/>
     </row>
     <row r="746" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E746" s="1">
-        <v>744</v>
-      </c>
-      <c r="F746" s="1">
-        <v>1</v>
-      </c>
+      <c r="E746" s="1"/>
+      <c r="F746" s="1"/>
     </row>
     <row r="747" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E747" s="1">
-        <v>745</v>
-      </c>
-      <c r="F747" s="1">
-        <v>1</v>
-      </c>
+      <c r="E747" s="1"/>
+      <c r="F747" s="1"/>
     </row>
     <row r="748" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E748" s="1">
-        <v>746</v>
-      </c>
-      <c r="F748" s="1">
-        <v>1</v>
-      </c>
+      <c r="E748" s="1"/>
+      <c r="F748" s="1"/>
     </row>
     <row r="749" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E749" s="1">
-        <v>747</v>
-      </c>
-      <c r="F749" s="1">
-        <v>1</v>
-      </c>
+      <c r="E749" s="1"/>
+      <c r="F749" s="1"/>
     </row>
     <row r="750" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E750" s="1">
-        <v>748</v>
-      </c>
-      <c r="F750" s="1">
-        <v>1</v>
-      </c>
+      <c r="E750" s="1"/>
+      <c r="F750" s="1"/>
     </row>
     <row r="751" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E751" s="1">
-        <v>749</v>
-      </c>
-      <c r="F751" s="1">
-        <v>1</v>
-      </c>
+      <c r="E751" s="1"/>
+      <c r="F751" s="1"/>
     </row>
     <row r="752" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E752" s="1">
-        <v>750</v>
-      </c>
-      <c r="F752" s="1">
-        <v>1</v>
-      </c>
+      <c r="E752" s="1"/>
+      <c r="F752" s="1"/>
     </row>
     <row r="753" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E753" s="1">
-        <v>751</v>
-      </c>
-      <c r="F753" s="1">
-        <v>1</v>
-      </c>
+      <c r="E753" s="1"/>
+      <c r="F753" s="1"/>
     </row>
     <row r="754" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E754" s="1">
-        <v>752</v>
-      </c>
-      <c r="F754" s="1">
-        <v>1</v>
-      </c>
+      <c r="E754" s="1"/>
+      <c r="F754" s="1"/>
     </row>
     <row r="755" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E755" s="1">
-        <v>753</v>
-      </c>
-      <c r="F755" s="1">
-        <v>1</v>
-      </c>
+      <c r="E755" s="1"/>
+      <c r="F755" s="1"/>
     </row>
     <row r="756" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E756" s="1">
-        <v>754</v>
-      </c>
-      <c r="F756" s="1">
-        <v>1</v>
-      </c>
+      <c r="E756" s="1"/>
+      <c r="F756" s="1"/>
     </row>
     <row r="757" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E757" s="1">
-        <v>755</v>
-      </c>
-      <c r="F757" s="1">
-        <v>1</v>
-      </c>
+      <c r="E757" s="1"/>
+      <c r="F757" s="1"/>
     </row>
     <row r="758" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E758" s="1">
-        <v>756</v>
-      </c>
-      <c r="F758" s="1">
-        <v>1</v>
-      </c>
+      <c r="E758" s="1"/>
+      <c r="F758" s="1"/>
     </row>
     <row r="759" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E759" s="1">
-        <v>757</v>
-      </c>
-      <c r="F759" s="1">
-        <v>1</v>
-      </c>
+      <c r="E759" s="1"/>
+      <c r="F759" s="1"/>
     </row>
     <row r="760" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E760" s="1">
-        <v>758</v>
-      </c>
-      <c r="F760" s="1">
-        <v>1</v>
-      </c>
+      <c r="E760" s="1"/>
+      <c r="F760" s="1"/>
     </row>
     <row r="761" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E761" s="1">
-        <v>759</v>
-      </c>
-      <c r="F761" s="1">
-        <v>1</v>
-      </c>
+      <c r="E761" s="1"/>
+      <c r="F761" s="1"/>
     </row>
     <row r="762" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E762" s="1">
-        <v>760</v>
-      </c>
-      <c r="F762" s="1">
-        <v>1</v>
-      </c>
+      <c r="E762" s="1"/>
+      <c r="F762" s="1"/>
     </row>
     <row r="763" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E763" s="1">
-        <v>761</v>
-      </c>
-      <c r="F763" s="1">
-        <v>1</v>
-      </c>
+      <c r="E763" s="1"/>
+      <c r="F763" s="1"/>
     </row>
     <row r="764" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E764" s="1">
-        <v>762</v>
-      </c>
-      <c r="F764" s="1">
-        <v>1</v>
-      </c>
+      <c r="E764" s="1"/>
+      <c r="F764" s="1"/>
     </row>
     <row r="765" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E765" s="1">
-        <v>763</v>
-      </c>
-      <c r="F765" s="1">
-        <v>1</v>
-      </c>
+      <c r="E765" s="1"/>
+      <c r="F765" s="1"/>
     </row>
     <row r="766" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E766" s="1">
-        <v>764</v>
-      </c>
-      <c r="F766" s="1">
-        <v>1</v>
-      </c>
+      <c r="E766" s="1"/>
+      <c r="F766" s="1"/>
     </row>
     <row r="767" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E767" s="1">
-        <v>765</v>
-      </c>
-      <c r="F767" s="1">
-        <v>1</v>
-      </c>
+      <c r="E767" s="1"/>
+      <c r="F767" s="1"/>
     </row>
     <row r="768" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E768" s="1">
-        <v>766</v>
-      </c>
-      <c r="F768" s="1">
-        <v>1</v>
-      </c>
+      <c r="E768" s="1"/>
+      <c r="F768" s="1"/>
     </row>
     <row r="769" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E769" s="1">
-        <v>767</v>
-      </c>
-      <c r="F769" s="1">
-        <v>1</v>
-      </c>
+      <c r="E769" s="1"/>
+      <c r="F769" s="1"/>
     </row>
     <row r="770" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E770" s="1">
-        <v>768</v>
-      </c>
-      <c r="F770" s="1">
-        <v>1</v>
-      </c>
+      <c r="E770" s="1"/>
+      <c r="F770" s="1"/>
     </row>
     <row r="771" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E771" s="1">
-        <v>769</v>
-      </c>
-      <c r="F771" s="1">
-        <v>1</v>
-      </c>
+      <c r="E771" s="1"/>
+      <c r="F771" s="1"/>
     </row>
     <row r="772" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E772" s="1">
-        <v>770</v>
-      </c>
-      <c r="F772" s="1">
-        <v>1</v>
-      </c>
+      <c r="E772" s="1"/>
+      <c r="F772" s="1"/>
     </row>
     <row r="773" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E773" s="1">
-        <v>771</v>
-      </c>
-      <c r="F773" s="1">
-        <v>1</v>
-      </c>
+      <c r="E773" s="1"/>
+      <c r="F773" s="1"/>
     </row>
     <row r="774" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E774" s="1">
-        <v>772</v>
-      </c>
-      <c r="F774" s="1">
-        <v>1</v>
-      </c>
+      <c r="E774" s="1"/>
+      <c r="F774" s="1"/>
     </row>
     <row r="775" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E775" s="1">
-        <v>773</v>
-      </c>
-      <c r="F775" s="1">
-        <v>1</v>
-      </c>
+      <c r="E775" s="1"/>
+      <c r="F775" s="1"/>
     </row>
     <row r="776" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E776" s="1">
-        <v>774</v>
-      </c>
-      <c r="F776" s="1">
-        <v>1</v>
-      </c>
+      <c r="E776" s="1"/>
+      <c r="F776" s="1"/>
     </row>
     <row r="777" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E777" s="1">
-        <v>775</v>
-      </c>
-      <c r="F777" s="1">
-        <v>1</v>
-      </c>
+      <c r="E777" s="1"/>
+      <c r="F777" s="1"/>
     </row>
     <row r="778" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E778" s="1">
-        <v>776</v>
-      </c>
-      <c r="F778" s="1">
-        <v>1</v>
-      </c>
+      <c r="E778" s="1"/>
+      <c r="F778" s="1"/>
     </row>
     <row r="779" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E779" s="1">
-        <v>777</v>
-      </c>
-      <c r="F779" s="1">
-        <v>1</v>
-      </c>
+      <c r="E779" s="1"/>
+      <c r="F779" s="1"/>
     </row>
     <row r="780" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E780" s="1">
-        <v>778</v>
-      </c>
-      <c r="F780" s="1">
-        <v>1</v>
-      </c>
+      <c r="E780" s="1"/>
+      <c r="F780" s="1"/>
     </row>
     <row r="781" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E781" s="1">
-        <v>779</v>
-      </c>
-      <c r="F781" s="1">
-        <v>1</v>
-      </c>
+      <c r="E781" s="1"/>
+      <c r="F781" s="1"/>
     </row>
     <row r="782" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E782" s="1">
-        <v>780</v>
-      </c>
-      <c r="F782" s="1">
-        <v>1</v>
-      </c>
+      <c r="E782" s="1"/>
+      <c r="F782" s="1"/>
     </row>
     <row r="783" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E783" s="1">
-        <v>781</v>
-      </c>
-      <c r="F783" s="1">
-        <v>1</v>
-      </c>
+      <c r="E783" s="1"/>
+      <c r="F783" s="1"/>
     </row>
     <row r="784" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E784" s="1">
-        <v>782</v>
-      </c>
-      <c r="F784" s="1">
-        <v>1</v>
-      </c>
+      <c r="E784" s="1"/>
+      <c r="F784" s="1"/>
     </row>
     <row r="785" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E785" s="1">
-        <v>783</v>
-      </c>
-      <c r="F785" s="1">
-        <v>1</v>
-      </c>
+      <c r="E785" s="1"/>
+      <c r="F785" s="1"/>
     </row>
     <row r="786" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E786" s="1">
-        <v>784</v>
-      </c>
-      <c r="F786" s="1">
-        <v>1</v>
-      </c>
+      <c r="E786" s="1"/>
+      <c r="F786" s="1"/>
     </row>
     <row r="787" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E787" s="1">
-        <v>785</v>
-      </c>
-      <c r="F787" s="1">
-        <v>1</v>
-      </c>
+      <c r="E787" s="1"/>
+      <c r="F787" s="1"/>
     </row>
     <row r="788" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E788" s="1">
-        <v>786</v>
-      </c>
-      <c r="F788" s="1">
-        <v>1</v>
-      </c>
+      <c r="E788" s="1"/>
+      <c r="F788" s="1"/>
     </row>
     <row r="789" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E789" s="1">
-        <v>787</v>
-      </c>
-      <c r="F789" s="1">
-        <v>1</v>
-      </c>
+      <c r="E789" s="1"/>
+      <c r="F789" s="1"/>
     </row>
     <row r="790" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E790" s="1">
-        <v>788</v>
-      </c>
-      <c r="F790" s="1">
-        <v>1</v>
-      </c>
+      <c r="E790" s="1"/>
+      <c r="F790" s="1"/>
     </row>
     <row r="791" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E791" s="1">
-        <v>789</v>
-      </c>
-      <c r="F791" s="1">
-        <v>1</v>
-      </c>
+      <c r="E791" s="1"/>
+      <c r="F791" s="1"/>
     </row>
     <row r="792" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E792" s="1">
-        <v>790</v>
-      </c>
-      <c r="F792" s="1">
-        <v>1</v>
-      </c>
+      <c r="E792" s="1"/>
+      <c r="F792" s="1"/>
     </row>
     <row r="793" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E793" s="1">
-        <v>791</v>
-      </c>
-      <c r="F793" s="1">
-        <v>1</v>
-      </c>
+      <c r="E793" s="1"/>
+      <c r="F793" s="1"/>
     </row>
     <row r="794" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E794" s="1">
-        <v>792</v>
-      </c>
-      <c r="F794" s="1">
-        <v>1</v>
-      </c>
+      <c r="E794" s="1"/>
+      <c r="F794" s="1"/>
     </row>
     <row r="795" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E795" s="1">
-        <v>793</v>
-      </c>
-      <c r="F795" s="1">
-        <v>1</v>
-      </c>
+      <c r="E795" s="1"/>
+      <c r="F795" s="1"/>
     </row>
     <row r="796" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E796" s="1">
-        <v>794</v>
-      </c>
-      <c r="F796" s="1">
-        <v>1</v>
-      </c>
+      <c r="E796" s="1"/>
+      <c r="F796" s="1"/>
     </row>
     <row r="797" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E797" s="1">
-        <v>795</v>
-      </c>
-      <c r="F797" s="1">
-        <v>1</v>
-      </c>
+      <c r="E797" s="1"/>
+      <c r="F797" s="1"/>
     </row>
     <row r="798" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E798" s="1">
-        <v>796</v>
-      </c>
-      <c r="F798" s="1">
-        <v>1</v>
-      </c>
+      <c r="E798" s="1"/>
+      <c r="F798" s="1"/>
     </row>
     <row r="799" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E799" s="1">
-        <v>797</v>
-      </c>
-      <c r="F799" s="1">
-        <v>1</v>
-      </c>
+      <c r="E799" s="1"/>
+      <c r="F799" s="1"/>
     </row>
     <row r="800" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E800" s="1">
-        <v>798</v>
-      </c>
-      <c r="F800" s="1">
-        <v>1</v>
-      </c>
+      <c r="E800" s="1"/>
+      <c r="F800" s="1"/>
     </row>
     <row r="801" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E801" s="1">
-        <v>799</v>
-      </c>
-      <c r="F801" s="1">
-        <v>1</v>
-      </c>
+      <c r="E801" s="1"/>
+      <c r="F801" s="1"/>
     </row>
     <row r="802" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E802" s="1">
-        <v>800</v>
-      </c>
-      <c r="F802" s="1">
-        <v>1</v>
-      </c>
+      <c r="E802" s="1"/>
+      <c r="F802" s="1"/>
     </row>
     <row r="803" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E803" s="1">
-        <v>801</v>
-      </c>
-      <c r="F803" s="1">
-        <v>1</v>
-      </c>
+      <c r="E803" s="1"/>
+      <c r="F803" s="1"/>
     </row>
     <row r="804" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E804" s="1">
-        <v>802</v>
-      </c>
-      <c r="F804" s="1">
-        <v>1</v>
-      </c>
+      <c r="E804" s="1"/>
+      <c r="F804" s="1"/>
     </row>
     <row r="805" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E805" s="1">
-        <v>803</v>
-      </c>
-      <c r="F805" s="1">
-        <v>1</v>
-      </c>
+      <c r="E805" s="1"/>
+      <c r="F805" s="1"/>
     </row>
     <row r="806" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E806" s="1">
-        <v>804</v>
-      </c>
-      <c r="F806" s="1">
-        <v>1</v>
-      </c>
+      <c r="E806" s="1"/>
+      <c r="F806" s="1"/>
     </row>
     <row r="807" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E807" s="1">
-        <v>805</v>
-      </c>
-      <c r="F807" s="1">
-        <v>1</v>
-      </c>
+      <c r="E807" s="1"/>
+      <c r="F807" s="1"/>
     </row>
     <row r="808" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E808" s="1">
-        <v>806</v>
-      </c>
-      <c r="F808" s="1">
-        <v>1</v>
-      </c>
+      <c r="E808" s="1"/>
+      <c r="F808" s="1"/>
     </row>
     <row r="809" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E809" s="1">
-        <v>807</v>
-      </c>
-      <c r="F809" s="1">
-        <v>1</v>
-      </c>
+      <c r="E809" s="1"/>
+      <c r="F809" s="1"/>
     </row>
     <row r="810" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E810" s="1">
-        <v>808</v>
-      </c>
-      <c r="F810" s="1">
-        <v>1</v>
-      </c>
+      <c r="E810" s="1"/>
+      <c r="F810" s="1"/>
     </row>
     <row r="811" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E811" s="1">
-        <v>809</v>
-      </c>
-      <c r="F811" s="1">
-        <v>1</v>
-      </c>
+      <c r="E811" s="1"/>
+      <c r="F811" s="1"/>
     </row>
     <row r="812" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E812" s="1">
-        <v>810</v>
-      </c>
-      <c r="F812" s="1">
-        <v>1</v>
-      </c>
+      <c r="E812" s="1"/>
+      <c r="F812" s="1"/>
     </row>
     <row r="813" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E813" s="1">
-        <v>811</v>
-      </c>
-      <c r="F813" s="1">
-        <v>1</v>
-      </c>
+      <c r="E813" s="1"/>
+      <c r="F813" s="1"/>
     </row>
     <row r="814" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E814" s="1">
-        <v>812</v>
-      </c>
-      <c r="F814" s="1">
-        <v>1</v>
-      </c>
+      <c r="E814" s="1"/>
+      <c r="F814" s="1"/>
     </row>
     <row r="815" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E815" s="1">
-        <v>813</v>
-      </c>
-      <c r="F815" s="1">
-        <v>1</v>
-      </c>
+      <c r="E815" s="1"/>
+      <c r="F815" s="1"/>
     </row>
     <row r="816" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E816" s="1">
-        <v>814</v>
-      </c>
-      <c r="F816" s="1">
-        <v>1</v>
-      </c>
+      <c r="E816" s="1"/>
+      <c r="F816" s="1"/>
     </row>
     <row r="817" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E817" s="1">
-        <v>815</v>
-      </c>
-      <c r="F817" s="1">
-        <v>1</v>
-      </c>
+      <c r="E817" s="1"/>
+      <c r="F817" s="1"/>
     </row>
     <row r="818" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E818" s="1">
-        <v>816</v>
-      </c>
-      <c r="F818" s="1">
-        <v>1</v>
-      </c>
+      <c r="E818" s="1"/>
+      <c r="F818" s="1"/>
     </row>
     <row r="819" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E819" s="1">
-        <v>817</v>
-      </c>
-      <c r="F819" s="1">
-        <v>1</v>
-      </c>
+      <c r="E819" s="1"/>
+      <c r="F819" s="1"/>
     </row>
     <row r="820" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E820" s="1">
-        <v>818</v>
-      </c>
-      <c r="F820" s="1">
-        <v>1</v>
-      </c>
+      <c r="E820" s="1"/>
+      <c r="F820" s="1"/>
     </row>
     <row r="821" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E821" s="1">
-        <v>819</v>
-      </c>
-      <c r="F821" s="1">
-        <v>1</v>
-      </c>
+      <c r="E821" s="1"/>
+      <c r="F821" s="1"/>
     </row>
     <row r="822" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E822" s="1">
-        <v>820</v>
-      </c>
-      <c r="F822" s="1">
-        <v>1</v>
-      </c>
+      <c r="E822" s="1"/>
+      <c r="F822" s="1"/>
     </row>
     <row r="823" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E823" s="1">
-        <v>821</v>
-      </c>
-      <c r="F823" s="1">
-        <v>1</v>
-      </c>
+      <c r="E823" s="1"/>
+      <c r="F823" s="1"/>
     </row>
     <row r="824" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E824" s="1">
-        <v>822</v>
-      </c>
-      <c r="F824" s="1">
-        <v>1</v>
-      </c>
+      <c r="E824" s="1"/>
+      <c r="F824" s="1"/>
     </row>
     <row r="825" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E825" s="1">
-        <v>823</v>
-      </c>
-      <c r="F825" s="1">
-        <v>1</v>
-      </c>
+      <c r="E825" s="1"/>
+      <c r="F825" s="1"/>
     </row>
     <row r="826" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E826" s="1">
-        <v>824</v>
-      </c>
-      <c r="F826" s="1">
-        <v>1</v>
-      </c>
+      <c r="E826" s="1"/>
+      <c r="F826" s="1"/>
     </row>
     <row r="827" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E827" s="1">
-        <v>825</v>
-      </c>
-      <c r="F827" s="1">
-        <v>1</v>
-      </c>
+      <c r="E827" s="1"/>
+      <c r="F827" s="1"/>
     </row>
     <row r="828" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E828" s="1">
-        <v>826</v>
-      </c>
-      <c r="F828" s="1">
-        <v>1</v>
-      </c>
+      <c r="E828" s="1"/>
+      <c r="F828" s="1"/>
     </row>
     <row r="829" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E829" s="1">
-        <v>827</v>
-      </c>
-      <c r="F829" s="1">
-        <v>1</v>
-      </c>
+      <c r="E829" s="1"/>
+      <c r="F829" s="1"/>
     </row>
     <row r="830" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E830" s="1">
-        <v>828</v>
-      </c>
-      <c r="F830" s="1">
-        <v>1</v>
-      </c>
+      <c r="E830" s="1"/>
+      <c r="F830" s="1"/>
     </row>
     <row r="831" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E831" s="1">
-        <v>829</v>
-      </c>
-      <c r="F831" s="1">
-        <v>1</v>
-      </c>
+      <c r="E831" s="1"/>
+      <c r="F831" s="1"/>
     </row>
     <row r="832" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E832" s="1">
-        <v>830</v>
-      </c>
-      <c r="F832" s="1">
-        <v>1</v>
-      </c>
+      <c r="E832" s="1"/>
+      <c r="F832" s="1"/>
     </row>
     <row r="833" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E833" s="1">
-        <v>831</v>
-      </c>
-      <c r="F833" s="1">
-        <v>1</v>
-      </c>
+      <c r="E833" s="1"/>
+      <c r="F833" s="1"/>
     </row>
     <row r="834" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E834" s="1">
-        <v>832</v>
-      </c>
-      <c r="F834" s="1">
-        <v>1</v>
-      </c>
+      <c r="E834" s="1"/>
+      <c r="F834" s="1"/>
     </row>
     <row r="835" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E835" s="1">
-        <v>833</v>
-      </c>
-      <c r="F835" s="1">
-        <v>1</v>
-      </c>
+      <c r="E835" s="1"/>
+      <c r="F835" s="1"/>
     </row>
     <row r="836" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E836" s="1">
-        <v>834</v>
-      </c>
-      <c r="F836" s="1">
-        <v>1</v>
-      </c>
+      <c r="E836" s="1"/>
+      <c r="F836" s="1"/>
     </row>
     <row r="837" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E837" s="1">
-        <v>835</v>
-      </c>
-      <c r="F837" s="1">
-        <v>1</v>
-      </c>
+      <c r="E837" s="1"/>
+      <c r="F837" s="1"/>
     </row>
     <row r="838" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E838" s="1">
-        <v>836</v>
-      </c>
-      <c r="F838" s="1">
-        <v>1</v>
-      </c>
+      <c r="E838" s="1"/>
+      <c r="F838" s="1"/>
     </row>
     <row r="839" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E839" s="1">
-        <v>837</v>
-      </c>
-      <c r="F839" s="1">
-        <v>1</v>
-      </c>
+      <c r="E839" s="1"/>
+      <c r="F839" s="1"/>
     </row>
     <row r="840" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E840" s="1">
-        <v>838</v>
-      </c>
-      <c r="F840" s="1">
-        <v>1</v>
-      </c>
+      <c r="E840" s="1"/>
+      <c r="F840" s="1"/>
     </row>
     <row r="841" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E841" s="1">
-        <v>839</v>
-      </c>
-      <c r="F841" s="1">
-        <v>1</v>
-      </c>
+      <c r="E841" s="1"/>
+      <c r="F841" s="1"/>
     </row>
     <row r="842" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E842" s="1">
-        <v>840</v>
-      </c>
-      <c r="F842" s="1">
-        <v>1</v>
-      </c>
+      <c r="E842" s="1"/>
+      <c r="F842" s="1"/>
     </row>
     <row r="843" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E843" s="1">
-        <v>841</v>
-      </c>
-      <c r="F843" s="1">
-        <v>1</v>
-      </c>
+      <c r="E843" s="1"/>
+      <c r="F843" s="1"/>
     </row>
     <row r="844" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E844" s="1">
-        <v>842</v>
-      </c>
-      <c r="F844" s="1">
-        <v>1</v>
-      </c>
+      <c r="E844" s="1"/>
+      <c r="F844" s="1"/>
     </row>
     <row r="845" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E845" s="1">
-        <v>843</v>
-      </c>
-      <c r="F845" s="1">
-        <v>1</v>
-      </c>
+      <c r="E845" s="1"/>
+      <c r="F845" s="1"/>
     </row>
     <row r="846" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E846" s="1">
-        <v>844</v>
-      </c>
-      <c r="F846" s="1">
-        <v>1</v>
-      </c>
+      <c r="E846" s="1"/>
+      <c r="F846" s="1"/>
     </row>
     <row r="847" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E847" s="1">
-        <v>845</v>
-      </c>
-      <c r="F847" s="1">
-        <v>1</v>
-      </c>
+      <c r="E847" s="1"/>
+      <c r="F847" s="1"/>
     </row>
     <row r="848" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E848" s="1">
-        <v>846</v>
-      </c>
-      <c r="F848" s="1">
-        <v>1</v>
-      </c>
+      <c r="E848" s="1"/>
+      <c r="F848" s="1"/>
     </row>
     <row r="849" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E849" s="1">
-        <v>847</v>
-      </c>
-      <c r="F849" s="1">
-        <v>1</v>
-      </c>
+      <c r="E849" s="1"/>
+      <c r="F849" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/log/clustering_log/AgglomerativeClustering/compare.xlsx
+++ b/log/clustering_log/AgglomerativeClustering/compare.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19500" windowHeight="12660" tabRatio="849" firstSheet="3" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="19500" windowHeight="12660" tabRatio="849" firstSheet="3" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="tf-idf(15)" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="71">
   <si>
     <t>cos</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,10 +144,6 @@
   </si>
   <si>
     <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tf-idf內文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -310,6 +306,22 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word2vec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>our method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word2vec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word2vec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3841,7 +3853,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4175,7 +4186,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4297,7 +4307,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4372,7 +4381,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4483,7 +4491,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4817,7 +4824,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4939,7 +4945,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5014,7 +5019,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5125,7 +5129,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5477,7 +5480,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5603,7 +5605,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5668,6 +5669,1546 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW"/>
+              <a:t>分群花費時間比較</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>our method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>各比較!$A$22:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$E$22:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.78</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.71</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-10D7-48C3-898A-80783BAE447F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tf-idf標題</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>各比較!$A$22:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$F$22:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.37</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-10D7-48C3-898A-80783BAE447F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1206032736"/>
+        <c:axId val="1206022944"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tf-idf內文</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>各比較!$A$22:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$B$22:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>290.79000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>254.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>307.74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>383.64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>606.59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>624.97</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>385.29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>522.88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>407.62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>528.19000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>559.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-10D7-48C3-898A-80783BAE447F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>word2vec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>各比較!$A$22:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$C$22:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61.18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100.85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>109.54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>124.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>145.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>170.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-10D7-48C3-898A-80783BAE447F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tf-idf標題</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>各比較!$A$22:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$D$22:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.37</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-10D7-48C3-898A-80783BAE447F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>our method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>各比較!$A$22:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$G$22:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.78</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.71</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42FC-4C93-A381-E1D16CCC3F99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1206034368"/>
+        <c:axId val="1206028928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1206034368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>文章數量</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1206028928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1206028928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>花費時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>秒</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1206034368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1206022944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>花費時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>秒</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>))</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1206032736"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1206032736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1206022944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -5745,7 +7286,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -5867,6 +7408,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:extLst>
@@ -5912,7 +7512,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2FE6-49D1-8801-B34BC99C93C9}"/>
+              <c16:uniqueId val="{00000000-F8D5-4DBA-A505-2E379226EF65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5940,6 +7540,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:extLst>
@@ -5985,7 +7644,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2FE6-49D1-8801-B34BC99C93C9}"/>
+              <c16:uniqueId val="{00000001-F8D5-4DBA-A505-2E379226EF65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5998,7 +7657,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>our method</c:v>
+                  <c:v>word2vec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6013,6 +7672,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:extLst>
@@ -6048,23 +7766,156 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.69</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2FE6-49D1-8801-B34BC99C93C9}"/>
+              <c16:uniqueId val="{00000002-F8D5-4DBA-A505-2E379226EF65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>our method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$1:$F$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$5:$F$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$5:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F8D5-4DBA-A505-2E379226EF65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -6315,7 +8166,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -6362,7 +8213,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>A)</a:t>
+              <a:t>C)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6409,7 +8260,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$6</c:f>
+              <c:f>各比較!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6428,16 +8279,68 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$5:$F$5</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$5:$C$5</c:f>
+              <c:f>各比較!$B$11:$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6451,29 +8354,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$6:$F$6</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$6:$C$6</c:f>
+              <c:f>各比較!$B$12:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.48</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5396-4741-8FE5-B8F0BCD3FAD7}"/>
+              <c16:uniqueId val="{00000000-D9CF-49C0-AE38-1719BDB8C470}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6482,7 +8378,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$7</c:f>
+              <c:f>各比較!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6501,16 +8397,68 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$5:$F$5</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$5:$C$5</c:f>
+              <c:f>各比較!$B$11:$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6524,29 +8472,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$7:$F$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$7:$C$7</c:f>
+              <c:f>各比較!$B$13:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5396-4741-8FE5-B8F0BCD3FAD7}"/>
+              <c16:uniqueId val="{00000001-D9CF-49C0-AE38-1719BDB8C470}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6555,11 +8496,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$8</c:f>
+              <c:f>各比較!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>our method</c:v>
+                  <c:v>word2vec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6574,16 +8515,68 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$5:$F$5</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$5:$C$5</c:f>
+              <c:f>各比較!$B$11:$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6597,35 +8590,147 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$8:$F$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$8:$C$8</c:f>
+              <c:f>各比較!$B$14:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.54</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5396-4741-8FE5-B8F0BCD3FAD7}"/>
+              <c16:uniqueId val="{00000002-D9CF-49C0-AE38-1719BDB8C470}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>our method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>各比較!$B$11:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$B$15:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D9CF-49C0-AE38-1719BDB8C470}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -6799,1392 +8904,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US"/>
-              <a:t>分群花費時間比較</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>各比較!$E$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tf-idf標題</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>各比較!$A$19:$A$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>各比較!$E$19:$E$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.65</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.6300000000000008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.39</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.52</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24.56</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26.63</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17.05</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20.37</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.64</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-10D7-48C3-898A-80783BAE447F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>各比較!$F$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>our method</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>各比較!$A$19:$A$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>各比較!$F$19:$F$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.39</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.67</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.97</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.68</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.53</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.34</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.53</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.75</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.68</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.5500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.78</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.71</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13.96</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-10D7-48C3-898A-80783BAE447F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1206032736"/>
-        <c:axId val="1206022944"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>各比較!$B$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tf-idf內文</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>各比較!$A$19:$A$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>各比較!$B$19:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.53</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60.36</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>192.44</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>73.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>290.79000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>254.27</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>307.74</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>383.64</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>606.59</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>624.97</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>385.29</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>522.88</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>407.62</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>528.19000000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>559.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-10D7-48C3-898A-80783BAE447F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>各比較!$C$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tf-idf標題</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>各比較!$A$19:$A$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>各比較!$C$19:$C$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.65</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.6300000000000008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.39</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.52</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24.56</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26.63</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17.05</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20.37</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.64</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-10D7-48C3-898A-80783BAE447F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>各比較!$D$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>our method</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>各比較!$A$19:$A$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>各比較!$D$19:$D$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.39</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.67</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.97</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.68</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.53</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.34</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.53</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.75</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.68</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.5500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.78</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.71</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13.96</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-10D7-48C3-898A-80783BAE447F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1206034368"/>
-        <c:axId val="1206028928"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1206034368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>文章數量</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-TW"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1206028928"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1206028928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>花費時間</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>秒</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1206034368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1206022944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>花費時間</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>秒</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>))</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1206032736"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="1206032736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1206022944"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -8902,7 +9621,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>C)</a:t>
+              <a:t>A)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8949,7 +9668,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$10</c:f>
+              <c:f>各比較!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8968,8 +9687,352 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$6:$F$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$6:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$7:$F$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$7:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E71-48AC-9C82-FB9ED8885BDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tf-idf標題</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$6:$F$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$6:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$8:$F$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$8:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1E71-48AC-9C82-FB9ED8885BDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>word2vec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$6:$F$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$6:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
@@ -8978,6 +10041,117 @@
                 </c:ext>
               </c:extLst>
               <c:f>各比較!$B$9:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1E71-48AC-9C82-FB9ED8885BDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>our method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$6:$F$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$6:$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -9003,169 +10177,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.63</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-268B-46B8-95E7-7EF5518AFE00}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>各比較!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tf-idf標題</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$9:$F$9</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$9:$C$9</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>AMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$11:$F$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$11:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.42</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-268B-46B8-95E7-7EF5518AFE00}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>各比較!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>our method</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$9:$F$9</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$9:$C$9</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>AMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$12:$F$12</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$12:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-268B-46B8-95E7-7EF5518AFE00}"/>
+              <c16:uniqueId val="{00000003-1E71-48AC-9C82-FB9ED8885BDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -20855,6 +21884,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20968,6 +21998,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -21155,6 +22186,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -22065,6 +23097,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -22186,6 +23219,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -22260,6 +23294,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -31762,7 +32797,7 @@
 </file>
 
 <file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -31966,22 +33001,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -32151,6 +33187,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -32219,19 +33266,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -32768,7 +33816,7 @@
 </file>
 
 <file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -32876,11 +33924,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -32891,11 +33934,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -32927,9 +33965,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -40015,18 +41050,18 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="圖表 4"/>
+        <xdr:cNvPr id="10" name="圖表 9"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -40047,18 +41082,18 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="圖表 7"/>
+        <xdr:cNvPr id="9" name="圖表 8"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -40070,38 +41105,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="圖表 9"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -40122,7 +41125,39 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="圖表 5"/>
+        <xdr:cNvPr id="11" name="圖表 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="圖表 11"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -41111,7 +42146,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="5"/>
@@ -41528,7 +42563,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -41950,7 +42985,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -42337,21 +43372,21 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>54</v>
-      </c>
-      <c r="J2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -42552,7 +43587,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -42757,7 +43792,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -42767,7 +43802,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -42967,7 +44002,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -43172,23 +44207,23 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
+        <v>36</v>
+      </c>
+      <c r="K61" t="s">
         <v>37</v>
       </c>
-      <c r="K61" t="s">
-        <v>38</v>
-      </c>
       <c r="P61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -43397,7 +44432,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -43628,28 +44663,28 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
       <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>36</v>
       </c>
       <c r="J1" s="1"/>
     </row>
@@ -44446,36 +45481,36 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" s="14"/>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I1" s="14"/>
       <c r="J1" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K1" s="14"/>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N1" s="14"/>
       <c r="O1" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P1" s="14"/>
     </row>
@@ -44484,81 +45519,81 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
         <v>62</v>
       </c>
-      <c r="J2" t="s">
-        <v>63</v>
-      </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
         <v>0</v>
       </c>
       <c r="N2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
         <v>62</v>
       </c>
-      <c r="O2" t="s">
-        <v>63</v>
-      </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
         <v>33</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>34</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>35</v>
-      </c>
-      <c r="P3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
@@ -45814,10 +46849,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -45842,7 +46877,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>0.56999999999999995</v>
@@ -45862,7 +46897,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -45880,606 +46915,729 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B4">
-        <v>0.69</v>
+        <v>0.71</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="D4">
         <v>0.96</v>
       </c>
       <c r="E4">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F4">
         <v>0.96</v>
       </c>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5">
+        <v>0.69</v>
+      </c>
+      <c r="C5">
+        <v>0.6</v>
+      </c>
+      <c r="D5">
+        <v>0.96</v>
+      </c>
+      <c r="E5">
+        <v>0.97</v>
+      </c>
+      <c r="F5">
+        <v>0.96</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>0.48</v>
-      </c>
-      <c r="C6">
-        <v>0.34</v>
-      </c>
-      <c r="D6">
-        <v>0.76</v>
-      </c>
-      <c r="E6">
-        <v>0.78</v>
-      </c>
-      <c r="F6">
-        <v>0.77</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B7">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="C7">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="D7">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="E7">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
       <c r="F7">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8">
-        <v>0.54</v>
+        <v>0.4</v>
       </c>
       <c r="C8">
-        <v>0.47</v>
+        <v>0.26</v>
       </c>
       <c r="D8">
-        <v>0.79</v>
+        <v>0.71</v>
       </c>
       <c r="E8">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="F8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="1">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F9" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="12">
-        <v>0.63</v>
-      </c>
-      <c r="C10" s="12">
-        <v>0.53</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0.89</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.91</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0.9</v>
+        <v>68</v>
+      </c>
+      <c r="B10">
+        <v>0.54</v>
+      </c>
+      <c r="C10">
+        <v>0.47</v>
+      </c>
+      <c r="D10">
+        <v>0.79</v>
+      </c>
+      <c r="E10">
+        <v>0.76</v>
+      </c>
+      <c r="F10">
+        <v>0.77</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11">
-        <v>0.42</v>
-      </c>
-      <c r="C11">
-        <v>0.42</v>
-      </c>
-      <c r="D11">
-        <v>0.87</v>
-      </c>
-      <c r="E11">
-        <v>0.76</v>
-      </c>
-      <c r="F11">
-        <v>0.81</v>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="11">
+        <v>50</v>
+      </c>
+      <c r="B12" s="12">
         <v>0.63</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="12">
+        <v>0.53</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.91</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>0.42</v>
+      </c>
+      <c r="C13">
+        <v>0.42</v>
+      </c>
+      <c r="D13">
+        <v>0.87</v>
+      </c>
+      <c r="E13">
+        <v>0.76</v>
+      </c>
+      <c r="F13">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="1">
         <v>0.64</v>
       </c>
-      <c r="D12" s="11">
+      <c r="C14" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="D14" s="1">
         <v>0.91</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E14" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="E15" s="11">
         <v>0.87</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F15" s="11">
         <v>0.89</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
         <v>48</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D20" t="s">
         <v>49</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
         <v>27</v>
       </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>100</v>
       </c>
-      <c r="B19">
+      <c r="B22">
         <v>2.62</v>
       </c>
-      <c r="C19">
+      <c r="C22" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="D22">
         <v>0.37</v>
       </c>
-      <c r="D19">
+      <c r="E22">
         <v>0.99</v>
       </c>
-      <c r="E19">
+      <c r="F22">
         <v>0.37</v>
       </c>
-      <c r="F19">
+      <c r="G22">
         <v>0.99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>150</v>
       </c>
-      <c r="B20">
+      <c r="B23">
         <v>6.05</v>
       </c>
-      <c r="C20">
+      <c r="C23">
+        <v>3.69</v>
+      </c>
+      <c r="D23">
         <v>0.97</v>
       </c>
-      <c r="D20">
+      <c r="E23">
         <v>1.29</v>
       </c>
-      <c r="E20">
+      <c r="F23">
         <v>0.97</v>
       </c>
-      <c r="F20">
+      <c r="G23">
         <v>1.29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>200</v>
       </c>
-      <c r="B21">
+      <c r="B24">
         <v>11.53</v>
       </c>
-      <c r="C21">
+      <c r="C24" s="1">
+        <v>7.64</v>
+      </c>
+      <c r="D24">
         <v>1.17</v>
       </c>
-      <c r="D21">
+      <c r="E24">
         <v>1.39</v>
       </c>
-      <c r="E21">
+      <c r="F24">
         <v>1.17</v>
       </c>
-      <c r="F21">
+      <c r="G24">
         <v>1.39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>250</v>
       </c>
-      <c r="B22">
+      <c r="B25">
         <v>37.06</v>
       </c>
-      <c r="C22">
+      <c r="C25" s="1">
+        <v>10.51</v>
+      </c>
+      <c r="D25">
         <v>2.5</v>
       </c>
-      <c r="D22">
+      <c r="E25">
         <v>3.06</v>
       </c>
-      <c r="E22">
+      <c r="F25">
         <v>2.5</v>
       </c>
-      <c r="F22">
+      <c r="G25">
         <v>3.06</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>300</v>
       </c>
-      <c r="B23">
+      <c r="B26">
         <v>50.21</v>
       </c>
-      <c r="C23">
+      <c r="C26" s="1">
+        <v>14.44</v>
+      </c>
+      <c r="D26">
         <v>5.23</v>
       </c>
-      <c r="D23">
+      <c r="E26">
         <v>4.67</v>
       </c>
-      <c r="E23">
+      <c r="F26">
         <v>5.23</v>
       </c>
-      <c r="F23">
+      <c r="G26">
         <v>4.67</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>350</v>
       </c>
-      <c r="B24">
+      <c r="B27">
         <v>60.36</v>
       </c>
-      <c r="C24">
+      <c r="C27" s="1">
+        <v>16.48</v>
+      </c>
+      <c r="D27">
         <v>4.28</v>
       </c>
-      <c r="D24">
+      <c r="E27">
         <v>3.97</v>
       </c>
-      <c r="E24">
+      <c r="F27">
         <v>4.28</v>
       </c>
-      <c r="F24">
+      <c r="G27">
         <v>3.97</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>400</v>
       </c>
-      <c r="B25">
+      <c r="B28">
         <v>192.44</v>
       </c>
-      <c r="C25">
+      <c r="C28" s="1">
+        <v>25.95</v>
+      </c>
+      <c r="D28">
         <v>6.65</v>
       </c>
-      <c r="D25">
+      <c r="E28">
         <v>6.68</v>
       </c>
-      <c r="E25">
+      <c r="F28">
         <v>6.65</v>
       </c>
-      <c r="F25">
+      <c r="G28">
         <v>6.68</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>450</v>
       </c>
-      <c r="B26">
+      <c r="B29">
         <v>73.25</v>
       </c>
-      <c r="C26">
+      <c r="C29" s="1">
+        <v>30.9</v>
+      </c>
+      <c r="D29">
         <v>8.36</v>
       </c>
-      <c r="D26">
+      <c r="E29">
         <v>8.5</v>
       </c>
-      <c r="E26">
+      <c r="F29">
         <v>8.36</v>
       </c>
-      <c r="F26">
+      <c r="G29">
         <v>8.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>500</v>
       </c>
-      <c r="B27">
+      <c r="B30">
         <v>290.79000000000002</v>
       </c>
-      <c r="C27">
+      <c r="C30" s="1">
+        <v>45.47</v>
+      </c>
+      <c r="D30">
         <v>9.6300000000000008</v>
       </c>
-      <c r="D27">
+      <c r="E30">
         <v>5.53</v>
       </c>
-      <c r="E27">
+      <c r="F30">
         <v>9.6300000000000008</v>
       </c>
-      <c r="F27">
+      <c r="G30">
         <v>5.53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>550</v>
       </c>
-      <c r="B28">
+      <c r="B31">
         <v>254.27</v>
       </c>
-      <c r="C28">
+      <c r="C31" s="1">
+        <v>49.76</v>
+      </c>
+      <c r="D31">
         <v>16.04</v>
       </c>
-      <c r="D28">
+      <c r="E31">
         <v>12.34</v>
       </c>
-      <c r="E28">
+      <c r="F31">
         <v>16.04</v>
       </c>
-      <c r="F28">
+      <c r="G31">
         <v>12.34</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>600</v>
       </c>
-      <c r="B29">
+      <c r="B32">
         <v>307.74</v>
       </c>
-      <c r="C29">
+      <c r="C32" s="1">
+        <v>67.77</v>
+      </c>
+      <c r="D32">
         <v>10.19</v>
       </c>
-      <c r="D29">
+      <c r="E32">
         <v>6.58</v>
       </c>
-      <c r="E29">
+      <c r="F32">
         <v>10.19</v>
       </c>
-      <c r="F29">
+      <c r="G32">
         <v>6.58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>650</v>
       </c>
-      <c r="B30">
+      <c r="B33">
         <v>383.64</v>
       </c>
-      <c r="C30">
+      <c r="C33" s="1">
+        <v>61.18</v>
+      </c>
+      <c r="D33">
         <v>21.39</v>
       </c>
-      <c r="D30">
+      <c r="E33">
         <v>16.53</v>
       </c>
-      <c r="E30">
+      <c r="F33">
         <v>21.39</v>
       </c>
-      <c r="F30">
+      <c r="G33">
         <v>16.53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>700</v>
       </c>
-      <c r="B31">
+      <c r="B34">
         <v>606.59</v>
       </c>
-      <c r="C31">
+      <c r="C34" s="1">
+        <v>89.25</v>
+      </c>
+      <c r="D34">
         <v>13.52</v>
       </c>
-      <c r="D31">
+      <c r="E34">
         <v>8.75</v>
       </c>
-      <c r="E31">
+      <c r="F34">
         <v>13.52</v>
       </c>
-      <c r="F31">
+      <c r="G34">
         <v>8.75</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>750</v>
       </c>
-      <c r="B32">
+      <c r="B35">
         <v>624.97</v>
       </c>
-      <c r="C32">
+      <c r="C35" s="1">
+        <v>100.85</v>
+      </c>
+      <c r="D35">
         <v>24.56</v>
       </c>
-      <c r="D32">
+      <c r="E35">
         <v>16.68</v>
       </c>
-      <c r="E32">
+      <c r="F35">
         <v>24.56</v>
       </c>
-      <c r="F32">
+      <c r="G35">
         <v>16.68</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>800</v>
       </c>
-      <c r="B33">
+      <c r="B36">
         <v>385.29</v>
       </c>
-      <c r="C33">
+      <c r="C36" s="1">
+        <v>109.54</v>
+      </c>
+      <c r="D36">
         <v>26.63</v>
       </c>
-      <c r="D33">
+      <c r="E36">
         <v>17.399999999999999</v>
       </c>
-      <c r="E33">
+      <c r="F36">
         <v>26.63</v>
       </c>
-      <c r="F33">
+      <c r="G36">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>850</v>
       </c>
-      <c r="B34">
+      <c r="B37">
         <v>522.88</v>
       </c>
-      <c r="C34">
+      <c r="C37" s="1">
+        <v>124.4</v>
+      </c>
+      <c r="D37">
         <v>17.05</v>
       </c>
-      <c r="D34">
+      <c r="E37">
         <v>9.5500000000000007</v>
       </c>
-      <c r="E34">
+      <c r="F37">
         <v>17.05</v>
       </c>
-      <c r="F34">
+      <c r="G37">
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>900</v>
       </c>
-      <c r="B35">
+      <c r="B38">
         <v>407.62</v>
       </c>
-      <c r="C35">
+      <c r="C38" s="1">
+        <v>130.61000000000001</v>
+      </c>
+      <c r="D38">
         <v>20.37</v>
       </c>
-      <c r="D35">
+      <c r="E38">
         <v>11.78</v>
       </c>
-      <c r="E35">
+      <c r="F38">
         <v>20.37</v>
       </c>
-      <c r="F35">
+      <c r="G38">
         <v>11.78</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>950</v>
       </c>
-      <c r="B36">
+      <c r="B39">
         <v>528.19000000000005</v>
       </c>
-      <c r="C36">
+      <c r="C39">
+        <v>145.18</v>
+      </c>
+      <c r="D39">
         <v>22.64</v>
       </c>
-      <c r="D36">
+      <c r="E39">
         <v>13.71</v>
       </c>
-      <c r="E36">
+      <c r="F39">
         <v>22.64</v>
       </c>
-      <c r="F36">
+      <c r="G39">
         <v>13.71</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>1000</v>
       </c>
-      <c r="B37">
+      <c r="B40">
         <v>559.4</v>
       </c>
-      <c r="C37">
+      <c r="C40" s="1">
+        <v>170.13</v>
+      </c>
+      <c r="D40">
         <v>22.8</v>
       </c>
-      <c r="D37">
+      <c r="E40">
         <v>13.96</v>
       </c>
-      <c r="E37">
+      <c r="F40">
         <v>22.8</v>
       </c>
-      <c r="F37">
+      <c r="G40">
         <v>13.96</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -46487,7 +47645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F849"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -46512,22 +47670,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
       <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -60589,7 +61747,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -66247,7 +67405,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
@@ -69091,43 +70249,43 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">

--- a/log/clustering_log/AgglomerativeClustering/compare.xlsx
+++ b/log/clustering_log/AgglomerativeClustering/compare.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19500" windowHeight="12660" tabRatio="849" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="19500" windowHeight="12660" tabRatio="849" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="tf-idf(15)" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'tf-idf extraction (24)'!$A$1:$T$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'tf-idf extraction(15)'!$A$1:$S$73</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="76">
   <si>
     <t>cos</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,11 +328,27 @@
     <t>ARI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>AMI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -457,7 +473,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -603,28 +619,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.34</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B80B-4A30-BBAE-DE9D6227C158}"/>
             </c:ext>
@@ -690,28 +706,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.33</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.31</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.23</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B80B-4A30-BBAE-DE9D6227C158}"/>
             </c:ext>
@@ -777,28 +793,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.36</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.32</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.27</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B80B-4A30-BBAE-DE9D6227C158}"/>
             </c:ext>
@@ -864,28 +880,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B80B-4A30-BBAE-DE9D6227C158}"/>
             </c:ext>
@@ -1068,7 +1084,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-TW"/>
-                  <a:t>ARI+AMI</a:t>
+                  <a:t>AMI</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-TW" altLang="en-US"/>
               </a:p>
@@ -1217,7 +1233,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1269,7 +1285,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1386,7 +1401,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-51B5-48CE-980B-5E6C9E738390}"/>
             </c:ext>
@@ -1473,7 +1488,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-51B5-48CE-980B-5E6C9E738390}"/>
             </c:ext>
@@ -1560,7 +1575,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-51B5-48CE-980B-5E6C9E738390}"/>
             </c:ext>
@@ -1647,7 +1662,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-51B5-48CE-980B-5E6C9E738390}"/>
             </c:ext>
@@ -1764,7 +1779,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1839,7 +1853,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1907,7 +1920,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1959,7 +1972,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2076,7 +2088,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DBD7-4A06-A3EE-27D3CD8C678B}"/>
             </c:ext>
@@ -2163,7 +2175,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DBD7-4A06-A3EE-27D3CD8C678B}"/>
             </c:ext>
@@ -2250,7 +2262,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DBD7-4A06-A3EE-27D3CD8C678B}"/>
             </c:ext>
@@ -2337,7 +2349,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DBD7-4A06-A3EE-27D3CD8C678B}"/>
             </c:ext>
@@ -2456,7 +2468,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2531,7 +2542,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2599,7 +2609,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -2642,7 +2652,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2742,7 +2751,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E486-4E0B-AD41-F1C693DFB8E5}"/>
             </c:ext>
@@ -2811,7 +2820,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E486-4E0B-AD41-F1C693DFB8E5}"/>
             </c:ext>
@@ -2880,7 +2889,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E486-4E0B-AD41-F1C693DFB8E5}"/>
             </c:ext>
@@ -2949,7 +2958,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E486-4E0B-AD41-F1C693DFB8E5}"/>
             </c:ext>
@@ -3066,7 +3075,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3141,7 +3149,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3209,7 +3216,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -3252,7 +3259,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3354,7 +3360,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A960-4041-9EB3-1C86B4E5B645}"/>
             </c:ext>
@@ -3426,7 +3432,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A960-4041-9EB3-1C86B4E5B645}"/>
             </c:ext>
@@ -3498,7 +3504,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A960-4041-9EB3-1C86B4E5B645}"/>
             </c:ext>
@@ -3570,7 +3576,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A960-4041-9EB3-1C86B4E5B645}"/>
             </c:ext>
@@ -3686,7 +3692,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3761,7 +3766,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3829,7 +3833,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -3966,7 +3970,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-033E-4E4A-A749-F154BDDDD9FB}"/>
             </c:ext>
@@ -4029,7 +4033,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-033E-4E4A-A749-F154BDDDD9FB}"/>
             </c:ext>
@@ -4092,7 +4096,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-033E-4E4A-A749-F154BDDDD9FB}"/>
             </c:ext>
@@ -4155,7 +4159,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-033E-4E4A-A749-F154BDDDD9FB}"/>
             </c:ext>
@@ -4471,7 +4475,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -4608,7 +4612,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-84E4-4C2F-97C9-7E722B299BED}"/>
             </c:ext>
@@ -4671,7 +4675,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-84E4-4C2F-97C9-7E722B299BED}"/>
             </c:ext>
@@ -4734,7 +4738,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-84E4-4C2F-97C9-7E722B299BED}"/>
             </c:ext>
@@ -4797,7 +4801,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-84E4-4C2F-97C9-7E722B299BED}"/>
             </c:ext>
@@ -5113,7 +5117,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -5252,7 +5256,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-45AD-40A6-8B3F-FDA61E84FAF3}"/>
             </c:ext>
@@ -5318,7 +5322,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-45AD-40A6-8B3F-FDA61E84FAF3}"/>
             </c:ext>
@@ -5384,7 +5388,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-45AD-40A6-8B3F-FDA61E84FAF3}"/>
             </c:ext>
@@ -5450,7 +5454,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-45AD-40A6-8B3F-FDA61E84FAF3}"/>
             </c:ext>
@@ -5785,7 +5789,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -5824,7 +5828,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6017,7 +6020,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-10D7-48C3-898A-80783BAE447F}"/>
             </c:ext>
@@ -6179,7 +6182,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-10D7-48C3-898A-80783BAE447F}"/>
             </c:ext>
@@ -6359,7 +6362,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-10D7-48C3-898A-80783BAE447F}"/>
             </c:ext>
@@ -6524,7 +6527,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-10D7-48C3-898A-80783BAE447F}"/>
             </c:ext>
@@ -6689,7 +6692,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-10D7-48C3-898A-80783BAE447F}"/>
             </c:ext>
@@ -6854,7 +6857,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-42FC-4C93-A381-E1D16CCC3F99}"/>
             </c:ext>
@@ -6907,7 +6910,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7040,7 +7042,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7151,7 +7152,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7258,7 +7258,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7326,7 +7325,7 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -7484,7 +7483,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7547,7 +7546,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F8D5-4DBA-A505-2E379226EF65}"/>
             </c:ext>
@@ -7615,7 +7614,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7678,7 +7677,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F8D5-4DBA-A505-2E379226EF65}"/>
             </c:ext>
@@ -7746,7 +7745,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7809,7 +7808,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F8D5-4DBA-A505-2E379226EF65}"/>
             </c:ext>
@@ -7877,7 +7876,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7940,7 +7939,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F8D5-4DBA-A505-2E379226EF65}"/>
             </c:ext>
@@ -8199,7 +8198,7 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -8348,7 +8347,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -8397,7 +8396,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D9CF-49C0-AE38-1719BDB8C470}"/>
             </c:ext>
@@ -8465,7 +8464,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -8514,7 +8513,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D9CF-49C0-AE38-1719BDB8C470}"/>
             </c:ext>
@@ -8582,7 +8581,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -8631,7 +8630,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D9CF-49C0-AE38-1719BDB8C470}"/>
             </c:ext>
@@ -8699,7 +8698,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -8748,7 +8747,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D9CF-49C0-AE38-1719BDB8C470}"/>
             </c:ext>
@@ -9007,7 +9006,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -9021,6 +9020,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Feature </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t>Extraction </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" baseline="0"/>
+              <a:t>比較</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -9117,30 +9152,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.35</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-43F4-474E-BFAB-0F3C6AEF450B}"/>
+              <c16:uniqueId val="{00000000-1927-4427-B7A8-0E7837210B4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9204,30 +9239,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.32</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-43F4-474E-BFAB-0F3C6AEF450B}"/>
+              <c16:uniqueId val="{00000001-1927-4427-B7A8-0E7837210B4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9291,30 +9326,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-43F4-474E-BFAB-0F3C6AEF450B}"/>
+              <c16:uniqueId val="{00000002-1927-4427-B7A8-0E7837210B4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9378,30 +9413,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.35</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-43F4-474E-BFAB-0F3C6AEF450B}"/>
+              <c16:uniqueId val="{00000003-1927-4427-B7A8-0E7837210B4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9414,16 +9449,88 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-860657696"/>
-        <c:axId val="-860663136"/>
+        <c:axId val="-860660960"/>
+        <c:axId val="-860666400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-860657696"/>
+        <c:axId val="-860660960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>K</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>值</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>關鍵字數量</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9461,7 +9568,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-860663136"/>
+        <c:crossAx val="-860666400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9469,7 +9576,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-860663136"/>
+        <c:axId val="-860666400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9489,6 +9596,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>ARI</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9520,7 +9684,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-860657696"/>
+        <c:crossAx val="-860660960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9602,7 +9766,7 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -9653,7 +9817,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9752,9 +9915,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9816,7 +9978,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1E71-48AC-9C82-FB9ED8885BDE}"/>
             </c:ext>
@@ -9884,9 +10046,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9948,7 +10109,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1E71-48AC-9C82-FB9ED8885BDE}"/>
             </c:ext>
@@ -10016,9 +10177,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10080,7 +10240,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1E71-48AC-9C82-FB9ED8885BDE}"/>
             </c:ext>
@@ -10148,9 +10308,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10212,7 +10371,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1E71-48AC-9C82-FB9ED8885BDE}"/>
             </c:ext>
@@ -10330,7 +10489,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10405,7 +10563,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10473,7 +10630,7 @@
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -14196,7 +14353,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DD4A-4AC8-937F-ED0CEE540662}"/>
             </c:ext>
@@ -14507,7 +14664,7 @@
 </file>
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -16876,7 +17033,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9C20-462C-B949-C85C0BE0CF38}"/>
             </c:ext>
@@ -17187,7 +17344,7 @@
 </file>
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -20312,7 +20469,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E790-40D1-A7FC-C43155E921F0}"/>
             </c:ext>
@@ -20623,7 +20780,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -20795,7 +20952,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -20901,7 +21058,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-5683-414D-9935-600573EB7805}"/>
             </c:ext>
@@ -20983,7 +21140,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -21089,7 +21246,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-5683-414D-9935-600573EB7805}"/>
             </c:ext>
@@ -21107,7 +21264,7 @@
         <c:smooth val="0"/>
         <c:axId val="-860666944"/>
         <c:axId val="-860660416"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -21115,7 +21272,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio(15)'!$B$1</c15:sqref>
@@ -21156,7 +21313,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio(15)'!$A$2:$A$12</c15:sqref>
@@ -21204,7 +21361,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio(15)'!$B$2:$B$12</c15:sqref>
@@ -21251,7 +21408,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-5683-414D-9935-600573EB7805}"/>
                   </c:ext>
@@ -21264,7 +21421,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio(15)'!$C$1</c15:sqref>
@@ -21305,7 +21462,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio(15)'!$A$2:$A$12</c15:sqref>
@@ -21353,7 +21510,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio(15)'!$C$2:$C$12</c15:sqref>
@@ -21400,7 +21557,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-5683-414D-9935-600573EB7805}"/>
                   </c:ext>
@@ -21413,7 +21570,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio(15)'!$D$1</c15:sqref>
@@ -21454,7 +21611,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio(15)'!$A$2:$A$12</c15:sqref>
@@ -21502,7 +21659,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio(15)'!$D$2:$D$12</c15:sqref>
@@ -21549,7 +21706,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-5683-414D-9935-600573EB7805}"/>
                   </c:ext>
@@ -21587,7 +21744,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>標題特徵比例</a:t>
+                  <a:t>標題向量比例</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -21857,7 +22014,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -22029,7 +22186,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -22135,7 +22292,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5404-4ACB-9122-512F83DBC1AD}"/>
             </c:ext>
@@ -22217,7 +22374,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -22323,7 +22480,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5404-4ACB-9122-512F83DBC1AD}"/>
             </c:ext>
@@ -22341,7 +22498,7 @@
         <c:smooth val="0"/>
         <c:axId val="-860662592"/>
         <c:axId val="-860657152"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -22349,7 +22506,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$B$1</c15:sqref>
@@ -22390,7 +22547,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$A$2:$A$12</c15:sqref>
@@ -22438,7 +22595,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$B$2:$B$12</c15:sqref>
@@ -22485,7 +22642,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-5404-4ACB-9122-512F83DBC1AD}"/>
                   </c:ext>
@@ -22498,7 +22655,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$C$1</c15:sqref>
@@ -22539,7 +22696,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$A$2:$A$12</c15:sqref>
@@ -22587,7 +22744,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$C$2:$C$12</c15:sqref>
@@ -22634,7 +22791,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-5404-4ACB-9122-512F83DBC1AD}"/>
                   </c:ext>
@@ -22647,7 +22804,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$D$1</c15:sqref>
@@ -22688,7 +22845,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$A$2:$A$12</c15:sqref>
@@ -22736,7 +22893,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$D$2:$D$12</c15:sqref>
@@ -22783,7 +22940,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-5404-4ACB-9122-512F83DBC1AD}"/>
                   </c:ext>
@@ -22796,7 +22953,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$G$1</c15:sqref>
@@ -22837,7 +22994,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$A$2:$A$12</c15:sqref>
@@ -22885,7 +23042,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$G$2:$G$12</c15:sqref>
@@ -22932,7 +23089,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-5404-4ACB-9122-512F83DBC1AD}"/>
                   </c:ext>
@@ -22945,7 +23102,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$H$1</c15:sqref>
@@ -22992,7 +23149,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$A$2:$A$12</c15:sqref>
@@ -23040,7 +23197,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$H$2:$H$12</c15:sqref>
@@ -23087,7 +23244,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-5404-4ACB-9122-512F83DBC1AD}"/>
                   </c:ext>
@@ -23125,7 +23282,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>標題特徵比例</a:t>
+                  <a:t>標題向量比例</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -23395,7 +23552,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -23455,6 +23612,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23566,8 +23724,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -23671,7 +23830,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-171A-4ACC-B85C-CA5F7B19D21C}"/>
             </c:ext>
@@ -23753,8 +23912,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -23858,7 +24018,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-171A-4ACC-B85C-CA5F7B19D21C}"/>
             </c:ext>
@@ -23876,7 +24036,7 @@
         <c:smooth val="0"/>
         <c:axId val="-860670208"/>
         <c:axId val="-860656608"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -23884,7 +24044,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$B$1</c15:sqref>
@@ -23925,7 +24085,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$A$2:$A$12</c15:sqref>
@@ -23973,7 +24133,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$B$2:$B$12</c15:sqref>
@@ -24020,7 +24180,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-171A-4ACC-B85C-CA5F7B19D21C}"/>
                   </c:ext>
@@ -24033,7 +24193,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$C$1</c15:sqref>
@@ -24074,7 +24234,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$A$2:$A$12</c15:sqref>
@@ -24122,7 +24282,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$C$2:$C$12</c15:sqref>
@@ -24169,7 +24329,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-171A-4ACC-B85C-CA5F7B19D21C}"/>
                   </c:ext>
@@ -24182,7 +24342,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$D$1</c15:sqref>
@@ -24223,7 +24383,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$A$2:$A$12</c15:sqref>
@@ -24271,7 +24431,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$D$2:$D$12</c15:sqref>
@@ -24318,7 +24478,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-171A-4ACC-B85C-CA5F7B19D21C}"/>
                   </c:ext>
@@ -24331,7 +24491,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$G$1</c15:sqref>
@@ -24372,7 +24532,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$A$2:$A$12</c15:sqref>
@@ -24420,7 +24580,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$G$2:$G$12</c15:sqref>
@@ -24467,7 +24627,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-171A-4ACC-B85C-CA5F7B19D21C}"/>
                   </c:ext>
@@ -24480,7 +24640,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$H$1</c15:sqref>
@@ -24527,7 +24687,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$A$2:$A$12</c15:sqref>
@@ -24575,7 +24735,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$H$2:$H$12</c15:sqref>
@@ -24622,7 +24782,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-171A-4ACC-B85C-CA5F7B19D21C}"/>
                   </c:ext>
@@ -24660,11 +24820,12 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>標題特徵比例</a:t>
+                  <a:t>標題向量比例</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -24786,6 +24947,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -24860,6 +25022,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -24927,7 +25090,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -24979,7 +25142,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -25093,7 +25255,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A7D9-4419-8954-09F4E7286BF8}"/>
             </c:ext>
@@ -25177,7 +25339,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A7D9-4419-8954-09F4E7286BF8}"/>
             </c:ext>
@@ -25261,7 +25423,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A7D9-4419-8954-09F4E7286BF8}"/>
             </c:ext>
@@ -25345,7 +25507,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A7D9-4419-8954-09F4E7286BF8}"/>
             </c:ext>
@@ -25396,7 +25558,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -25518,7 +25679,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -25593,7 +25753,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -25661,7 +25820,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -25713,7 +25872,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -25827,7 +25985,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3588-44D6-B9B0-E7015F1749EF}"/>
             </c:ext>
@@ -25911,7 +26069,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3588-44D6-B9B0-E7015F1749EF}"/>
             </c:ext>
@@ -25995,7 +26153,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3588-44D6-B9B0-E7015F1749EF}"/>
             </c:ext>
@@ -26079,7 +26237,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3588-44D6-B9B0-E7015F1749EF}"/>
             </c:ext>
@@ -26130,7 +26288,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -26252,7 +26409,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -26327,7 +26483,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -26395,7 +26550,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -26447,7 +26602,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -26561,7 +26715,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4B6D-456B-BC70-798E50E7C408}"/>
             </c:ext>
@@ -26645,7 +26799,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4B6D-456B-BC70-798E50E7C408}"/>
             </c:ext>
@@ -26729,7 +26883,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4B6D-456B-BC70-798E50E7C408}"/>
             </c:ext>
@@ -26813,7 +26967,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4B6D-456B-BC70-798E50E7C408}"/>
             </c:ext>
@@ -26864,7 +27018,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -26986,7 +27139,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -27061,7 +27213,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -27129,7 +27280,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -27181,7 +27332,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -27295,7 +27445,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4861-4168-943A-10F87388C871}"/>
             </c:ext>
@@ -27379,7 +27529,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4861-4168-943A-10F87388C871}"/>
             </c:ext>
@@ -27463,7 +27613,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4861-4168-943A-10F87388C871}"/>
             </c:ext>
@@ -27547,7 +27697,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4861-4168-943A-10F87388C871}"/>
             </c:ext>
@@ -27598,7 +27748,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -27720,7 +27869,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -27795,7 +27943,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -40595,7 +40742,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="5" name="圖表 4"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -43002,7 +43149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
@@ -64647,7 +64794,7 @@
   <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F73"/>
+      <selection activeCell="F7" sqref="F7:G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -64840,7 +64987,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -64918,7 +65065,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -64957,7 +65104,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -65152,7 +65299,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -65230,7 +65377,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -65269,7 +65416,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -65464,7 +65611,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
@@ -65548,7 +65695,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>15</v>
       </c>
@@ -65587,7 +65734,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>15</v>
       </c>
@@ -65782,7 +65929,7 @@
         <v>0.47000000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20</v>
       </c>
@@ -65860,7 +66007,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20</v>
       </c>
@@ -65899,7 +66046,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20</v>
       </c>
@@ -66394,7 +66541,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -66466,7 +66613,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -66502,7 +66649,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
@@ -66682,7 +66829,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10</v>
       </c>
@@ -66754,7 +66901,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10</v>
       </c>
@@ -66790,7 +66937,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10</v>
       </c>
@@ -66970,7 +67117,7 @@
         <v>0.42000000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>15</v>
       </c>
@@ -67042,7 +67189,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>15</v>
       </c>
@@ -67078,7 +67225,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>15</v>
       </c>
@@ -67258,7 +67405,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>20</v>
       </c>
@@ -67330,7 +67477,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>20</v>
       </c>
@@ -67366,7 +67513,7 @@
         <v>0.29000000000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>20</v>
       </c>
@@ -67417,6 +67564,11 @@
         <filter val="dot"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="centroid"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -67430,7 +67582,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F71" sqref="F11:G71"/>
+      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -67587,7 +67739,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -67821,7 +67973,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -68055,7 +68207,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -68289,7 +68441,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10</v>
       </c>
@@ -68529,7 +68681,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>15</v>
       </c>
@@ -68763,7 +68915,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>15</v>
       </c>
@@ -68997,7 +69149,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>20</v>
       </c>
@@ -69231,7 +69383,7 @@
         <v>0.67999999999999994</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>20</v>
       </c>
@@ -69465,7 +69617,7 @@
         <v>0.59000000000000008</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>25</v>
       </c>
@@ -69699,7 +69851,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>25</v>
       </c>
@@ -69933,7 +70085,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>30</v>
       </c>
@@ -70167,7 +70319,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>30</v>
       </c>
@@ -70288,7 +70440,7 @@
   <autoFilter ref="A1:T73">
     <filterColumn colId="1">
       <filters>
-        <filter val="yes"/>
+        <filter val="no"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
@@ -70310,15 +70462,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -70349,150 +70501,205 @@
       <c r="N1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2">
+        <v>0.3</v>
+      </c>
+      <c r="C2">
+        <v>0.31</v>
+      </c>
+      <c r="D2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E2">
+        <v>0.32</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="K2">
+        <v>0.22</v>
+      </c>
+      <c r="L2">
+        <v>0.23</v>
+      </c>
+      <c r="M2">
+        <v>0.23</v>
+      </c>
+      <c r="N2">
+        <v>0.25</v>
+      </c>
+      <c r="R2" s="10">
+        <v>5</v>
+      </c>
+      <c r="S2" s="1">
         <v>0.34</v>
       </c>
-      <c r="C2" s="10">
+      <c r="T2" s="10">
         <v>0.33</v>
       </c>
-      <c r="D2" s="10">
-        <v>0.36</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.42</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="K2" s="10">
+      <c r="U2" s="10"/>
+      <c r="X2" s="1">
         <v>0.35</v>
       </c>
-      <c r="L2" s="10">
+      <c r="Y2" s="10">
         <v>0.32</v>
       </c>
-      <c r="M2" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="N2" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-    </row>
-    <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:28" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C3">
+        <v>0.32</v>
+      </c>
+      <c r="D3">
+        <v>0.3</v>
+      </c>
+      <c r="E3">
+        <v>0.36</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="K3">
+        <v>0.24</v>
+      </c>
+      <c r="L3">
+        <v>0.26</v>
+      </c>
+      <c r="M3">
         <v>0.25</v>
       </c>
-      <c r="C3" s="10">
+      <c r="N3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R3" s="10">
+        <v>10</v>
+      </c>
+      <c r="S3" s="10">
         <v>0.31</v>
       </c>
-      <c r="D3" s="10">
-        <v>0.32</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="T3">
+        <v>0.35</v>
+      </c>
+      <c r="U3" s="10"/>
+      <c r="X3">
+        <v>0.31</v>
+      </c>
+      <c r="Y3">
         <v>0.38</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="K3" s="10">
-        <v>0.31</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="M3" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="N3" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-    </row>
-    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:28" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
       <c r="B4">
+        <v>0.26</v>
+      </c>
+      <c r="C4">
+        <v>0.31</v>
+      </c>
+      <c r="D4">
         <v>0.32</v>
       </c>
-      <c r="C4" s="10">
-        <v>0.23</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.27</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.37</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.39</v>
-      </c>
+      <c r="E4">
+        <v>0.38</v>
+      </c>
+      <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="K4">
-        <v>0.2</v>
-      </c>
-      <c r="L4" s="10">
+        <v>0.21</v>
+      </c>
+      <c r="L4">
+        <v>0.24</v>
+      </c>
+      <c r="M4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R4">
+        <v>15</v>
+      </c>
+      <c r="S4" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="T4" s="10">
+        <v>0.36</v>
+      </c>
+      <c r="U4" s="10"/>
+      <c r="X4">
+        <v>0.39</v>
+      </c>
+      <c r="Y4">
         <v>0.4</v>
       </c>
-      <c r="M4" s="10">
-        <v>0.37</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C5">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="D5">
+        <v>0.31</v>
+      </c>
+      <c r="E5">
+        <v>0.34</v>
+      </c>
+      <c r="K5">
+        <v>0.2</v>
+      </c>
+      <c r="L5">
+        <v>0.26</v>
+      </c>
+      <c r="M5">
+        <v>0.24</v>
+      </c>
+      <c r="N5">
         <v>0.3</v>
       </c>
-      <c r="E5">
-        <v>0.4</v>
-      </c>
-      <c r="F5">
-        <v>0.44</v>
-      </c>
-      <c r="K5">
+      <c r="R5">
+        <v>20</v>
+      </c>
+      <c r="S5">
+        <v>0.26</v>
+      </c>
+      <c r="T5">
         <v>0.33</v>
       </c>
-      <c r="L5">
-        <v>0.32</v>
-      </c>
-      <c r="M5">
-        <v>0.4</v>
-      </c>
-      <c r="N5">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X5">
+        <v>0.26</v>
+      </c>
+      <c r="Y5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>25</v>
       </c>
@@ -70500,59 +70707,500 @@
         <v>0.25</v>
       </c>
       <c r="C6">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D6">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="E6">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F6">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="K6">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="L6">
-        <v>0.39</v>
+        <v>0.22</v>
       </c>
       <c r="M6">
         <v>0.28000000000000003</v>
       </c>
       <c r="N6">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.27</v>
+      </c>
+      <c r="R6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>30</v>
       </c>
       <c r="B7">
+        <v>0.26</v>
+      </c>
+      <c r="C7">
+        <v>0.27</v>
+      </c>
+      <c r="D7">
+        <v>0.24</v>
+      </c>
+      <c r="E7">
+        <v>0.34</v>
+      </c>
+      <c r="K7">
+        <v>0.19</v>
+      </c>
+      <c r="L7">
+        <v>0.2</v>
+      </c>
+      <c r="M7">
+        <v>0.21</v>
+      </c>
+      <c r="N7">
+        <v>0.27</v>
+      </c>
+      <c r="R7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T10" t="s">
+        <v>74</v>
+      </c>
+      <c r="V10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U11" t="s">
+        <v>73</v>
+      </c>
+      <c r="V11" t="s">
+        <v>72</v>
+      </c>
+      <c r="W11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>0.3</v>
+      </c>
+      <c r="U12">
+        <v>0.22</v>
+      </c>
+      <c r="V12">
+        <v>0.31</v>
+      </c>
+      <c r="W12">
         <v>0.23</v>
       </c>
-      <c r="C7">
+      <c r="Y12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Z12">
+        <v>0.23</v>
+      </c>
+      <c r="AA12">
+        <v>0.32</v>
+      </c>
+      <c r="AB12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="U13">
+        <v>0.24</v>
+      </c>
+      <c r="V13">
+        <v>0.32</v>
+      </c>
+      <c r="W13">
+        <v>0.26</v>
+      </c>
+      <c r="Y13">
+        <v>0.3</v>
+      </c>
+      <c r="Z13">
+        <v>0.25</v>
+      </c>
+      <c r="AA13">
+        <v>0.36</v>
+      </c>
+      <c r="AB13">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>15</v>
+      </c>
+      <c r="T14">
+        <v>0.26</v>
+      </c>
+      <c r="U14">
+        <v>0.21</v>
+      </c>
+      <c r="V14">
         <v>0.31</v>
       </c>
-      <c r="D7">
+      <c r="W14">
+        <v>0.24</v>
+      </c>
+      <c r="Y14">
+        <v>0.32</v>
+      </c>
+      <c r="Z14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AA14">
+        <v>0.38</v>
+      </c>
+      <c r="AB14">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>20</v>
+      </c>
+      <c r="T15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="U15">
+        <v>0.2</v>
+      </c>
+      <c r="V15">
+        <v>0.36</v>
+      </c>
+      <c r="W15">
+        <v>0.26</v>
+      </c>
+      <c r="Y15">
+        <v>0.31</v>
+      </c>
+      <c r="Z15">
+        <v>0.24</v>
+      </c>
+      <c r="AA15">
+        <v>0.34</v>
+      </c>
+      <c r="AB15">
         <v>0.3</v>
       </c>
-      <c r="E7">
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <v>25</v>
+      </c>
+      <c r="T16">
+        <v>0.25</v>
+      </c>
+      <c r="U16">
+        <v>0.2</v>
+      </c>
+      <c r="V16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="W16">
+        <v>0.22</v>
+      </c>
+      <c r="Y16">
+        <v>0.31</v>
+      </c>
+      <c r="Z16">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F7">
+      <c r="AA16">
+        <v>0.38</v>
+      </c>
+      <c r="AB16">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>30</v>
+      </c>
+      <c r="T17">
+        <v>0.26</v>
+      </c>
+      <c r="U17">
+        <v>0.19</v>
+      </c>
+      <c r="V17">
+        <v>0.27</v>
+      </c>
+      <c r="W17">
+        <v>0.2</v>
+      </c>
+      <c r="Y17">
+        <v>0.24</v>
+      </c>
+      <c r="Z17">
+        <v>0.21</v>
+      </c>
+      <c r="AA17">
+        <v>0.34</v>
+      </c>
+      <c r="AB17">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" t="s">
+        <v>43</v>
+      </c>
+      <c r="O27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.34</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="E28" s="10">
         <v>0.36</v>
       </c>
-      <c r="K7">
+      <c r="F28" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="L28" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="M28" s="10">
         <v>0.32</v>
       </c>
-      <c r="L7">
+      <c r="N28" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="O28" s="10">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.32</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="L29" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="M29" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="N29" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>0.32</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.23</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.27</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0.39</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="L30">
+        <v>0.2</v>
+      </c>
+      <c r="M30" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="N30" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="O30" s="10">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D31">
+        <v>0.23</v>
+      </c>
+      <c r="E31">
+        <v>0.3</v>
+      </c>
+      <c r="F31">
+        <v>0.4</v>
+      </c>
+      <c r="G31">
+        <v>0.44</v>
+      </c>
+      <c r="L31">
+        <v>0.33</v>
+      </c>
+      <c r="M31">
+        <v>0.32</v>
+      </c>
+      <c r="N31">
+        <v>0.4</v>
+      </c>
+      <c r="O31">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>0.25</v>
+      </c>
+      <c r="D32">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E32">
+        <v>0.37</v>
+      </c>
+      <c r="F32">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G32">
+        <v>0.36</v>
+      </c>
+      <c r="L32">
+        <v>0.18</v>
+      </c>
+      <c r="M32">
+        <v>0.39</v>
+      </c>
+      <c r="N32">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O32">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>0.23</v>
+      </c>
+      <c r="D33">
+        <v>0.31</v>
+      </c>
+      <c r="E33">
+        <v>0.3</v>
+      </c>
+      <c r="F33">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G33">
+        <v>0.36</v>
+      </c>
+      <c r="L33">
+        <v>0.32</v>
+      </c>
+      <c r="M33">
         <v>0.22</v>
       </c>
-      <c r="M7">
+      <c r="N33">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N7">
+      <c r="O33">
         <v>0.54</v>
       </c>
     </row>

--- a/log/clustering_log/AgglomerativeClustering/compare.xlsx
+++ b/log/clustering_log/AgglomerativeClustering/compare.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19500" windowHeight="12660" tabRatio="849" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="19500" windowHeight="12660" tabRatio="849" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="tf-idf(15)" sheetId="2" r:id="rId1"/>
@@ -348,7 +348,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -473,7 +473,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -640,7 +640,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B80B-4A30-BBAE-DE9D6227C158}"/>
             </c:ext>
@@ -727,7 +727,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B80B-4A30-BBAE-DE9D6227C158}"/>
             </c:ext>
@@ -814,7 +814,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B80B-4A30-BBAE-DE9D6227C158}"/>
             </c:ext>
@@ -901,7 +901,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B80B-4A30-BBAE-DE9D6227C158}"/>
             </c:ext>
@@ -916,11 +916,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-860660960"/>
-        <c:axId val="-860666400"/>
+        <c:axId val="1510849712"/>
+        <c:axId val="1510853520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-860660960"/>
+        <c:axId val="1510849712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1035,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-860666400"/>
+        <c:crossAx val="1510853520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1043,7 +1043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-860666400"/>
+        <c:axId val="1510853520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1151,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-860660960"/>
+        <c:crossAx val="1510849712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1233,7 +1233,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1401,7 +1401,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-51B5-48CE-980B-5E6C9E738390}"/>
             </c:ext>
@@ -1488,7 +1488,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-51B5-48CE-980B-5E6C9E738390}"/>
             </c:ext>
@@ -1575,7 +1575,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-51B5-48CE-980B-5E6C9E738390}"/>
             </c:ext>
@@ -1662,7 +1662,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-51B5-48CE-980B-5E6C9E738390}"/>
             </c:ext>
@@ -1677,11 +1677,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-857853328"/>
-        <c:axId val="-857857136"/>
+        <c:axId val="1729592368"/>
+        <c:axId val="1729580400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-857853328"/>
+        <c:axId val="1729592368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1724,7 +1724,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857857136"/>
+        <c:crossAx val="1729580400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1732,7 +1732,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857857136"/>
+        <c:axId val="1729580400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1839,7 +1839,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857853328"/>
+        <c:crossAx val="1729592368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1920,7 +1920,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -2088,7 +2088,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DBD7-4A06-A3EE-27D3CD8C678B}"/>
             </c:ext>
@@ -2175,7 +2175,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DBD7-4A06-A3EE-27D3CD8C678B}"/>
             </c:ext>
@@ -2262,7 +2262,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DBD7-4A06-A3EE-27D3CD8C678B}"/>
             </c:ext>
@@ -2349,7 +2349,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DBD7-4A06-A3EE-27D3CD8C678B}"/>
             </c:ext>
@@ -2364,11 +2364,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-857852784"/>
-        <c:axId val="-857865296"/>
+        <c:axId val="1729584752"/>
+        <c:axId val="1729588016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-857852784"/>
+        <c:axId val="1729584752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2411,7 +2411,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857865296"/>
+        <c:crossAx val="1729588016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2419,7 +2419,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857865296"/>
+        <c:axId val="1729588016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1000000000000001"/>
@@ -2528,7 +2528,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857852784"/>
+        <c:crossAx val="1729584752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2609,7 +2609,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -2652,6 +2652,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2751,7 +2752,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E486-4E0B-AD41-F1C693DFB8E5}"/>
             </c:ext>
@@ -2820,7 +2821,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E486-4E0B-AD41-F1C693DFB8E5}"/>
             </c:ext>
@@ -2889,7 +2890,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E486-4E0B-AD41-F1C693DFB8E5}"/>
             </c:ext>
@@ -2958,7 +2959,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E486-4E0B-AD41-F1C693DFB8E5}"/>
             </c:ext>
@@ -2973,11 +2974,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-857851152"/>
-        <c:axId val="-857859856"/>
+        <c:axId val="1729589104"/>
+        <c:axId val="1729590192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-857851152"/>
+        <c:axId val="1729589104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3020,7 +3021,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857859856"/>
+        <c:crossAx val="1729590192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3028,7 +3029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857859856"/>
+        <c:axId val="1729590192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3075,6 +3076,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3135,7 +3137,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857851152"/>
+        <c:crossAx val="1729589104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3149,6 +3151,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3216,7 +3219,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -3259,6 +3262,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3360,7 +3364,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A960-4041-9EB3-1C86B4E5B645}"/>
             </c:ext>
@@ -3432,7 +3436,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A960-4041-9EB3-1C86B4E5B645}"/>
             </c:ext>
@@ -3504,7 +3508,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A960-4041-9EB3-1C86B4E5B645}"/>
             </c:ext>
@@ -3576,7 +3580,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A960-4041-9EB3-1C86B4E5B645}"/>
             </c:ext>
@@ -3591,11 +3595,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-857861488"/>
-        <c:axId val="-857860400"/>
+        <c:axId val="1729586384"/>
+        <c:axId val="1729593456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-857861488"/>
+        <c:axId val="1729586384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3638,7 +3642,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857860400"/>
+        <c:crossAx val="1729593456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3646,7 +3650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857860400"/>
+        <c:axId val="1729593456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3692,6 +3696,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3752,7 +3757,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857861488"/>
+        <c:crossAx val="1729586384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3766,6 +3771,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3833,7 +3839,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -3970,7 +3976,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-033E-4E4A-A749-F154BDDDD9FB}"/>
             </c:ext>
@@ -4033,7 +4039,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-033E-4E4A-A749-F154BDDDD9FB}"/>
             </c:ext>
@@ -4096,7 +4102,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-033E-4E4A-A749-F154BDDDD9FB}"/>
             </c:ext>
@@ -4159,7 +4165,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-033E-4E4A-A749-F154BDDDD9FB}"/>
             </c:ext>
@@ -4174,11 +4180,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-857863120"/>
-        <c:axId val="-764174128"/>
+        <c:axId val="1729580944"/>
+        <c:axId val="1729536640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-857863120"/>
+        <c:axId val="1729580944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4277,7 +4283,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-764174128"/>
+        <c:crossAx val="1729536640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4285,7 +4291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-764174128"/>
+        <c:axId val="1729536640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4393,7 +4399,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857863120"/>
+        <c:crossAx val="1729580944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4475,7 +4481,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -4612,7 +4618,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-84E4-4C2F-97C9-7E722B299BED}"/>
             </c:ext>
@@ -4675,7 +4681,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-84E4-4C2F-97C9-7E722B299BED}"/>
             </c:ext>
@@ -4738,7 +4744,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-84E4-4C2F-97C9-7E722B299BED}"/>
             </c:ext>
@@ -4801,7 +4807,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-84E4-4C2F-97C9-7E722B299BED}"/>
             </c:ext>
@@ -4816,11 +4822,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-764173040"/>
-        <c:axId val="-764171952"/>
+        <c:axId val="1729538816"/>
+        <c:axId val="1729551328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-764173040"/>
+        <c:axId val="1729538816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4919,7 +4925,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-764171952"/>
+        <c:crossAx val="1729551328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4927,7 +4933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-764171952"/>
+        <c:axId val="1729551328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5035,7 +5041,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-764173040"/>
+        <c:crossAx val="1729538816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5117,7 +5123,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -5256,7 +5262,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-45AD-40A6-8B3F-FDA61E84FAF3}"/>
             </c:ext>
@@ -5322,7 +5328,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-45AD-40A6-8B3F-FDA61E84FAF3}"/>
             </c:ext>
@@ -5388,7 +5394,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-45AD-40A6-8B3F-FDA61E84FAF3}"/>
             </c:ext>
@@ -5454,7 +5460,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-45AD-40A6-8B3F-FDA61E84FAF3}"/>
             </c:ext>
@@ -5469,11 +5475,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-764176304"/>
-        <c:axId val="-764181744"/>
+        <c:axId val="1729543168"/>
+        <c:axId val="1729546432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-764176304"/>
+        <c:axId val="1729543168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5579,7 +5585,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-764181744"/>
+        <c:crossAx val="1729546432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5587,7 +5593,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-764181744"/>
+        <c:axId val="1729546432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5707,7 +5713,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-764176304"/>
+        <c:crossAx val="1729543168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5789,7 +5795,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -5822,12 +5828,34 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-TW"/>
-              <a:t>分群花費時間比較</a:t>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>分群效果比較</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>資料集</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>B)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-TW"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5865,15 +5893,147 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$E$21</c:f>
+              <c:f>各比較!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>our method</c:v>
+                  <c:v>tf-idf內文</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$1:$F$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$2:$F$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F8D5-4DBA-A505-2E379226EF65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tf-idf標題</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5888,161 +6048,131 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>各比較!$A$22:$A$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$1:$F$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>各比較!$E$22:$E$40</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$3:$F$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$3:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.99</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.39</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.67</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.97</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.68</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.53</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.34</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.53</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.75</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.68</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.5500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.78</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.71</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13.96</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-10D7-48C3-898A-80783BAE447F}"/>
+              <c16:uniqueId val="{00000001-F8D5-4DBA-A505-2E379226EF65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$F$21</c:f>
+              <c:f>各比較!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tf-idf標題</c:v>
+                  <c:v>word2vec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6050,851 +6180,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>各比較!$A$22:$A$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>各比較!$F$22:$F$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.65</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.6300000000000008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.39</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.52</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24.56</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26.63</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17.05</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20.37</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.64</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-10D7-48C3-898A-80783BAE447F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-764174672"/>
-        <c:axId val="-764175216"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>各比較!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tf-idf內文</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>各比較!$A$22:$A$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>各比較!$B$22:$B$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.53</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60.36</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>192.44</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>73.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>290.79000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>254.27</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>307.74</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>383.64</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>606.59</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>624.97</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>385.29</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>522.88</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>407.62</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>528.19000000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>559.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-10D7-48C3-898A-80783BAE447F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>各比較!$C$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>word2vec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>各比較!$A$22:$A$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>各比較!$C$22:$C$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.62</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.69</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.51</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25.95</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45.47</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>49.76</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67.77</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>61.18</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>89.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100.85</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>109.54</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>124.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>130.61000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>145.18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>170.13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-10D7-48C3-898A-80783BAE447F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>各比較!$D$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tf-idf標題</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>各比較!$A$22:$A$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>各比較!$D$22:$D$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.65</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.6300000000000008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.39</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.52</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24.56</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26.63</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17.05</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20.37</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22.64</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>22.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-10D7-48C3-898A-80783BAE447F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>各比較!$G$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>our method</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>各比較!$A$22:$A$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>各比較!$G$22:$G$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.99</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.39</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.67</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.97</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.68</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.53</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.34</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16.53</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.75</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16.68</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.5500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.78</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.71</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13.96</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-42FC-4C93-A381-E1D16CCC3F99}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-764175760"/>
-        <c:axId val="-764177936"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-764175760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -6902,43 +6207,240 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW"/>
-                  <a:t>文章數量</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="zh-TW"/>
               </a:p>
-            </c:rich>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$1:$F$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$4:$F$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$4:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F8D5-4DBA-A505-2E379226EF65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>our method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
-          <c:overlay val="0"/>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$1:$F$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$5:$F$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$5:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F8D5-4DBA-A505-2E379226EF65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1729544256"/>
+        <c:axId val="1729544800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1729544256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6976,7 +6478,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-764177936"/>
+        <c:crossAx val="1729544800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6984,7 +6486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-764177936"/>
+        <c:axId val="1729544800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7024,24 +6526,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-TW"/>
-                  <a:t>花費時間</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-TW"/>
-                  <a:t>秒</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>)</a:t>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>分數</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7102,152 +6593,10 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-764175760"/>
+        <c:crossAx val="1729544256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="-764175216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-TW"/>
-                  <a:t>花費時間</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-TW"/>
-                  <a:t>秒</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>))</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-TW"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-764174672"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="-764174672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-764175216"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7258,6 +6607,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7325,7 +6675,7 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -7358,33 +6708,25 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
               <a:t>分群效果比較</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
               <a:t>(</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
               <a:t>資料集</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>B)</a:t>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>C)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-TW"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7426,7 +6768,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$2</c:f>
+              <c:f>各比較!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7483,8 +6825,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7505,14 +6848,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$1:$F$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$1:$C$1</c:f>
+              <c:f>各比較!$B$11:$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -7526,29 +6862,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$2:$F$2</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$2:$C$2</c:f>
+              <c:f>各比較!$B$12:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F8D5-4DBA-A505-2E379226EF65}"/>
+              <c16:uniqueId val="{00000000-D9CF-49C0-AE38-1719BDB8C470}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7557,7 +6886,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$3</c:f>
+              <c:f>各比較!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7614,8 +6943,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7636,14 +6966,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$1:$F$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$1:$C$1</c:f>
+              <c:f>各比較!$B$11:$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -7657,29 +6980,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$3:$F$3</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$3:$C$3</c:f>
+              <c:f>各比較!$B$13:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F8D5-4DBA-A505-2E379226EF65}"/>
+              <c16:uniqueId val="{00000001-D9CF-49C0-AE38-1719BDB8C470}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7688,7 +7004,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$4</c:f>
+              <c:f>各比較!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7745,8 +7061,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7767,14 +7084,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$1:$F$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$1:$C$1</c:f>
+              <c:f>各比較!$B$11:$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -7788,29 +7098,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$4:$F$4</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$4:$C$4</c:f>
+              <c:f>各比較!$B$14:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.71</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F8D5-4DBA-A505-2E379226EF65}"/>
+              <c16:uniqueId val="{00000002-D9CF-49C0-AE38-1719BDB8C470}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7819,7 +7122,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$5</c:f>
+              <c:f>各比較!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7876,8 +7179,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7898,14 +7202,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$1:$F$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$1:$C$1</c:f>
+              <c:f>各比較!$B$11:$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -7919,29 +7216,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$5:$F$5</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$5:$C$5</c:f>
+              <c:f>各比較!$B$15:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.69</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F8D5-4DBA-A505-2E379226EF65}"/>
+              <c16:uniqueId val="{00000003-D9CF-49C0-AE38-1719BDB8C470}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7956,11 +7246,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-764177392"/>
-        <c:axId val="-764172496"/>
+        <c:axId val="1729537184"/>
+        <c:axId val="1729545888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-764177392"/>
+        <c:axId val="1729537184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8003,7 +7293,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-764172496"/>
+        <c:crossAx val="1729545888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8011,7 +7301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-764172496"/>
+        <c:axId val="1729545888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8057,6 +7347,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8117,7 +7408,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-764177392"/>
+        <c:crossAx val="1729537184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8131,6 +7422,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8198,7 +7490,7 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -8244,11 +7536,12 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>C)</a:t>
+              <a:t>A)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8290,7 +7583,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$12</c:f>
+              <c:f>各比較!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8347,8 +7640,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8369,7 +7663,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>各比較!$B$11:$C$11</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$6:$F$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$6:$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -8383,22 +7684,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>各比較!$B$12:$C$12</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$7:$F$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$7:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.63</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D9CF-49C0-AE38-1719BDB8C470}"/>
+              <c16:uniqueId val="{00000000-1E71-48AC-9C82-FB9ED8885BDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8407,7 +7715,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$13</c:f>
+              <c:f>各比較!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8464,8 +7772,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8486,7 +7795,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>各比較!$B$11:$C$11</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$6:$F$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$6:$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -8500,22 +7816,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>各比較!$B$13:$C$13</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$8:$F$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$8:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.42</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D9CF-49C0-AE38-1719BDB8C470}"/>
+              <c16:uniqueId val="{00000001-1E71-48AC-9C82-FB9ED8885BDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8524,7 +7847,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$14</c:f>
+              <c:f>各比較!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8581,8 +7904,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8603,7 +7927,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>各比較!$B$11:$C$11</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$6:$F$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$6:$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -8617,22 +7948,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>各比較!$B$14:$C$14</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$9:$F$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$9:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.64</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D9CF-49C0-AE38-1719BDB8C470}"/>
+              <c16:uniqueId val="{00000002-1E71-48AC-9C82-FB9ED8885BDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8641,7 +7979,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$15</c:f>
+              <c:f>各比較!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8698,8 +8036,9 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8720,7 +8059,14 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>各比較!$B$11:$C$11</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$6:$F$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$6:$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -8734,22 +8080,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>各比較!$B$15:$C$15</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>各比較!$B$10:$F$10</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>各比較!$B$10:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.63</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D9CF-49C0-AE38-1719BDB8C470}"/>
+              <c16:uniqueId val="{00000003-1E71-48AC-9C82-FB9ED8885BDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8764,11 +8117,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-764180112"/>
-        <c:axId val="-764176848"/>
+        <c:axId val="1729550784"/>
+        <c:axId val="1729540448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-764180112"/>
+        <c:axId val="1729550784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8811,7 +8164,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-764176848"/>
+        <c:crossAx val="1729540448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8819,7 +8172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-764176848"/>
+        <c:axId val="1729540448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8865,6 +8218,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8925,7 +8279,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-764180112"/>
+        <c:crossAx val="1729550784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8939,6 +8293,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9006,7 +8361,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -9173,7 +8528,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1927-4427-B7A8-0E7837210B4E}"/>
             </c:ext>
@@ -9260,7 +8615,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1927-4427-B7A8-0E7837210B4E}"/>
             </c:ext>
@@ -9347,7 +8702,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1927-4427-B7A8-0E7837210B4E}"/>
             </c:ext>
@@ -9434,7 +8789,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1927-4427-B7A8-0E7837210B4E}"/>
             </c:ext>
@@ -9449,11 +8804,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-860660960"/>
-        <c:axId val="-860666400"/>
+        <c:axId val="1510857872"/>
+        <c:axId val="1510851888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-860660960"/>
+        <c:axId val="1510857872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9568,7 +8923,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-860666400"/>
+        <c:crossAx val="1510851888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9576,7 +8931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-860666400"/>
+        <c:axId val="1510851888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9684,7 +9039,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-860660960"/>
+        <c:crossAx val="1510857872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9766,7 +9121,7 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -9799,24 +9154,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US"/>
-              <a:t>分群效果比較</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US"/>
-              <a:t>資料集</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>A)</a:t>
+              <a:rPr lang="zh-TW"/>
+              <a:t>分群花費時間比較</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9854,146 +9198,15 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>各比較!$A$7</c:f>
+              <c:f>各比較!$E$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tf-idf內文</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$6:$F$6</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$6:$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>AMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$7:$F$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$7:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.34</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1E71-48AC-9C82-FB9ED8885BDE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>各比較!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tf-idf標題</c:v>
+                  <c:v>our method</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10008,26 +9221,1013 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>各比較!$A$22:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$E$22:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.78</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.71</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-10D7-48C3-898A-80783BAE447F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tf-idf標題</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>各比較!$A$22:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$F$22:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.37</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-10D7-48C3-898A-80783BAE447F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1819137168"/>
+        <c:axId val="1819124112"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tf-idf內文</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>各比較!$A$22:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$B$22:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>290.79000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>254.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>307.74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>383.64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>606.59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>624.97</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>385.29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>522.88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>407.62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>528.19000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>559.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-10D7-48C3-898A-80783BAE447F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>word2vec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>各比較!$A$22:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$C$22:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61.18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100.85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>109.54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>124.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>145.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>170.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-10D7-48C3-898A-80783BAE447F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tf-idf標題</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>各比較!$A$22:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$D$22:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.37</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-10D7-48C3-898A-80783BAE447F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>各比較!$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>our method</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>各比較!$A$22:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>各比較!$G$22:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.68</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.78</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.71</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42FC-4C93-A381-E1D16CCC3F99}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1819133904"/>
+        <c:axId val="1819130640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1819133904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -10035,369 +10235,44 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-TW"/>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>文章數量</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$6:$F$6</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$6:$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>AMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$8:$F$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$8:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1E71-48AC-9C82-FB9ED8885BDE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>各比較!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>word2vec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            </c:rich>
           </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:noFill/>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$6:$F$6</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$6:$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>AMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$9:$F$9</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$9:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.46</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1E71-48AC-9C82-FB9ED8885BDE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>各比較!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>our method</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-TW"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$6:$F$6</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$6:$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>AMI</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>各比較!$B$10:$F$10</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>各比較!$B$10:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.47</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1E71-48AC-9C82-FB9ED8885BDE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-764169776"/>
-        <c:axId val="-764169232"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-764169776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10435,7 +10310,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-764169232"/>
+        <c:crossAx val="1819130640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10443,7 +10318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-764169232"/>
+        <c:axId val="1819130640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10483,12 +10358,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>分數</a:t>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>花費時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>秒</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10549,10 +10437,153 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-764169776"/>
+        <c:crossAx val="1819133904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="1819124112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>花費時間</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-TW"/>
+                  <a:t>秒</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1819137168"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1819137168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1819124112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -10563,6 +10594,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10630,7 +10662,7 @@
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -14353,7 +14385,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DD4A-4AC8-937F-ED0CEE540662}"/>
             </c:ext>
@@ -14367,11 +14399,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-762741920"/>
-        <c:axId val="-762741376"/>
+        <c:axId val="1730948912"/>
+        <c:axId val="1730952176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-762741920"/>
+        <c:axId val="1730948912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14484,12 +14516,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-762741376"/>
+        <c:crossAx val="1730952176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-762741376"/>
+        <c:axId val="1730952176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14614,7 +14646,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-762741920"/>
+        <c:crossAx val="1730948912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14664,7 +14696,7 @@
 </file>
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -17033,7 +17065,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9C20-462C-B949-C85C0BE0CF38}"/>
             </c:ext>
@@ -17047,11 +17079,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-762751712"/>
-        <c:axId val="-762750624"/>
+        <c:axId val="1730940752"/>
+        <c:axId val="1730941840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-762751712"/>
+        <c:axId val="1730940752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17164,12 +17196,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-762750624"/>
+        <c:crossAx val="1730941840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-762750624"/>
+        <c:axId val="1730941840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17294,7 +17326,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-762751712"/>
+        <c:crossAx val="1730940752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17344,7 +17376,7 @@
 </file>
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -20469,7 +20501,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E790-40D1-A7FC-C43155E921F0}"/>
             </c:ext>
@@ -20483,11 +20515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-762740832"/>
-        <c:axId val="-762738112"/>
+        <c:axId val="1730938032"/>
+        <c:axId val="1730948368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-762740832"/>
+        <c:axId val="1730938032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20600,12 +20632,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-762738112"/>
+        <c:crossAx val="1730948368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-762738112"/>
+        <c:axId val="1730948368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20730,7 +20762,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-762740832"/>
+        <c:crossAx val="1730938032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20780,7 +20812,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -20952,7 +20984,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -21058,7 +21090,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-5683-414D-9935-600573EB7805}"/>
             </c:ext>
@@ -21140,7 +21172,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -21246,7 +21278,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-5683-414D-9935-600573EB7805}"/>
             </c:ext>
@@ -21262,9 +21294,9 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-860666944"/>
-        <c:axId val="-860660416"/>
-        <c:extLst>
+        <c:axId val="1510848624"/>
+        <c:axId val="1510856240"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -21272,7 +21304,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio(15)'!$B$1</c15:sqref>
@@ -21313,7 +21345,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio(15)'!$A$2:$A$12</c15:sqref>
@@ -21361,7 +21393,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio(15)'!$B$2:$B$12</c15:sqref>
@@ -21408,7 +21440,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-5683-414D-9935-600573EB7805}"/>
                   </c:ext>
@@ -21421,7 +21453,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio(15)'!$C$1</c15:sqref>
@@ -21462,7 +21494,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio(15)'!$A$2:$A$12</c15:sqref>
@@ -21510,7 +21542,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio(15)'!$C$2:$C$12</c15:sqref>
@@ -21557,7 +21589,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-5683-414D-9935-600573EB7805}"/>
                   </c:ext>
@@ -21570,7 +21602,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio(15)'!$D$1</c15:sqref>
@@ -21611,7 +21643,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio(15)'!$A$2:$A$12</c15:sqref>
@@ -21659,7 +21691,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio(15)'!$D$2:$D$12</c15:sqref>
@@ -21706,7 +21738,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-5683-414D-9935-600573EB7805}"/>
                   </c:ext>
@@ -21717,7 +21749,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-860666944"/>
+        <c:axId val="1510848624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21816,7 +21848,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-860660416"/>
+        <c:crossAx val="1510856240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21824,7 +21856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-860660416"/>
+        <c:axId val="1510856240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21932,7 +21964,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-860666944"/>
+        <c:crossAx val="1510848624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22014,7 +22046,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -22186,7 +22218,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -22292,7 +22324,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5404-4ACB-9122-512F83DBC1AD}"/>
             </c:ext>
@@ -22374,7 +22406,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -22480,7 +22512,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5404-4ACB-9122-512F83DBC1AD}"/>
             </c:ext>
@@ -22496,9 +22528,9 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-860662592"/>
-        <c:axId val="-860657152"/>
-        <c:extLst>
+        <c:axId val="1510851344"/>
+        <c:axId val="1510850800"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -22506,7 +22538,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$B$1</c15:sqref>
@@ -22547,7 +22579,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$A$2:$A$12</c15:sqref>
@@ -22595,7 +22627,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$B$2:$B$12</c15:sqref>
@@ -22642,7 +22674,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-5404-4ACB-9122-512F83DBC1AD}"/>
                   </c:ext>
@@ -22655,7 +22687,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$C$1</c15:sqref>
@@ -22696,7 +22728,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$A$2:$A$12</c15:sqref>
@@ -22744,7 +22776,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$C$2:$C$12</c15:sqref>
@@ -22791,7 +22823,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-5404-4ACB-9122-512F83DBC1AD}"/>
                   </c:ext>
@@ -22804,7 +22836,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$D$1</c15:sqref>
@@ -22845,7 +22877,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$A$2:$A$12</c15:sqref>
@@ -22893,7 +22925,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$D$2:$D$12</c15:sqref>
@@ -22940,7 +22972,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-5404-4ACB-9122-512F83DBC1AD}"/>
                   </c:ext>
@@ -22953,7 +22985,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$G$1</c15:sqref>
@@ -22994,7 +23026,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$A$2:$A$12</c15:sqref>
@@ -23042,7 +23074,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$G$2:$G$12</c15:sqref>
@@ -23089,7 +23121,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-5404-4ACB-9122-512F83DBC1AD}"/>
                   </c:ext>
@@ -23102,7 +23134,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$H$1</c15:sqref>
@@ -23149,7 +23181,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$A$2:$A$12</c15:sqref>
@@ -23197,7 +23229,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (24)'!$H$2:$H$12</c15:sqref>
@@ -23244,7 +23276,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-5404-4ACB-9122-512F83DBC1AD}"/>
                   </c:ext>
@@ -23255,7 +23287,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-860662592"/>
+        <c:axId val="1510851344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23354,7 +23386,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-860657152"/>
+        <c:crossAx val="1510850800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23362,7 +23394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-860657152"/>
+        <c:axId val="1510850800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23470,7 +23502,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-860662592"/>
+        <c:crossAx val="1510851344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23552,7 +23584,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -23724,7 +23756,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -23830,7 +23862,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-171A-4ACC-B85C-CA5F7B19D21C}"/>
             </c:ext>
@@ -23912,7 +23944,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -24018,7 +24050,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-171A-4ACC-B85C-CA5F7B19D21C}"/>
             </c:ext>
@@ -24034,9 +24066,9 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-860670208"/>
-        <c:axId val="-860656608"/>
-        <c:extLst>
+        <c:axId val="1510845904"/>
+        <c:axId val="1510860048"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
               <c15:ser>
@@ -24044,7 +24076,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$B$1</c15:sqref>
@@ -24085,7 +24117,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$A$2:$A$12</c15:sqref>
@@ -24133,7 +24165,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$B$2:$B$12</c15:sqref>
@@ -24180,7 +24212,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-171A-4ACC-B85C-CA5F7B19D21C}"/>
                   </c:ext>
@@ -24193,7 +24225,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$C$1</c15:sqref>
@@ -24234,7 +24266,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$A$2:$A$12</c15:sqref>
@@ -24282,7 +24314,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$C$2:$C$12</c15:sqref>
@@ -24329,7 +24361,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-171A-4ACC-B85C-CA5F7B19D21C}"/>
                   </c:ext>
@@ -24342,7 +24374,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$D$1</c15:sqref>
@@ -24383,7 +24415,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$A$2:$A$12</c15:sqref>
@@ -24431,7 +24463,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$D$2:$D$12</c15:sqref>
@@ -24478,7 +24510,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-171A-4ACC-B85C-CA5F7B19D21C}"/>
                   </c:ext>
@@ -24491,7 +24523,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$G$1</c15:sqref>
@@ -24532,7 +24564,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$A$2:$A$12</c15:sqref>
@@ -24580,7 +24612,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$G$2:$G$12</c15:sqref>
@@ -24627,7 +24659,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-171A-4ACC-B85C-CA5F7B19D21C}"/>
                   </c:ext>
@@ -24640,7 +24672,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$H$1</c15:sqref>
@@ -24687,7 +24719,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$A$2:$A$12</c15:sqref>
@@ -24735,7 +24767,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Ratio (29)'!$H$2:$H$12</c15:sqref>
@@ -24782,7 +24814,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-171A-4ACC-B85C-CA5F7B19D21C}"/>
                   </c:ext>
@@ -24793,7 +24825,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-860670208"/>
+        <c:axId val="1510845904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24892,7 +24924,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-860656608"/>
+        <c:crossAx val="1510860048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24900,7 +24932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-860656608"/>
+        <c:axId val="1510860048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25008,7 +25040,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-860670208"/>
+        <c:crossAx val="1510845904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25090,7 +25122,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -25255,7 +25287,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A7D9-4419-8954-09F4E7286BF8}"/>
             </c:ext>
@@ -25339,7 +25371,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A7D9-4419-8954-09F4E7286BF8}"/>
             </c:ext>
@@ -25423,7 +25455,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A7D9-4419-8954-09F4E7286BF8}"/>
             </c:ext>
@@ -25507,7 +25539,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A7D9-4419-8954-09F4E7286BF8}"/>
             </c:ext>
@@ -25522,11 +25554,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-860661504"/>
-        <c:axId val="-860669664"/>
+        <c:axId val="1510850256"/>
+        <c:axId val="1510844816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-860661504"/>
+        <c:axId val="1510850256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25624,7 +25656,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-860669664"/>
+        <c:crossAx val="1510844816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25632,7 +25664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-860669664"/>
+        <c:axId val="1510844816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25739,7 +25771,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-860661504"/>
+        <c:crossAx val="1510850256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25820,7 +25852,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -25985,7 +26017,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3588-44D6-B9B0-E7015F1749EF}"/>
             </c:ext>
@@ -26069,7 +26101,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3588-44D6-B9B0-E7015F1749EF}"/>
             </c:ext>
@@ -26153,7 +26185,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3588-44D6-B9B0-E7015F1749EF}"/>
             </c:ext>
@@ -26237,7 +26269,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3588-44D6-B9B0-E7015F1749EF}"/>
             </c:ext>
@@ -26252,11 +26284,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-857852240"/>
-        <c:axId val="-857856048"/>
+        <c:axId val="1729583664"/>
+        <c:axId val="1729579856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-857852240"/>
+        <c:axId val="1729583664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26354,7 +26386,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857856048"/>
+        <c:crossAx val="1729579856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -26362,7 +26394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857856048"/>
+        <c:axId val="1729579856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26469,7 +26501,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857852240"/>
+        <c:crossAx val="1729583664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26550,7 +26582,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -26715,7 +26747,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4B6D-456B-BC70-798E50E7C408}"/>
             </c:ext>
@@ -26799,7 +26831,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4B6D-456B-BC70-798E50E7C408}"/>
             </c:ext>
@@ -26883,7 +26915,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4B6D-456B-BC70-798E50E7C408}"/>
             </c:ext>
@@ -26967,7 +26999,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4B6D-456B-BC70-798E50E7C408}"/>
             </c:ext>
@@ -26982,11 +27014,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-857854416"/>
-        <c:axId val="-857860944"/>
+        <c:axId val="1729586928"/>
+        <c:axId val="1729584208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-857854416"/>
+        <c:axId val="1729586928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27084,7 +27116,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857860944"/>
+        <c:crossAx val="1729584208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -27092,7 +27124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857860944"/>
+        <c:axId val="1729584208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27199,7 +27231,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857854416"/>
+        <c:crossAx val="1729586928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27280,7 +27312,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -27445,7 +27477,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4861-4168-943A-10F87388C871}"/>
             </c:ext>
@@ -27529,7 +27561,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4861-4168-943A-10F87388C871}"/>
             </c:ext>
@@ -27613,7 +27645,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-4861-4168-943A-10F87388C871}"/>
             </c:ext>
@@ -27697,7 +27729,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4861-4168-943A-10F87388C871}"/>
             </c:ext>
@@ -27712,11 +27744,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-857854960"/>
-        <c:axId val="-857864752"/>
+        <c:axId val="1729595088"/>
+        <c:axId val="1729591280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-857854960"/>
+        <c:axId val="1729595088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27814,7 +27846,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857864752"/>
+        <c:crossAx val="1729591280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -27822,7 +27854,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-857864752"/>
+        <c:axId val="1729591280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27929,7 +27961,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857854960"/>
+        <c:crossAx val="1729595088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -32993,7 +33025,7 @@
 </file>
 
 <file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -33197,23 +33229,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -33383,17 +33414,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -33462,20 +33482,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -35031,7 +35050,7 @@
 </file>
 
 <file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -35235,22 +35254,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -35420,6 +35440,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -35488,19 +35519,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -41246,38 +41278,6 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="圖表 9"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -41300,7 +41300,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -41332,7 +41332,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -41354,6 +41354,38 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="12" name="圖表 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="圖表 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -43149,7 +43181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
@@ -47047,8 +47079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="T48" sqref="T48"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
